--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Sh2ot\GIt用フォルダ\新しいフォルダー (2)\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAAF465-701E-4613-AF57-34C4B729490E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D642B18E-F325-4FF4-974E-A5A07CEC4421}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" activeTab="2" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="やることリスト　プログラミング" sheetId="2" r:id="rId1"/>
     <sheet name="やることリスト モデル" sheetId="5" r:id="rId2"/>
-    <sheet name="日程" sheetId="4" r:id="rId3"/>
+    <sheet name="マップ制作案" sheetId="6" r:id="rId3"/>
+    <sheet name="日程" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="87">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -300,12 +301,38 @@
     <t>実施予定</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>D崩壊エリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C生物収容所</t>
+    <rPh sb="3" eb="5">
+      <t>シュウヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bオフィスエリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A研究エリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,8 +411,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,8 +505,20 @@
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -511,6 +582,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -520,7 +671,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,6 +790,105 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,6 +1198,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>193964</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>55419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2DB6830-04DC-44CE-A6C3-8BE7A070E49B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24806564" y="3918759"/>
+          <a:ext cx="10237816" cy="5097086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2814,10 +3119,1900 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2938C-A6E3-41DD-BC66-7CDBE357270C}">
+  <dimension ref="D3:BH48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AK56" sqref="AK56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="19.95" customHeight="1"/>
+  <cols>
+    <col min="4" max="49" width="6.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:46" ht="18.600000000000001" thickBot="1"/>
+    <row r="4" spans="4:46" ht="25.05" customHeight="1">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="42"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="42"/>
+    </row>
+    <row r="5" spans="4:46" ht="25.05" customHeight="1">
+      <c r="D5" s="43"/>
+      <c r="E5" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="46"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="46"/>
+    </row>
+    <row r="6" spans="4:46" ht="25.05" customHeight="1">
+      <c r="D6" s="43"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="46"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="46"/>
+    </row>
+    <row r="7" spans="4:46" ht="25.05" customHeight="1">
+      <c r="D7" s="43"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="46"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="46"/>
+    </row>
+    <row r="8" spans="4:46" ht="25.05" customHeight="1">
+      <c r="D8" s="43"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="46"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="46"/>
+    </row>
+    <row r="9" spans="4:46" ht="25.05" customHeight="1">
+      <c r="D9" s="43"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="46"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="46"/>
+    </row>
+    <row r="10" spans="4:46" ht="25.05" customHeight="1">
+      <c r="D10" s="43"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="46"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="45"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="45"/>
+      <c r="AM10" s="45"/>
+      <c r="AN10" s="45"/>
+      <c r="AO10" s="45"/>
+      <c r="AP10" s="45"/>
+      <c r="AQ10" s="45"/>
+      <c r="AR10" s="45"/>
+      <c r="AS10" s="45"/>
+      <c r="AT10" s="46"/>
+    </row>
+    <row r="11" spans="4:46" ht="25.05" customHeight="1">
+      <c r="D11" s="43"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="46"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="45"/>
+      <c r="AP11" s="45"/>
+      <c r="AQ11" s="45"/>
+      <c r="AR11" s="45"/>
+      <c r="AS11" s="45"/>
+      <c r="AT11" s="46"/>
+    </row>
+    <row r="12" spans="4:46" ht="25.05" customHeight="1">
+      <c r="D12" s="43"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="46"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="45"/>
+      <c r="AS12" s="45"/>
+      <c r="AT12" s="46"/>
+    </row>
+    <row r="13" spans="4:46" ht="25.05" customHeight="1">
+      <c r="D13" s="43"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="46"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="46"/>
+    </row>
+    <row r="14" spans="4:46" ht="25.05" customHeight="1">
+      <c r="D14" s="43"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="46"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="45"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="45"/>
+      <c r="AT14" s="46"/>
+    </row>
+    <row r="15" spans="4:46" ht="25.05" customHeight="1">
+      <c r="D15" s="43"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="46"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="45"/>
+      <c r="AL15" s="45"/>
+      <c r="AM15" s="45"/>
+      <c r="AN15" s="45"/>
+      <c r="AO15" s="45"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="45"/>
+      <c r="AR15" s="45"/>
+      <c r="AS15" s="45"/>
+      <c r="AT15" s="46"/>
+    </row>
+    <row r="16" spans="4:46" ht="25.05" customHeight="1">
+      <c r="D16" s="43"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="46"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="45"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="45"/>
+      <c r="AS16" s="45"/>
+      <c r="AT16" s="46"/>
+    </row>
+    <row r="17" spans="4:49" ht="25.05" customHeight="1">
+      <c r="D17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="46"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="45"/>
+      <c r="AH17" s="45"/>
+      <c r="AI17" s="45"/>
+      <c r="AJ17" s="45"/>
+      <c r="AK17" s="45"/>
+      <c r="AL17" s="45"/>
+      <c r="AM17" s="45"/>
+      <c r="AN17" s="45"/>
+      <c r="AO17" s="45"/>
+      <c r="AP17" s="45"/>
+      <c r="AQ17" s="45"/>
+      <c r="AR17" s="45"/>
+      <c r="AS17" s="45"/>
+      <c r="AT17" s="46"/>
+    </row>
+    <row r="18" spans="4:49" ht="25.05" customHeight="1">
+      <c r="D18" s="43"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="46"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="45"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="46"/>
+    </row>
+    <row r="19" spans="4:49" ht="25.05" customHeight="1">
+      <c r="D19" s="43"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="46"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="45"/>
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="45"/>
+      <c r="AN19" s="45"/>
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="45"/>
+      <c r="AQ19" s="45"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="46"/>
+    </row>
+    <row r="20" spans="4:49" ht="25.05" customHeight="1">
+      <c r="D20" s="43"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="46"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="45"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="45"/>
+      <c r="AQ20" s="45"/>
+      <c r="AR20" s="45"/>
+      <c r="AS20" s="45"/>
+      <c r="AT20" s="46"/>
+    </row>
+    <row r="21" spans="4:49" ht="25.05" customHeight="1">
+      <c r="D21" s="43"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="46"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="45"/>
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="45"/>
+      <c r="AK21" s="45"/>
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="45"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
+      <c r="AQ21" s="45"/>
+      <c r="AR21" s="45"/>
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="46"/>
+    </row>
+    <row r="22" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="49"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="48"/>
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="48"/>
+      <c r="AS22" s="48"/>
+      <c r="AT22" s="49"/>
+    </row>
+    <row r="23" spans="4:49" ht="25.05" customHeight="1">
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="45"/>
+      <c r="AJ23" s="45"/>
+      <c r="AK23" s="45"/>
+      <c r="AL23" s="45"/>
+      <c r="AM23" s="45"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="45"/>
+      <c r="AP23" s="45"/>
+      <c r="AQ23" s="45"/>
+      <c r="AR23" s="45"/>
+      <c r="AS23" s="45"/>
+      <c r="AT23" s="45"/>
+    </row>
+    <row r="24" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
+      <c r="AA24" s="50"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="52"/>
+      <c r="AK24" s="48"/>
+      <c r="AU24" s="48"/>
+      <c r="AV24" s="48"/>
+      <c r="AW24" s="48"/>
+    </row>
+    <row r="25" spans="4:49" ht="25.05" customHeight="1">
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="42"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="54"/>
+      <c r="AF25" s="54"/>
+      <c r="AG25" s="54"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="54"/>
+      <c r="AL25" s="54"/>
+      <c r="AM25" s="54"/>
+      <c r="AN25" s="54"/>
+      <c r="AO25" s="54"/>
+      <c r="AP25" s="54"/>
+      <c r="AQ25" s="54"/>
+      <c r="AR25" s="54"/>
+      <c r="AS25" s="54"/>
+      <c r="AT25" s="54"/>
+      <c r="AU25" s="57"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="55"/>
+    </row>
+    <row r="26" spans="4:49" ht="25.05" customHeight="1">
+      <c r="D26" s="43"/>
+      <c r="E26" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="46"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="60"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
+      <c r="AP26" s="59"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="59"/>
+      <c r="AS26" s="59"/>
+      <c r="AT26" s="59"/>
+      <c r="AU26" s="57"/>
+      <c r="AV26" s="57"/>
+      <c r="AW26" s="60"/>
+    </row>
+    <row r="27" spans="4:49" ht="25.05" customHeight="1">
+      <c r="D27" s="43"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="46"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="59"/>
+      <c r="AL27" s="59"/>
+      <c r="AM27" s="59"/>
+      <c r="AN27" s="59"/>
+      <c r="AO27" s="59"/>
+      <c r="AP27" s="59"/>
+      <c r="AQ27" s="59"/>
+      <c r="AR27" s="59"/>
+      <c r="AS27" s="59"/>
+      <c r="AT27" s="59"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="57"/>
+      <c r="AW27" s="60"/>
+    </row>
+    <row r="28" spans="4:49" ht="25.05" customHeight="1">
+      <c r="D28" s="43"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="46"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="59"/>
+      <c r="AG28" s="59"/>
+      <c r="AH28" s="60"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="59"/>
+      <c r="AO28" s="59"/>
+      <c r="AP28" s="59"/>
+      <c r="AQ28" s="59"/>
+      <c r="AR28" s="59"/>
+      <c r="AS28" s="59"/>
+      <c r="AT28" s="59"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="60"/>
+    </row>
+    <row r="29" spans="4:49" ht="25.05" customHeight="1">
+      <c r="D29" s="43"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="46"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="59"/>
+      <c r="AG29" s="59"/>
+      <c r="AH29" s="60"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="59"/>
+      <c r="AL29" s="59"/>
+      <c r="AM29" s="59"/>
+      <c r="AN29" s="59"/>
+      <c r="AO29" s="59"/>
+      <c r="AP29" s="59"/>
+      <c r="AQ29" s="59"/>
+      <c r="AR29" s="59"/>
+      <c r="AS29" s="59"/>
+      <c r="AT29" s="59"/>
+      <c r="AU29" s="57"/>
+      <c r="AV29" s="57"/>
+      <c r="AW29" s="60"/>
+    </row>
+    <row r="30" spans="4:49" ht="25.05" customHeight="1">
+      <c r="D30" s="43"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="46"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="59"/>
+      <c r="AG30" s="59"/>
+      <c r="AH30" s="60"/>
+      <c r="AI30" s="56"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="59"/>
+      <c r="AL30" s="59"/>
+      <c r="AM30" s="59"/>
+      <c r="AN30" s="59"/>
+      <c r="AO30" s="59"/>
+      <c r="AP30" s="59"/>
+      <c r="AQ30" s="59"/>
+      <c r="AR30" s="59"/>
+      <c r="AS30" s="59"/>
+      <c r="AT30" s="59"/>
+      <c r="AU30" s="57"/>
+      <c r="AV30" s="57"/>
+      <c r="AW30" s="60"/>
+    </row>
+    <row r="31" spans="4:49" ht="25.05" customHeight="1">
+      <c r="D31" s="43"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="46"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="59"/>
+      <c r="AF31" s="59"/>
+      <c r="AG31" s="59"/>
+      <c r="AH31" s="60"/>
+      <c r="AI31" s="56"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="59"/>
+      <c r="AL31" s="59"/>
+      <c r="AM31" s="59"/>
+      <c r="AN31" s="59"/>
+      <c r="AO31" s="59"/>
+      <c r="AP31" s="59"/>
+      <c r="AQ31" s="59"/>
+      <c r="AR31" s="59"/>
+      <c r="AS31" s="59"/>
+      <c r="AT31" s="59"/>
+      <c r="AU31" s="57"/>
+      <c r="AV31" s="57"/>
+      <c r="AW31" s="60"/>
+    </row>
+    <row r="32" spans="4:49" ht="25.05" customHeight="1">
+      <c r="D32" s="43"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="46"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="59"/>
+      <c r="AF32" s="59"/>
+      <c r="AG32" s="59"/>
+      <c r="AH32" s="60"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="59"/>
+      <c r="AL32" s="59"/>
+      <c r="AM32" s="59"/>
+      <c r="AN32" s="59"/>
+      <c r="AO32" s="59"/>
+      <c r="AP32" s="59"/>
+      <c r="AQ32" s="59"/>
+      <c r="AR32" s="59"/>
+      <c r="AS32" s="59"/>
+      <c r="AT32" s="59"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="60"/>
+    </row>
+    <row r="33" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
+      <c r="D33" s="43"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="46"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="63"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="64"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="59"/>
+      <c r="AN33" s="59"/>
+      <c r="AO33" s="59"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="59"/>
+      <c r="AS33" s="59"/>
+      <c r="AT33" s="59"/>
+      <c r="AU33" s="57"/>
+      <c r="AV33" s="57"/>
+      <c r="AW33" s="60"/>
+    </row>
+    <row r="34" spans="4:60" ht="25.05" customHeight="1">
+      <c r="D34" s="43"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="46"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+      <c r="AB34" s="56"/>
+      <c r="AC34" s="56"/>
+      <c r="AD34" s="56"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="65"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="52"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="59"/>
+      <c r="AT34" s="59"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="60"/>
+    </row>
+    <row r="35" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
+      <c r="D35" s="43"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="46"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="56"/>
+      <c r="AC35" s="56"/>
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="52"/>
+      <c r="AK35" s="62"/>
+      <c r="AL35" s="63"/>
+      <c r="AM35" s="63"/>
+      <c r="AN35" s="63"/>
+      <c r="AO35" s="63"/>
+      <c r="AP35" s="63"/>
+      <c r="AQ35" s="63"/>
+      <c r="AR35" s="63"/>
+      <c r="AS35" s="59"/>
+      <c r="AT35" s="63"/>
+      <c r="AU35" s="63"/>
+      <c r="AV35" s="63"/>
+      <c r="AW35" s="64"/>
+    </row>
+    <row r="36" spans="4:60" ht="25.05" customHeight="1">
+      <c r="D36" s="43"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="54"/>
+      <c r="AE36" s="54"/>
+      <c r="AF36" s="54"/>
+      <c r="AG36" s="54"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="54"/>
+      <c r="AJ36" s="54"/>
+      <c r="AK36" s="55"/>
+      <c r="AL36" s="53"/>
+      <c r="AM36" s="59"/>
+      <c r="AN36" s="59"/>
+      <c r="AO36" s="59"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="59"/>
+      <c r="AR36" s="59"/>
+      <c r="AS36" s="59"/>
+      <c r="AT36" s="54"/>
+      <c r="AU36" s="67"/>
+      <c r="AV36" s="67"/>
+      <c r="AW36" s="68"/>
+    </row>
+    <row r="37" spans="4:60" ht="25.05" customHeight="1">
+      <c r="D37" s="43"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="46"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="58"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="60"/>
+      <c r="AL37" s="58"/>
+      <c r="AM37" s="59"/>
+      <c r="AN37" s="59"/>
+      <c r="AO37" s="59"/>
+      <c r="AP37" s="59"/>
+      <c r="AQ37" s="59"/>
+      <c r="AR37" s="59"/>
+      <c r="AS37" s="59"/>
+      <c r="AT37" s="59"/>
+      <c r="AU37" s="69"/>
+      <c r="AV37" s="67"/>
+      <c r="AW37" s="68"/>
+    </row>
+    <row r="38" spans="4:60" ht="25.05" customHeight="1">
+      <c r="D38" s="43"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="46"/>
+      <c r="Z38" s="58"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="59"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="60"/>
+      <c r="AL38" s="58"/>
+      <c r="AM38" s="59"/>
+      <c r="AN38" s="59"/>
+      <c r="AO38" s="59"/>
+      <c r="AP38" s="59"/>
+      <c r="AQ38" s="59"/>
+      <c r="AR38" s="59"/>
+      <c r="AS38" s="59"/>
+      <c r="AT38" s="59"/>
+      <c r="AU38" s="69"/>
+      <c r="AV38" s="67"/>
+      <c r="AW38" s="68"/>
+    </row>
+    <row r="39" spans="4:60" ht="25.05" customHeight="1">
+      <c r="D39" s="43"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="46"/>
+      <c r="Z39" s="58"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59"/>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="59"/>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="60"/>
+      <c r="AL39" s="58"/>
+      <c r="AM39" s="59"/>
+      <c r="AN39" s="59"/>
+      <c r="AO39" s="59"/>
+      <c r="AP39" s="59"/>
+      <c r="AQ39" s="59"/>
+      <c r="AR39" s="59"/>
+      <c r="AS39" s="59"/>
+      <c r="AT39" s="59"/>
+      <c r="AU39" s="69"/>
+      <c r="AV39" s="67"/>
+      <c r="AW39" s="68"/>
+    </row>
+    <row r="40" spans="4:60" ht="25.05" customHeight="1">
+      <c r="D40" s="43"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="46"/>
+      <c r="Z40" s="58"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="60"/>
+      <c r="AL40" s="58"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="59"/>
+      <c r="AO40" s="59"/>
+      <c r="AP40" s="59"/>
+      <c r="AQ40" s="59"/>
+      <c r="AR40" s="59"/>
+      <c r="AS40" s="59"/>
+      <c r="AT40" s="59"/>
+      <c r="AU40" s="69"/>
+      <c r="AV40" s="67"/>
+      <c r="AW40" s="68"/>
+    </row>
+    <row r="41" spans="4:60" ht="25.05" customHeight="1">
+      <c r="D41" s="43"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="46"/>
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="59"/>
+      <c r="AG41" s="59"/>
+      <c r="AH41" s="59"/>
+      <c r="AI41" s="59"/>
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="60"/>
+      <c r="AL41" s="58"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="59"/>
+      <c r="AO41" s="59"/>
+      <c r="AP41" s="59"/>
+      <c r="AQ41" s="59"/>
+      <c r="AR41" s="59"/>
+      <c r="AS41" s="59"/>
+      <c r="AT41" s="59"/>
+      <c r="AU41" s="69"/>
+      <c r="AV41" s="67"/>
+      <c r="AW41" s="68"/>
+    </row>
+    <row r="42" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
+      <c r="D42" s="47"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="49"/>
+      <c r="Z42" s="58"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="59"/>
+      <c r="AF42" s="59"/>
+      <c r="AG42" s="59"/>
+      <c r="AH42" s="59"/>
+      <c r="AI42" s="59"/>
+      <c r="AJ42" s="59"/>
+      <c r="AK42" s="60"/>
+      <c r="AL42" s="58"/>
+      <c r="AM42" s="59"/>
+      <c r="AN42" s="59"/>
+      <c r="AO42" s="59"/>
+      <c r="AP42" s="59"/>
+      <c r="AQ42" s="59"/>
+      <c r="AR42" s="59"/>
+      <c r="AS42" s="59"/>
+      <c r="AT42" s="59"/>
+      <c r="AU42" s="69"/>
+      <c r="AV42" s="67"/>
+      <c r="AW42" s="68"/>
+    </row>
+    <row r="43" spans="4:60" ht="19.95" customHeight="1">
+      <c r="Z43" s="58"/>
+      <c r="AA43" s="59"/>
+      <c r="AB43" s="59"/>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="59"/>
+      <c r="AE43" s="59"/>
+      <c r="AF43" s="59"/>
+      <c r="AG43" s="59"/>
+      <c r="AH43" s="59"/>
+      <c r="AI43" s="59"/>
+      <c r="AJ43" s="59"/>
+      <c r="AK43" s="60"/>
+      <c r="AL43" s="58"/>
+      <c r="AM43" s="59"/>
+      <c r="AN43" s="59"/>
+      <c r="AO43" s="59"/>
+      <c r="AP43" s="59"/>
+      <c r="AQ43" s="59"/>
+      <c r="AR43" s="59"/>
+      <c r="AS43" s="59"/>
+      <c r="AT43" s="59"/>
+      <c r="AU43" s="69"/>
+      <c r="AV43" s="67"/>
+      <c r="AW43" s="68"/>
+    </row>
+    <row r="44" spans="4:60" ht="19.95" customHeight="1">
+      <c r="Z44" s="58"/>
+      <c r="AA44" s="59"/>
+      <c r="AB44" s="59"/>
+      <c r="AC44" s="59"/>
+      <c r="AD44" s="59"/>
+      <c r="AE44" s="59"/>
+      <c r="AF44" s="59"/>
+      <c r="AG44" s="59"/>
+      <c r="AH44" s="59"/>
+      <c r="AI44" s="59"/>
+      <c r="AJ44" s="59"/>
+      <c r="AK44" s="59"/>
+      <c r="AL44" s="59"/>
+      <c r="AM44" s="59"/>
+      <c r="AN44" s="59"/>
+      <c r="AO44" s="59"/>
+      <c r="AP44" s="59"/>
+      <c r="AQ44" s="59"/>
+      <c r="AR44" s="59"/>
+      <c r="AS44" s="59"/>
+      <c r="AT44" s="59"/>
+      <c r="AU44" s="69"/>
+      <c r="AV44" s="67"/>
+      <c r="AW44" s="68"/>
+      <c r="BH44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="4:60" ht="19.95" customHeight="1" thickBot="1">
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="59"/>
+      <c r="AB45" s="59"/>
+      <c r="AC45" s="59"/>
+      <c r="AD45" s="59"/>
+      <c r="AE45" s="59"/>
+      <c r="AF45" s="59"/>
+      <c r="AG45" s="59"/>
+      <c r="AH45" s="59"/>
+      <c r="AI45" s="59"/>
+      <c r="AJ45" s="59"/>
+      <c r="AK45" s="60"/>
+      <c r="AL45" s="58"/>
+      <c r="AM45" s="59"/>
+      <c r="AN45" s="59"/>
+      <c r="AO45" s="59"/>
+      <c r="AP45" s="59"/>
+      <c r="AQ45" s="59"/>
+      <c r="AR45" s="59"/>
+      <c r="AS45" s="59"/>
+      <c r="AT45" s="63"/>
+      <c r="AU45" s="70"/>
+      <c r="AV45" s="70"/>
+      <c r="AW45" s="71"/>
+    </row>
+    <row r="46" spans="4:60" ht="19.95" customHeight="1">
+      <c r="Y46" s="45"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="72"/>
+      <c r="AD46" s="72"/>
+      <c r="AE46" s="72"/>
+      <c r="AF46" s="72"/>
+      <c r="AG46" s="72"/>
+      <c r="AH46" s="72"/>
+      <c r="AI46" s="72"/>
+      <c r="AJ46" s="72"/>
+      <c r="AK46" s="72"/>
+      <c r="AL46" s="72"/>
+      <c r="AM46" s="72"/>
+      <c r="AN46" s="72"/>
+      <c r="AO46" s="72"/>
+      <c r="AP46" s="72"/>
+      <c r="AQ46" s="72"/>
+      <c r="AR46" s="72"/>
+      <c r="AS46" s="72"/>
+      <c r="AT46" s="72"/>
+    </row>
+    <row r="47" spans="4:60" ht="19.95" customHeight="1">
+      <c r="Z47" s="45"/>
+      <c r="AA47" s="45"/>
+      <c r="AB47" s="45"/>
+      <c r="AC47" s="45"/>
+      <c r="AD47" s="45"/>
+      <c r="AE47" s="45"/>
+      <c r="AF47" s="45"/>
+      <c r="AG47" s="45"/>
+      <c r="AH47" s="45"/>
+      <c r="AI47" s="45"/>
+      <c r="AJ47" s="45"/>
+      <c r="AK47" s="45"/>
+      <c r="AL47" s="45"/>
+      <c r="AM47" s="45"/>
+      <c r="AN47" s="45"/>
+      <c r="AO47" s="45"/>
+      <c r="AP47" s="45"/>
+      <c r="AQ47" s="45"/>
+      <c r="AR47" s="45"/>
+      <c r="AS47" s="45"/>
+      <c r="AT47" s="45"/>
+      <c r="AU47" s="45"/>
+      <c r="AV47" s="45"/>
+      <c r="AW47" s="45"/>
+      <c r="AX47" s="45"/>
+    </row>
+    <row r="48" spans="4:60" ht="19.95" customHeight="1">
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="45"/>
+      <c r="AC48" s="45"/>
+      <c r="AD48" s="45"/>
+      <c r="AE48" s="45"/>
+      <c r="AF48" s="45"/>
+      <c r="AG48" s="45"/>
+      <c r="AH48" s="45"/>
+      <c r="AI48" s="45"/>
+      <c r="AJ48" s="45"/>
+      <c r="AK48" s="45"/>
+      <c r="AL48" s="45"/>
+      <c r="AM48" s="45"/>
+      <c r="AN48" s="45"/>
+      <c r="AO48" s="45"/>
+      <c r="AP48" s="45"/>
+      <c r="AQ48" s="45"/>
+      <c r="AR48" s="45"/>
+      <c r="AS48" s="45"/>
+      <c r="AT48" s="45"/>
+      <c r="AU48" s="45"/>
+      <c r="AV48" s="45"/>
+      <c r="AW48" s="45"/>
+      <c r="AX48" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF58BBBC-D08F-44AA-BEF2-75C4694003F0}">
   <dimension ref="A1:K222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github3\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE5EFF3-0BA4-4861-80D7-B489012F17C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8424DF6-C24F-4EA3-80E1-5EC239E622FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" activeTab="2" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -1113,7 +1113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1331,6 +1331,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1340,7 +1403,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1587,12 +1650,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1603,6 +1660,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2032,6 +2125,106 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>472989</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>42292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB380FE-61EA-4CFC-BF91-3DFDE36DA06D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="12706350"/>
+          <a:ext cx="6340389" cy="4404742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>305563</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>194586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD82838-62DE-48F2-BD6D-01F6169B21A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="13582650"/>
+          <a:ext cx="8801863" cy="3185436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4201,8 +4394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2938C-A6E3-41DD-BC66-7CDBE357270C}">
   <dimension ref="D3:BH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AM18" sqref="AM18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="19.95" customHeight="1"/>
@@ -4541,7 +4734,7 @@
       <c r="AA11" s="42"/>
       <c r="AB11" s="53"/>
       <c r="AC11" s="53"/>
-      <c r="AD11" s="84"/>
+      <c r="AD11" s="82"/>
       <c r="AE11" s="53"/>
       <c r="AF11" s="53"/>
       <c r="AG11" s="53"/>
@@ -4568,14 +4761,15 @@
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="91"/>
       <c r="U12" s="42"/>
       <c r="V12" s="42"/>
       <c r="W12" s="43"/>
@@ -4583,7 +4777,7 @@
       <c r="AA12" s="53"/>
       <c r="AB12" s="53"/>
       <c r="AC12" s="53"/>
-      <c r="AD12" s="84"/>
+      <c r="AD12" s="82"/>
       <c r="AE12" s="42"/>
       <c r="AF12" s="42"/>
       <c r="AH12" s="53"/>
@@ -4605,19 +4799,19 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="49"/>
       <c r="U13" s="42"/>
       <c r="V13" s="42"/>
       <c r="W13" s="43"/>
@@ -4648,19 +4842,19 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="49"/>
       <c r="U14" s="42"/>
       <c r="V14" s="42"/>
       <c r="W14" s="43"/>
@@ -4686,24 +4880,24 @@
       <c r="AS14" s="42"/>
       <c r="AT14" s="43"/>
     </row>
-    <row r="15" spans="4:46" ht="25.05" customHeight="1">
+    <row r="15" spans="4:46" ht="25.05" customHeight="1" thickBot="1">
       <c r="D15" s="40"/>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="49"/>
       <c r="U15" s="42"/>
       <c r="V15" s="42"/>
       <c r="W15" s="43"/>
@@ -4734,19 +4928,19 @@
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="49"/>
       <c r="U16" s="42"/>
       <c r="V16" s="42"/>
       <c r="W16" s="43"/>
@@ -4777,19 +4971,19 @@
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="49"/>
       <c r="U17" s="42"/>
       <c r="V17" s="42"/>
       <c r="W17" s="43"/>
@@ -4820,24 +5014,25 @@
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="43"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="48"/>
       <c r="Y18" s="48"/>
-      <c r="Z18" s="85"/>
+      <c r="Z18" s="83"/>
       <c r="AA18" s="53"/>
       <c r="AB18" s="53"/>
       <c r="AC18" s="53"/>
@@ -4864,31 +5059,32 @@
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="49"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="43"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="48"/>
       <c r="Y19" s="48"/>
-      <c r="Z19" s="85"/>
+      <c r="Z19" s="83"/>
       <c r="AA19" s="53"/>
       <c r="AB19" s="53"/>
       <c r="AC19" s="53"/>
       <c r="AD19" s="53"/>
       <c r="AE19" s="53"/>
-      <c r="AF19" s="84"/>
-      <c r="AG19" s="84"/>
+      <c r="AF19" s="82"/>
+      <c r="AG19" s="82"/>
       <c r="AH19" s="53"/>
       <c r="AI19" s="53"/>
       <c r="AJ19" s="53"/>
@@ -4908,16 +5104,16 @@
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="49"/>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
       <c r="L20" s="42"/>
       <c r="M20" s="42"/>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="49"/>
       <c r="R20" s="42"/>
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
@@ -4931,7 +5127,7 @@
       <c r="AD20" s="42"/>
       <c r="AE20" s="42"/>
       <c r="AF20" s="53"/>
-      <c r="AG20" s="87"/>
+      <c r="AG20" s="85"/>
       <c r="AH20" s="53"/>
       <c r="AI20" s="53"/>
       <c r="AJ20" s="42"/>
@@ -4951,16 +5147,16 @@
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="49"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
       <c r="M21" s="42"/>
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="49"/>
       <c r="R21" s="42"/>
       <c r="S21" s="42"/>
       <c r="T21" s="42"/>
@@ -4994,16 +5190,16 @@
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="89"/>
       <c r="J22" s="45"/>
       <c r="K22" s="45"/>
       <c r="L22" s="45"/>
       <c r="M22" s="45"/>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="89"/>
       <c r="R22" s="45"/>
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
@@ -5012,17 +5208,17 @@
       <c r="W22" s="46"/>
       <c r="Z22" s="44"/>
       <c r="AA22" s="45"/>
-      <c r="AB22" s="84"/>
-      <c r="AC22" s="84"/>
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="82"/>
       <c r="AD22" s="45"/>
       <c r="AE22" s="45"/>
       <c r="AF22" s="45"/>
       <c r="AG22" s="45"/>
-      <c r="AH22" s="86"/>
-      <c r="AI22" s="86"/>
-      <c r="AJ22" s="86"/>
-      <c r="AK22" s="86"/>
-      <c r="AL22" s="86"/>
+      <c r="AH22" s="84"/>
+      <c r="AI22" s="84"/>
+      <c r="AJ22" s="84"/>
+      <c r="AK22" s="84"/>
+      <c r="AL22" s="84"/>
       <c r="AM22" s="45"/>
       <c r="AN22" s="45"/>
       <c r="AO22" s="45"/>
@@ -5037,16 +5233,16 @@
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="49"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
       <c r="L23" s="42"/>
       <c r="M23" s="42"/>
       <c r="N23" s="42"/>
       <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="49"/>
       <c r="R23" s="42"/>
       <c r="S23" s="42"/>
       <c r="T23" s="42"/>
@@ -5076,6 +5272,10 @@
       <c r="AT23" s="42"/>
     </row>
     <row r="24" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
+      <c r="H24" s="88"/>
+      <c r="I24" s="89"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="89"/>
       <c r="AA24" s="47"/>
       <c r="AH24" s="46"/>
       <c r="AI24" s="48"/>
@@ -5085,27 +5285,27 @@
       <c r="AV24" s="45"/>
       <c r="AW24" s="45"/>
     </row>
-    <row r="25" spans="4:49" ht="25.05" customHeight="1">
+    <row r="25" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
       <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="93"/>
       <c r="O25" s="38"/>
       <c r="P25" s="38"/>
       <c r="Q25" s="38"/>
       <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="39"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="91"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="51"/>
       <c r="AB25" s="51"/>
@@ -5136,7 +5336,7 @@
       <c r="E26" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
@@ -5179,10 +5379,10 @@
       <c r="AV26" s="54"/>
       <c r="AW26" s="57"/>
     </row>
-    <row r="27" spans="4:49" ht="25.05" customHeight="1">
+    <row r="27" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
       <c r="D27" s="40"/>
       <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+      <c r="F27" s="89"/>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
       <c r="I27" s="42"/>
@@ -5225,10 +5425,10 @@
       <c r="AV27" s="54"/>
       <c r="AW27" s="57"/>
     </row>
-    <row r="28" spans="4:49" ht="25.05" customHeight="1">
-      <c r="D28" s="40"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
+    <row r="28" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
+      <c r="D28" s="92"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="85"/>
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
@@ -5244,8 +5444,8 @@
       <c r="S28" s="42"/>
       <c r="T28" s="42"/>
       <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="43"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="91"/>
       <c r="Z28" s="55"/>
       <c r="AA28" s="56"/>
       <c r="AB28" s="56"/>
@@ -5274,7 +5474,7 @@
       <c r="AW28" s="57"/>
     </row>
     <row r="29" spans="4:49" ht="25.05" customHeight="1">
-      <c r="D29" s="40"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -5292,8 +5492,8 @@
       <c r="S29" s="42"/>
       <c r="T29" s="42"/>
       <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="43"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="49"/>
       <c r="Z29" s="55"/>
       <c r="AA29" s="56"/>
       <c r="AB29" s="56"/>
@@ -5319,8 +5519,8 @@
       <c r="AV29" s="54"/>
       <c r="AW29" s="57"/>
     </row>
-    <row r="30" spans="4:49" ht="25.05" customHeight="1">
-      <c r="D30" s="40"/>
+    <row r="30" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
+      <c r="D30" s="92"/>
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -5338,8 +5538,8 @@
       <c r="S30" s="42"/>
       <c r="T30" s="42"/>
       <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="43"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="49"/>
       <c r="Z30" s="55"/>
       <c r="AA30" s="56"/>
       <c r="AB30" s="56"/>
@@ -5365,27 +5565,27 @@
       <c r="AV30" s="54"/>
       <c r="AW30" s="57"/>
     </row>
-    <row r="31" spans="4:49" ht="25.05" customHeight="1">
-      <c r="D31" s="40"/>
+    <row r="31" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
+      <c r="D31" s="92"/>
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="G31" s="95"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="93"/>
       <c r="N31" s="42"/>
       <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
       <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="43"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="49"/>
       <c r="Z31" s="55"/>
       <c r="AA31" s="56"/>
       <c r="AB31" s="56"/>
@@ -5411,13 +5611,13 @@
       <c r="AV31" s="54"/>
       <c r="AW31" s="57"/>
     </row>
-    <row r="32" spans="4:49" ht="25.05" customHeight="1">
-      <c r="D32" s="40"/>
+    <row r="32" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
+      <c r="D32" s="92"/>
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
+      <c r="G32" s="92"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
+      <c r="I32" s="92"/>
       <c r="J32" s="42"/>
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
@@ -5428,10 +5628,10 @@
       <c r="Q32" s="42"/>
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
+      <c r="T32" s="95"/>
       <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="43"/>
+      <c r="V32" s="83"/>
+      <c r="W32" s="49"/>
       <c r="Z32" s="55"/>
       <c r="AA32" s="56"/>
       <c r="AB32" s="56"/>
@@ -5458,12 +5658,12 @@
       <c r="AW32" s="57"/>
     </row>
     <row r="33" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D33" s="40"/>
-      <c r="E33" s="42"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="91"/>
       <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
+      <c r="G33" s="92"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
+      <c r="I33" s="92"/>
       <c r="J33" s="42"/>
       <c r="K33" s="42"/>
       <c r="L33" s="42"/>
@@ -5474,10 +5674,10 @@
       <c r="Q33" s="42"/>
       <c r="R33" s="42"/>
       <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
+      <c r="T33" s="92"/>
       <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="43"/>
+      <c r="V33" s="83"/>
+      <c r="W33" s="49"/>
       <c r="Y33" s="45"/>
       <c r="Z33" s="59"/>
       <c r="AA33" s="60"/>
@@ -5506,11 +5706,11 @@
     </row>
     <row r="34" spans="4:60" ht="25.05" customHeight="1">
       <c r="D34" s="40"/>
-      <c r="E34" s="42"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
+      <c r="G34" s="92"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
+      <c r="I34" s="92"/>
       <c r="J34" s="42"/>
       <c r="L34" s="42"/>
       <c r="M34" s="42"/>
@@ -5520,10 +5720,10 @@
       <c r="Q34" s="42"/>
       <c r="R34" s="42"/>
       <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
+      <c r="T34" s="92"/>
       <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="43"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="49"/>
       <c r="Y34" s="62"/>
       <c r="Z34" s="53"/>
       <c r="AA34" s="53"/>
@@ -5552,11 +5752,11 @@
     </row>
     <row r="35" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D35" s="40"/>
-      <c r="E35" s="42"/>
+      <c r="E35" s="49"/>
       <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="G35" s="92"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
+      <c r="I35" s="92"/>
       <c r="J35" s="42"/>
       <c r="K35" s="42"/>
       <c r="L35" s="42"/>
@@ -5567,10 +5767,10 @@
       <c r="Q35" s="42"/>
       <c r="R35" s="42"/>
       <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
+      <c r="T35" s="92"/>
       <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="43"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="49"/>
       <c r="Y35" s="53"/>
       <c r="Z35" s="53"/>
       <c r="AA35" s="53"/>
@@ -5599,11 +5799,11 @@
     </row>
     <row r="36" spans="4:60" ht="25.05" customHeight="1">
       <c r="D36" s="40"/>
-      <c r="E36" s="42"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
+      <c r="G36" s="92"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
+      <c r="I36" s="92"/>
       <c r="J36" s="42"/>
       <c r="K36" s="42"/>
       <c r="L36" s="42"/>
@@ -5614,10 +5814,10 @@
       <c r="Q36" s="42"/>
       <c r="R36" s="42"/>
       <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
+      <c r="T36" s="92"/>
       <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="43"/>
+      <c r="V36" s="83"/>
+      <c r="W36" s="49"/>
       <c r="X36" s="40"/>
       <c r="Y36" s="63"/>
       <c r="Z36" s="51"/>
@@ -5647,11 +5847,11 @@
     </row>
     <row r="37" spans="4:60" ht="25.05" customHeight="1">
       <c r="D37" s="40"/>
-      <c r="E37" s="42"/>
+      <c r="E37" s="49"/>
       <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
+      <c r="G37" s="92"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
+      <c r="I37" s="92"/>
       <c r="J37" s="42"/>
       <c r="K37" s="42"/>
       <c r="L37" s="42"/>
@@ -5662,10 +5862,10 @@
       <c r="Q37" s="42"/>
       <c r="R37" s="42"/>
       <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
+      <c r="T37" s="92"/>
       <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="43"/>
+      <c r="V37" s="83"/>
+      <c r="W37" s="49"/>
       <c r="Y37" s="42"/>
       <c r="Z37" s="55"/>
       <c r="AA37" s="56"/>
@@ -5692,13 +5892,13 @@
       <c r="AV37" s="64"/>
       <c r="AW37" s="65"/>
     </row>
-    <row r="38" spans="4:60" ht="25.05" customHeight="1">
+    <row r="38" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D38" s="40"/>
-      <c r="E38" s="42"/>
+      <c r="E38" s="49"/>
       <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="G38" s="92"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
+      <c r="I38" s="92"/>
       <c r="J38" s="42"/>
       <c r="K38" s="42"/>
       <c r="L38" s="42"/>
@@ -5709,10 +5909,10 @@
       <c r="Q38" s="42"/>
       <c r="R38" s="42"/>
       <c r="S38" s="42"/>
-      <c r="T38" s="42"/>
+      <c r="T38" s="92"/>
       <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="43"/>
+      <c r="V38" s="83"/>
+      <c r="W38" s="49"/>
       <c r="Z38" s="55"/>
       <c r="AA38" s="56"/>
       <c r="AB38" s="56"/>
@@ -5738,27 +5938,27 @@
       <c r="AV38" s="64"/>
       <c r="AW38" s="65"/>
     </row>
-    <row r="39" spans="4:60" ht="25.05" customHeight="1">
+    <row r="39" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D39" s="40"/>
-      <c r="E39" s="42"/>
+      <c r="E39" s="49"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="96"/>
       <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="93"/>
       <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
+      <c r="S39" s="96"/>
+      <c r="T39" s="96"/>
       <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="43"/>
+      <c r="V39" s="88"/>
+      <c r="W39" s="89"/>
       <c r="Z39" s="55"/>
       <c r="AA39" s="56"/>
       <c r="AB39" s="56"/>
@@ -5786,7 +5986,7 @@
     </row>
     <row r="40" spans="4:60" ht="25.05" customHeight="1">
       <c r="D40" s="40"/>
-      <c r="E40" s="42"/>
+      <c r="E40" s="49"/>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
       <c r="H40" s="42"/>
@@ -5830,9 +6030,9 @@
       <c r="AV40" s="64"/>
       <c r="AW40" s="65"/>
     </row>
-    <row r="41" spans="4:60" ht="25.05" customHeight="1">
+    <row r="41" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D41" s="40"/>
-      <c r="E41" s="42"/>
+      <c r="E41" s="49"/>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
       <c r="H41" s="42"/>
@@ -5878,23 +6078,23 @@
     </row>
     <row r="42" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="93"/>
       <c r="V42" s="45"/>
       <c r="W42" s="46"/>
       <c r="Z42" s="55"/>
@@ -6394,7 +6594,7 @@
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="7"/>
@@ -6411,7 +6611,7 @@
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="83"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -6997,7 +7197,7 @@
     </row>
     <row r="44" spans="1:11" ht="18" customHeight="1">
       <c r="A44" s="5"/>
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="7"/>
@@ -7014,7 +7214,7 @@
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1">
       <c r="A45" s="5"/>
-      <c r="B45" s="83"/>
+      <c r="B45" s="87"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -7828,7 +8028,7 @@
     </row>
     <row r="95" spans="1:11" ht="18" customHeight="1">
       <c r="A95" s="4"/>
-      <c r="B95" s="82" t="s">
+      <c r="B95" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="7"/>
@@ -7845,7 +8045,7 @@
     </row>
     <row r="96" spans="1:11" ht="18" customHeight="1">
       <c r="A96" s="4"/>
-      <c r="B96" s="83"/>
+      <c r="B96" s="87"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github3\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Sh2ot\GIt用フォルダ\新しいフォルダー\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8424DF6-C24F-4EA3-80E1-5EC239E622FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9435240B-210D-455A-B936-2C01C7E0E0CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" activeTab="2" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -1113,7 +1113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1394,6 +1394,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1403,7 +1529,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1554,9 +1680,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1566,21 +1689,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1596,24 +1710,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1662,40 +1758,139 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2009,56 +2204,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>72044</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>116379</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>214745</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2DB6830-04DC-44CE-A6C3-8BE7A070E49B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25004684" y="7858299"/>
-          <a:ext cx="9955876" cy="4975166"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>46</xdr:col>
@@ -2092,7 +2237,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2152,7 +2297,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2202,7 +2347,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2217,6 +2362,55 @@
         <a:xfrm>
           <a:off x="8305800" y="13582650"/>
           <a:ext cx="8801863" cy="3185436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>277089</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>221672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>249381</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>100466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3299221-8FFA-43BA-90EA-F9E665007BE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="16115" r="16529"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23150944" y="7647708"/>
+          <a:ext cx="6774873" cy="5614576"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2534,10 +2728,10 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="1.796875" customWidth="1"/>
-    <col min="2" max="2" width="70.8984375" style="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.09765625" style="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="72" customWidth="1"/>
-    <col min="5" max="5" width="16.296875" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.8984375" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.09765625" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="62" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" style="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -2553,1196 +2747,1196 @@
       <c r="E2" s="42"/>
     </row>
     <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="61" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="81"/>
+      <c r="E4" s="71"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="63" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="63" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="63" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="63"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="63" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="63" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="73"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="63" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="73"/>
+      <c r="D13" s="63"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="63" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="63" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="63" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="63" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="63" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="73"/>
+      <c r="D19" s="63"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="63" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="63" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="63" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="73"/>
+      <c r="D23" s="63"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="63" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="76" t="s">
+      <c r="C25" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="63" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="73"/>
+      <c r="D26" s="63"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="73"/>
+      <c r="D27" s="63"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="73"/>
+      <c r="D28" s="63"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="73"/>
+      <c r="D29" s="63"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="63" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="63" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="73"/>
+      <c r="D32" s="63"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="77" t="s">
+      <c r="C33" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="73"/>
+      <c r="D33" s="63"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="76" t="s">
+      <c r="C34" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="63" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="63" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="73" t="s">
+      <c r="D36" s="63" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="76" t="s">
+      <c r="C37" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="73"/>
+      <c r="D37" s="63"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="76" t="s">
+      <c r="C38" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="73"/>
+      <c r="D38" s="63"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D39" s="73"/>
+      <c r="D39" s="63"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="74" t="s">
+      <c r="B40" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="73"/>
+      <c r="D40" s="63"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="73"/>
+      <c r="D41" s="63"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="73"/>
+      <c r="D42" s="63"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="73"/>
+      <c r="D43" s="63"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="74"/>
-      <c r="D44" s="73"/>
+      <c r="B44" s="64"/>
+      <c r="D44" s="63"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="74"/>
-      <c r="D45" s="73"/>
+      <c r="B45" s="64"/>
+      <c r="D45" s="63"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="D46" s="73"/>
+      <c r="D46" s="63"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="D47" s="73"/>
+      <c r="D47" s="63"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="D48" s="73"/>
+      <c r="D48" s="63"/>
     </row>
     <row r="49" spans="4:4">
-      <c r="D49" s="73"/>
+      <c r="D49" s="63"/>
     </row>
     <row r="50" spans="4:4">
-      <c r="D50" s="73"/>
+      <c r="D50" s="63"/>
     </row>
     <row r="51" spans="4:4">
-      <c r="D51" s="73"/>
+      <c r="D51" s="63"/>
     </row>
     <row r="52" spans="4:4">
-      <c r="D52" s="73"/>
+      <c r="D52" s="63"/>
     </row>
     <row r="53" spans="4:4">
-      <c r="D53" s="73"/>
+      <c r="D53" s="63"/>
     </row>
     <row r="54" spans="4:4">
-      <c r="D54" s="73"/>
+      <c r="D54" s="63"/>
     </row>
     <row r="55" spans="4:4">
-      <c r="D55" s="73"/>
+      <c r="D55" s="63"/>
     </row>
     <row r="56" spans="4:4">
-      <c r="D56" s="73"/>
+      <c r="D56" s="63"/>
     </row>
     <row r="57" spans="4:4">
-      <c r="D57" s="73"/>
+      <c r="D57" s="63"/>
     </row>
     <row r="58" spans="4:4">
-      <c r="D58" s="73"/>
+      <c r="D58" s="63"/>
     </row>
     <row r="59" spans="4:4">
-      <c r="D59" s="73"/>
+      <c r="D59" s="63"/>
     </row>
     <row r="60" spans="4:4">
-      <c r="D60" s="73"/>
+      <c r="D60" s="63"/>
     </row>
     <row r="61" spans="4:4">
-      <c r="D61" s="73"/>
+      <c r="D61" s="63"/>
     </row>
     <row r="62" spans="4:4">
-      <c r="D62" s="73"/>
+      <c r="D62" s="63"/>
     </row>
     <row r="63" spans="4:4">
-      <c r="D63" s="73"/>
+      <c r="D63" s="63"/>
     </row>
     <row r="64" spans="4:4">
-      <c r="D64" s="73"/>
+      <c r="D64" s="63"/>
     </row>
     <row r="65" spans="4:4">
-      <c r="D65" s="73"/>
+      <c r="D65" s="63"/>
     </row>
     <row r="66" spans="4:4">
-      <c r="D66" s="73"/>
+      <c r="D66" s="63"/>
     </row>
     <row r="67" spans="4:4">
-      <c r="D67" s="73"/>
+      <c r="D67" s="63"/>
     </row>
     <row r="68" spans="4:4">
-      <c r="D68" s="73"/>
+      <c r="D68" s="63"/>
     </row>
     <row r="69" spans="4:4">
-      <c r="D69" s="73"/>
+      <c r="D69" s="63"/>
     </row>
     <row r="70" spans="4:4">
-      <c r="D70" s="73"/>
+      <c r="D70" s="63"/>
     </row>
     <row r="71" spans="4:4">
-      <c r="D71" s="73"/>
+      <c r="D71" s="63"/>
     </row>
     <row r="72" spans="4:4">
-      <c r="D72" s="73"/>
+      <c r="D72" s="63"/>
     </row>
     <row r="73" spans="4:4">
-      <c r="D73" s="73"/>
+      <c r="D73" s="63"/>
     </row>
     <row r="74" spans="4:4">
-      <c r="D74" s="73"/>
+      <c r="D74" s="63"/>
     </row>
     <row r="75" spans="4:4">
-      <c r="D75" s="73"/>
+      <c r="D75" s="63"/>
     </row>
     <row r="76" spans="4:4">
-      <c r="D76" s="73"/>
+      <c r="D76" s="63"/>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="73"/>
+      <c r="D77" s="63"/>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="73"/>
+      <c r="D78" s="63"/>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="73"/>
+      <c r="D79" s="63"/>
     </row>
     <row r="80" spans="4:4">
-      <c r="D80" s="73"/>
+      <c r="D80" s="63"/>
     </row>
     <row r="81" spans="4:4">
-      <c r="D81" s="73"/>
+      <c r="D81" s="63"/>
     </row>
     <row r="82" spans="4:4">
-      <c r="D82" s="73"/>
+      <c r="D82" s="63"/>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="73"/>
+      <c r="D83" s="63"/>
     </row>
     <row r="84" spans="4:4">
-      <c r="D84" s="73"/>
+      <c r="D84" s="63"/>
     </row>
     <row r="85" spans="4:4">
-      <c r="D85" s="73"/>
+      <c r="D85" s="63"/>
     </row>
     <row r="86" spans="4:4">
-      <c r="D86" s="73"/>
+      <c r="D86" s="63"/>
     </row>
     <row r="87" spans="4:4">
-      <c r="D87" s="73"/>
+      <c r="D87" s="63"/>
     </row>
     <row r="88" spans="4:4">
-      <c r="D88" s="73"/>
+      <c r="D88" s="63"/>
     </row>
     <row r="89" spans="4:4">
-      <c r="D89" s="73"/>
+      <c r="D89" s="63"/>
     </row>
     <row r="90" spans="4:4">
-      <c r="D90" s="73"/>
+      <c r="D90" s="63"/>
     </row>
     <row r="91" spans="4:4">
-      <c r="D91" s="73"/>
+      <c r="D91" s="63"/>
     </row>
     <row r="92" spans="4:4">
-      <c r="D92" s="73"/>
+      <c r="D92" s="63"/>
     </row>
     <row r="93" spans="4:4">
-      <c r="D93" s="73"/>
+      <c r="D93" s="63"/>
     </row>
     <row r="94" spans="4:4">
-      <c r="D94" s="73"/>
+      <c r="D94" s="63"/>
     </row>
     <row r="95" spans="4:4">
-      <c r="D95" s="73"/>
+      <c r="D95" s="63"/>
     </row>
     <row r="96" spans="4:4">
-      <c r="D96" s="73"/>
+      <c r="D96" s="63"/>
     </row>
     <row r="97" spans="4:4">
-      <c r="D97" s="73"/>
+      <c r="D97" s="63"/>
     </row>
     <row r="98" spans="4:4">
-      <c r="D98" s="73"/>
+      <c r="D98" s="63"/>
     </row>
     <row r="99" spans="4:4">
-      <c r="D99" s="73"/>
+      <c r="D99" s="63"/>
     </row>
     <row r="100" spans="4:4">
-      <c r="D100" s="73"/>
+      <c r="D100" s="63"/>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="73"/>
+      <c r="D101" s="63"/>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="73"/>
+      <c r="D102" s="63"/>
     </row>
     <row r="103" spans="4:4">
-      <c r="D103" s="73"/>
+      <c r="D103" s="63"/>
     </row>
     <row r="104" spans="4:4">
-      <c r="D104" s="73"/>
+      <c r="D104" s="63"/>
     </row>
     <row r="105" spans="4:4">
-      <c r="D105" s="73"/>
+      <c r="D105" s="63"/>
     </row>
     <row r="106" spans="4:4">
-      <c r="D106" s="73"/>
+      <c r="D106" s="63"/>
     </row>
     <row r="107" spans="4:4">
-      <c r="D107" s="73"/>
+      <c r="D107" s="63"/>
     </row>
     <row r="108" spans="4:4">
-      <c r="D108" s="73"/>
+      <c r="D108" s="63"/>
     </row>
     <row r="109" spans="4:4">
-      <c r="D109" s="73"/>
+      <c r="D109" s="63"/>
     </row>
     <row r="110" spans="4:4">
-      <c r="D110" s="73"/>
+      <c r="D110" s="63"/>
     </row>
     <row r="111" spans="4:4">
-      <c r="D111" s="73"/>
+      <c r="D111" s="63"/>
     </row>
     <row r="112" spans="4:4">
-      <c r="D112" s="73"/>
+      <c r="D112" s="63"/>
     </row>
     <row r="113" spans="4:4">
-      <c r="D113" s="73"/>
+      <c r="D113" s="63"/>
     </row>
     <row r="114" spans="4:4">
-      <c r="D114" s="73"/>
+      <c r="D114" s="63"/>
     </row>
     <row r="115" spans="4:4">
-      <c r="D115" s="73"/>
+      <c r="D115" s="63"/>
     </row>
     <row r="116" spans="4:4">
-      <c r="D116" s="73"/>
+      <c r="D116" s="63"/>
     </row>
     <row r="117" spans="4:4">
-      <c r="D117" s="73"/>
+      <c r="D117" s="63"/>
     </row>
     <row r="118" spans="4:4">
-      <c r="D118" s="73"/>
+      <c r="D118" s="63"/>
     </row>
     <row r="119" spans="4:4">
-      <c r="D119" s="73"/>
+      <c r="D119" s="63"/>
     </row>
     <row r="120" spans="4:4">
-      <c r="D120" s="73"/>
+      <c r="D120" s="63"/>
     </row>
     <row r="121" spans="4:4">
-      <c r="D121" s="73"/>
+      <c r="D121" s="63"/>
     </row>
     <row r="122" spans="4:4">
-      <c r="D122" s="73"/>
+      <c r="D122" s="63"/>
     </row>
     <row r="123" spans="4:4">
-      <c r="D123" s="73"/>
+      <c r="D123" s="63"/>
     </row>
     <row r="124" spans="4:4">
-      <c r="D124" s="73"/>
+      <c r="D124" s="63"/>
     </row>
     <row r="125" spans="4:4">
-      <c r="D125" s="73"/>
+      <c r="D125" s="63"/>
     </row>
     <row r="126" spans="4:4">
-      <c r="D126" s="73"/>
+      <c r="D126" s="63"/>
     </row>
     <row r="127" spans="4:4">
-      <c r="D127" s="73"/>
+      <c r="D127" s="63"/>
     </row>
     <row r="128" spans="4:4">
-      <c r="D128" s="73"/>
+      <c r="D128" s="63"/>
     </row>
     <row r="129" spans="4:4">
-      <c r="D129" s="73"/>
+      <c r="D129" s="63"/>
     </row>
     <row r="130" spans="4:4">
-      <c r="D130" s="73"/>
+      <c r="D130" s="63"/>
     </row>
     <row r="131" spans="4:4">
-      <c r="D131" s="73"/>
+      <c r="D131" s="63"/>
     </row>
     <row r="132" spans="4:4">
-      <c r="D132" s="73"/>
+      <c r="D132" s="63"/>
     </row>
     <row r="133" spans="4:4">
-      <c r="D133" s="73"/>
+      <c r="D133" s="63"/>
     </row>
     <row r="134" spans="4:4">
-      <c r="D134" s="73"/>
+      <c r="D134" s="63"/>
     </row>
     <row r="135" spans="4:4">
-      <c r="D135" s="73"/>
+      <c r="D135" s="63"/>
     </row>
     <row r="136" spans="4:4">
-      <c r="D136" s="73"/>
+      <c r="D136" s="63"/>
     </row>
     <row r="137" spans="4:4">
-      <c r="D137" s="73"/>
+      <c r="D137" s="63"/>
     </row>
     <row r="138" spans="4:4">
-      <c r="D138" s="73"/>
+      <c r="D138" s="63"/>
     </row>
     <row r="139" spans="4:4">
-      <c r="D139" s="73"/>
+      <c r="D139" s="63"/>
     </row>
     <row r="140" spans="4:4">
-      <c r="D140" s="73"/>
+      <c r="D140" s="63"/>
     </row>
     <row r="141" spans="4:4">
-      <c r="D141" s="73"/>
+      <c r="D141" s="63"/>
     </row>
     <row r="142" spans="4:4">
-      <c r="D142" s="73"/>
+      <c r="D142" s="63"/>
     </row>
     <row r="143" spans="4:4">
-      <c r="D143" s="73"/>
+      <c r="D143" s="63"/>
     </row>
     <row r="144" spans="4:4">
-      <c r="D144" s="73"/>
+      <c r="D144" s="63"/>
     </row>
     <row r="145" spans="4:4">
-      <c r="D145" s="73"/>
+      <c r="D145" s="63"/>
     </row>
     <row r="146" spans="4:4">
-      <c r="D146" s="73"/>
+      <c r="D146" s="63"/>
     </row>
     <row r="147" spans="4:4">
-      <c r="D147" s="73"/>
+      <c r="D147" s="63"/>
     </row>
     <row r="148" spans="4:4">
-      <c r="D148" s="73"/>
+      <c r="D148" s="63"/>
     </row>
     <row r="149" spans="4:4">
-      <c r="D149" s="73"/>
+      <c r="D149" s="63"/>
     </row>
     <row r="150" spans="4:4">
-      <c r="D150" s="73"/>
+      <c r="D150" s="63"/>
     </row>
     <row r="151" spans="4:4">
-      <c r="D151" s="73"/>
+      <c r="D151" s="63"/>
     </row>
     <row r="152" spans="4:4">
-      <c r="D152" s="73"/>
+      <c r="D152" s="63"/>
     </row>
     <row r="153" spans="4:4">
-      <c r="D153" s="73"/>
+      <c r="D153" s="63"/>
     </row>
     <row r="154" spans="4:4">
-      <c r="D154" s="73"/>
+      <c r="D154" s="63"/>
     </row>
     <row r="155" spans="4:4">
-      <c r="D155" s="73"/>
+      <c r="D155" s="63"/>
     </row>
     <row r="156" spans="4:4">
-      <c r="D156" s="73"/>
+      <c r="D156" s="63"/>
     </row>
     <row r="157" spans="4:4">
-      <c r="D157" s="73"/>
+      <c r="D157" s="63"/>
     </row>
     <row r="158" spans="4:4">
-      <c r="D158" s="73"/>
+      <c r="D158" s="63"/>
     </row>
     <row r="159" spans="4:4">
-      <c r="D159" s="73"/>
+      <c r="D159" s="63"/>
     </row>
     <row r="160" spans="4:4">
-      <c r="D160" s="73"/>
+      <c r="D160" s="63"/>
     </row>
     <row r="161" spans="4:4">
-      <c r="D161" s="73"/>
+      <c r="D161" s="63"/>
     </row>
     <row r="162" spans="4:4">
-      <c r="D162" s="73"/>
+      <c r="D162" s="63"/>
     </row>
     <row r="163" spans="4:4">
-      <c r="D163" s="73"/>
+      <c r="D163" s="63"/>
     </row>
     <row r="164" spans="4:4">
-      <c r="D164" s="73"/>
+      <c r="D164" s="63"/>
     </row>
     <row r="165" spans="4:4">
-      <c r="D165" s="73"/>
+      <c r="D165" s="63"/>
     </row>
     <row r="166" spans="4:4">
-      <c r="D166" s="73"/>
+      <c r="D166" s="63"/>
     </row>
     <row r="167" spans="4:4">
-      <c r="D167" s="73"/>
+      <c r="D167" s="63"/>
     </row>
     <row r="168" spans="4:4">
-      <c r="D168" s="73"/>
+      <c r="D168" s="63"/>
     </row>
     <row r="169" spans="4:4">
-      <c r="D169" s="73"/>
+      <c r="D169" s="63"/>
     </row>
     <row r="170" spans="4:4">
-      <c r="D170" s="73"/>
+      <c r="D170" s="63"/>
     </row>
     <row r="171" spans="4:4">
-      <c r="D171" s="73"/>
+      <c r="D171" s="63"/>
     </row>
     <row r="172" spans="4:4">
-      <c r="D172" s="73"/>
+      <c r="D172" s="63"/>
     </row>
     <row r="173" spans="4:4">
-      <c r="D173" s="73"/>
+      <c r="D173" s="63"/>
     </row>
     <row r="174" spans="4:4">
-      <c r="D174" s="73"/>
+      <c r="D174" s="63"/>
     </row>
     <row r="175" spans="4:4">
-      <c r="D175" s="73"/>
+      <c r="D175" s="63"/>
     </row>
     <row r="176" spans="4:4">
-      <c r="D176" s="73"/>
+      <c r="D176" s="63"/>
     </row>
     <row r="177" spans="4:4">
-      <c r="D177" s="73"/>
+      <c r="D177" s="63"/>
     </row>
     <row r="178" spans="4:4">
-      <c r="D178" s="73"/>
+      <c r="D178" s="63"/>
     </row>
     <row r="179" spans="4:4">
-      <c r="D179" s="73"/>
+      <c r="D179" s="63"/>
     </row>
     <row r="180" spans="4:4">
-      <c r="D180" s="73"/>
+      <c r="D180" s="63"/>
     </row>
     <row r="181" spans="4:4">
-      <c r="D181" s="73"/>
+      <c r="D181" s="63"/>
     </row>
     <row r="182" spans="4:4">
-      <c r="D182" s="73"/>
+      <c r="D182" s="63"/>
     </row>
     <row r="183" spans="4:4">
-      <c r="D183" s="73"/>
+      <c r="D183" s="63"/>
     </row>
     <row r="184" spans="4:4">
-      <c r="D184" s="73"/>
+      <c r="D184" s="63"/>
     </row>
     <row r="185" spans="4:4">
-      <c r="D185" s="73"/>
+      <c r="D185" s="63"/>
     </row>
     <row r="186" spans="4:4">
-      <c r="D186" s="73"/>
+      <c r="D186" s="63"/>
     </row>
     <row r="187" spans="4:4">
-      <c r="D187" s="73"/>
+      <c r="D187" s="63"/>
     </row>
     <row r="188" spans="4:4">
-      <c r="D188" s="73"/>
+      <c r="D188" s="63"/>
     </row>
     <row r="189" spans="4:4">
-      <c r="D189" s="73"/>
+      <c r="D189" s="63"/>
     </row>
     <row r="190" spans="4:4">
-      <c r="D190" s="73"/>
+      <c r="D190" s="63"/>
     </row>
     <row r="191" spans="4:4">
-      <c r="D191" s="73"/>
+      <c r="D191" s="63"/>
     </row>
     <row r="192" spans="4:4">
-      <c r="D192" s="73"/>
+      <c r="D192" s="63"/>
     </row>
     <row r="193" spans="4:4">
-      <c r="D193" s="73"/>
+      <c r="D193" s="63"/>
     </row>
     <row r="194" spans="4:4">
-      <c r="D194" s="73"/>
+      <c r="D194" s="63"/>
     </row>
     <row r="195" spans="4:4">
-      <c r="D195" s="73"/>
+      <c r="D195" s="63"/>
     </row>
     <row r="196" spans="4:4">
-      <c r="D196" s="73"/>
+      <c r="D196" s="63"/>
     </row>
     <row r="197" spans="4:4">
-      <c r="D197" s="73"/>
+      <c r="D197" s="63"/>
     </row>
     <row r="198" spans="4:4">
-      <c r="D198" s="73"/>
+      <c r="D198" s="63"/>
     </row>
     <row r="199" spans="4:4">
-      <c r="D199" s="73"/>
+      <c r="D199" s="63"/>
     </row>
     <row r="200" spans="4:4">
-      <c r="D200" s="73"/>
+      <c r="D200" s="63"/>
     </row>
     <row r="201" spans="4:4">
-      <c r="D201" s="73"/>
+      <c r="D201" s="63"/>
     </row>
     <row r="202" spans="4:4">
-      <c r="D202" s="73"/>
+      <c r="D202" s="63"/>
     </row>
     <row r="203" spans="4:4">
-      <c r="D203" s="73"/>
+      <c r="D203" s="63"/>
     </row>
     <row r="204" spans="4:4">
-      <c r="D204" s="73"/>
+      <c r="D204" s="63"/>
     </row>
     <row r="205" spans="4:4">
-      <c r="D205" s="73"/>
+      <c r="D205" s="63"/>
     </row>
     <row r="206" spans="4:4">
-      <c r="D206" s="73"/>
+      <c r="D206" s="63"/>
     </row>
     <row r="207" spans="4:4">
-      <c r="D207" s="73"/>
+      <c r="D207" s="63"/>
     </row>
     <row r="208" spans="4:4">
-      <c r="D208" s="73"/>
+      <c r="D208" s="63"/>
     </row>
     <row r="209" spans="4:4">
-      <c r="D209" s="73"/>
+      <c r="D209" s="63"/>
     </row>
     <row r="210" spans="4:4">
-      <c r="D210" s="73"/>
+      <c r="D210" s="63"/>
     </row>
     <row r="211" spans="4:4">
-      <c r="D211" s="73"/>
+      <c r="D211" s="63"/>
     </row>
     <row r="212" spans="4:4">
-      <c r="D212" s="73"/>
+      <c r="D212" s="63"/>
     </row>
     <row r="213" spans="4:4">
-      <c r="D213" s="73"/>
+      <c r="D213" s="63"/>
     </row>
     <row r="214" spans="4:4">
-      <c r="D214" s="73"/>
+      <c r="D214" s="63"/>
     </row>
     <row r="215" spans="4:4">
-      <c r="D215" s="73"/>
+      <c r="D215" s="63"/>
     </row>
     <row r="216" spans="4:4">
-      <c r="D216" s="73"/>
+      <c r="D216" s="63"/>
     </row>
     <row r="217" spans="4:4">
-      <c r="D217" s="73"/>
+      <c r="D217" s="63"/>
     </row>
     <row r="218" spans="4:4">
-      <c r="D218" s="73"/>
+      <c r="D218" s="63"/>
     </row>
     <row r="219" spans="4:4">
-      <c r="D219" s="73"/>
+      <c r="D219" s="63"/>
     </row>
     <row r="220" spans="4:4">
-      <c r="D220" s="73"/>
+      <c r="D220" s="63"/>
     </row>
     <row r="221" spans="4:4">
-      <c r="D221" s="73"/>
+      <c r="D221" s="63"/>
     </row>
     <row r="222" spans="4:4">
-      <c r="D222" s="73"/>
+      <c r="D222" s="63"/>
     </row>
     <row r="223" spans="4:4">
-      <c r="D223" s="73"/>
+      <c r="D223" s="63"/>
     </row>
     <row r="224" spans="4:4">
-      <c r="D224" s="73"/>
+      <c r="D224" s="63"/>
     </row>
     <row r="225" spans="4:4">
-      <c r="D225" s="73"/>
+      <c r="D225" s="63"/>
     </row>
     <row r="226" spans="4:4">
-      <c r="D226" s="73"/>
+      <c r="D226" s="63"/>
     </row>
     <row r="227" spans="4:4">
-      <c r="D227" s="73"/>
+      <c r="D227" s="63"/>
     </row>
     <row r="228" spans="4:4">
-      <c r="D228" s="73"/>
+      <c r="D228" s="63"/>
     </row>
     <row r="229" spans="4:4">
-      <c r="D229" s="73"/>
+      <c r="D229" s="63"/>
     </row>
     <row r="230" spans="4:4">
-      <c r="D230" s="73"/>
+      <c r="D230" s="63"/>
     </row>
     <row r="231" spans="4:4">
-      <c r="D231" s="73"/>
+      <c r="D231" s="63"/>
     </row>
     <row r="232" spans="4:4">
-      <c r="D232" s="73"/>
+      <c r="D232" s="63"/>
     </row>
     <row r="233" spans="4:4">
-      <c r="D233" s="73"/>
+      <c r="D233" s="63"/>
     </row>
     <row r="234" spans="4:4">
-      <c r="D234" s="73"/>
+      <c r="D234" s="63"/>
     </row>
     <row r="235" spans="4:4">
-      <c r="D235" s="73"/>
+      <c r="D235" s="63"/>
     </row>
     <row r="236" spans="4:4">
-      <c r="D236" s="73"/>
+      <c r="D236" s="63"/>
     </row>
     <row r="237" spans="4:4">
-      <c r="D237" s="73"/>
+      <c r="D237" s="63"/>
     </row>
     <row r="238" spans="4:4">
-      <c r="D238" s="73"/>
+      <c r="D238" s="63"/>
     </row>
     <row r="239" spans="4:4">
-      <c r="D239" s="73"/>
+      <c r="D239" s="63"/>
     </row>
     <row r="240" spans="4:4">
-      <c r="D240" s="73"/>
+      <c r="D240" s="63"/>
     </row>
     <row r="241" spans="4:4">
-      <c r="D241" s="73"/>
+      <c r="D241" s="63"/>
     </row>
     <row r="242" spans="4:4">
-      <c r="D242" s="73"/>
+      <c r="D242" s="63"/>
     </row>
     <row r="243" spans="4:4">
-      <c r="D243" s="73"/>
+      <c r="D243" s="63"/>
     </row>
     <row r="244" spans="4:4">
-      <c r="D244" s="73"/>
+      <c r="D244" s="63"/>
     </row>
     <row r="245" spans="4:4">
-      <c r="D245" s="73"/>
+      <c r="D245" s="63"/>
     </row>
     <row r="246" spans="4:4">
-      <c r="D246" s="73"/>
+      <c r="D246" s="63"/>
     </row>
     <row r="247" spans="4:4">
-      <c r="D247" s="73"/>
+      <c r="D247" s="63"/>
     </row>
     <row r="248" spans="4:4">
-      <c r="D248" s="73"/>
+      <c r="D248" s="63"/>
     </row>
     <row r="249" spans="4:4">
-      <c r="D249" s="73"/>
+      <c r="D249" s="63"/>
     </row>
     <row r="250" spans="4:4">
-      <c r="D250" s="73"/>
+      <c r="D250" s="63"/>
     </row>
     <row r="251" spans="4:4">
-      <c r="D251" s="73"/>
+      <c r="D251" s="63"/>
     </row>
     <row r="252" spans="4:4">
-      <c r="D252" s="73"/>
+      <c r="D252" s="63"/>
     </row>
     <row r="253" spans="4:4">
-      <c r="D253" s="73"/>
+      <c r="D253" s="63"/>
     </row>
     <row r="254" spans="4:4">
-      <c r="D254" s="73"/>
+      <c r="D254" s="63"/>
     </row>
     <row r="255" spans="4:4">
-      <c r="D255" s="73"/>
+      <c r="D255" s="63"/>
     </row>
     <row r="256" spans="4:4">
-      <c r="D256" s="73"/>
+      <c r="D256" s="63"/>
     </row>
     <row r="257" spans="4:4">
-      <c r="D257" s="73"/>
+      <c r="D257" s="63"/>
     </row>
     <row r="258" spans="4:4">
-      <c r="D258" s="73"/>
+      <c r="D258" s="63"/>
     </row>
     <row r="259" spans="4:4">
-      <c r="D259" s="73"/>
+      <c r="D259" s="63"/>
     </row>
     <row r="260" spans="4:4">
-      <c r="D260" s="73"/>
+      <c r="D260" s="63"/>
     </row>
     <row r="261" spans="4:4">
-      <c r="D261" s="73"/>
+      <c r="D261" s="63"/>
     </row>
     <row r="262" spans="4:4">
-      <c r="D262" s="73"/>
+      <c r="D262" s="63"/>
     </row>
     <row r="263" spans="4:4">
-      <c r="D263" s="73"/>
+      <c r="D263" s="63"/>
     </row>
     <row r="264" spans="4:4">
-      <c r="D264" s="73"/>
+      <c r="D264" s="63"/>
     </row>
     <row r="265" spans="4:4">
-      <c r="D265" s="73"/>
+      <c r="D265" s="63"/>
     </row>
     <row r="266" spans="4:4">
-      <c r="D266" s="73"/>
+      <c r="D266" s="63"/>
     </row>
     <row r="267" spans="4:4">
-      <c r="D267" s="73"/>
+      <c r="D267" s="63"/>
     </row>
     <row r="268" spans="4:4">
-      <c r="D268" s="73"/>
+      <c r="D268" s="63"/>
     </row>
     <row r="269" spans="4:4">
-      <c r="D269" s="73"/>
+      <c r="D269" s="63"/>
     </row>
     <row r="270" spans="4:4">
-      <c r="D270" s="73"/>
+      <c r="D270" s="63"/>
     </row>
     <row r="271" spans="4:4">
-      <c r="D271" s="73"/>
+      <c r="D271" s="63"/>
     </row>
     <row r="272" spans="4:4">
-      <c r="D272" s="73"/>
+      <c r="D272" s="63"/>
     </row>
     <row r="273" spans="4:4">
-      <c r="D273" s="73"/>
+      <c r="D273" s="63"/>
     </row>
     <row r="274" spans="4:4">
-      <c r="D274" s="73"/>
+      <c r="D274" s="63"/>
     </row>
     <row r="275" spans="4:4">
-      <c r="D275" s="73"/>
+      <c r="D275" s="63"/>
     </row>
     <row r="276" spans="4:4">
-      <c r="D276" s="73"/>
+      <c r="D276" s="63"/>
     </row>
     <row r="277" spans="4:4">
-      <c r="D277" s="73"/>
+      <c r="D277" s="63"/>
     </row>
     <row r="278" spans="4:4">
-      <c r="D278" s="73"/>
+      <c r="D278" s="63"/>
     </row>
     <row r="279" spans="4:4">
-      <c r="D279" s="73"/>
+      <c r="D279" s="63"/>
     </row>
     <row r="280" spans="4:4">
-      <c r="D280" s="73"/>
+      <c r="D280" s="63"/>
     </row>
     <row r="281" spans="4:4">
-      <c r="D281" s="73"/>
+      <c r="D281" s="63"/>
     </row>
     <row r="282" spans="4:4">
-      <c r="D282" s="73"/>
+      <c r="D282" s="63"/>
     </row>
     <row r="283" spans="4:4">
-      <c r="D283" s="73"/>
+      <c r="D283" s="63"/>
     </row>
     <row r="284" spans="4:4">
-      <c r="D284" s="73"/>
+      <c r="D284" s="63"/>
     </row>
     <row r="285" spans="4:4">
-      <c r="D285" s="73"/>
+      <c r="D285" s="63"/>
     </row>
     <row r="286" spans="4:4">
-      <c r="D286" s="73"/>
+      <c r="D286" s="63"/>
     </row>
     <row r="287" spans="4:4">
-      <c r="D287" s="73"/>
+      <c r="D287" s="63"/>
     </row>
     <row r="288" spans="4:4">
-      <c r="D288" s="73"/>
+      <c r="D288" s="63"/>
     </row>
     <row r="289" spans="4:4">
-      <c r="D289" s="73"/>
+      <c r="D289" s="63"/>
     </row>
     <row r="290" spans="4:4">
-      <c r="D290" s="73"/>
+      <c r="D290" s="63"/>
     </row>
     <row r="291" spans="4:4">
-      <c r="D291" s="73"/>
+      <c r="D291" s="63"/>
     </row>
     <row r="292" spans="4:4">
-      <c r="D292" s="73"/>
+      <c r="D292" s="63"/>
     </row>
     <row r="293" spans="4:4">
-      <c r="D293" s="73"/>
+      <c r="D293" s="63"/>
     </row>
     <row r="294" spans="4:4">
-      <c r="D294" s="73"/>
+      <c r="D294" s="63"/>
     </row>
     <row r="295" spans="4:4">
-      <c r="D295" s="73"/>
+      <c r="D295" s="63"/>
     </row>
     <row r="296" spans="4:4">
-      <c r="D296" s="73"/>
+      <c r="D296" s="63"/>
     </row>
     <row r="297" spans="4:4">
-      <c r="D297" s="73"/>
+      <c r="D297" s="63"/>
     </row>
     <row r="298" spans="4:4">
-      <c r="D298" s="73"/>
+      <c r="D298" s="63"/>
     </row>
     <row r="299" spans="4:4">
-      <c r="D299" s="73"/>
+      <c r="D299" s="63"/>
     </row>
     <row r="300" spans="4:4">
-      <c r="D300" s="73"/>
+      <c r="D300" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4392,17 +4586,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2938C-A6E3-41DD-BC66-7CDBE357270C}">
-  <dimension ref="D3:BH48"/>
+  <dimension ref="D1:BH199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="19.95" customHeight="1" zeroHeight="1"/>
   <cols>
     <col min="4" max="49" width="6.69921875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="4:46" ht="19.95" customHeight="1"/>
+    <row r="2" spans="4:46" ht="19.95" customHeight="1"/>
     <row r="3" spans="4:46" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="4:46" ht="25.05" customHeight="1">
       <c r="D4" s="37"/>
@@ -4689,14 +4885,14 @@
       <c r="W10" s="43"/>
       <c r="Z10" s="40"/>
       <c r="AA10" s="42"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="52"/>
       <c r="AJ10" s="42"/>
       <c r="AK10" s="42"/>
       <c r="AL10" s="42"/>
@@ -4732,14 +4928,14 @@
       <c r="W11" s="43"/>
       <c r="Z11" s="40"/>
       <c r="AA11" s="42"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
       <c r="AJ11" s="42"/>
       <c r="AK11" s="42"/>
       <c r="AL11" s="42"/>
@@ -4761,27 +4957,27 @@
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="91"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="79"/>
       <c r="U12" s="42"/>
       <c r="V12" s="42"/>
       <c r="W12" s="43"/>
       <c r="Z12" s="40"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="82"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="72"/>
       <c r="AE12" s="42"/>
       <c r="AF12" s="42"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="53"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52"/>
       <c r="AJ12" s="42"/>
       <c r="AK12" s="42"/>
       <c r="AL12" s="42"/>
@@ -4799,35 +4995,35 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
       <c r="T13" s="49"/>
       <c r="U13" s="42"/>
       <c r="V13" s="42"/>
       <c r="W13" s="43"/>
       <c r="Z13" s="40"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
       <c r="AE13" s="42"/>
       <c r="AF13" s="42"/>
       <c r="AG13" s="42"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="53"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
       <c r="AJ13" s="42"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="52"/>
       <c r="AM13" s="42"/>
       <c r="AN13" s="42"/>
       <c r="AO13" s="42"/>
@@ -4842,35 +5038,35 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
       <c r="T14" s="49"/>
       <c r="U14" s="42"/>
       <c r="V14" s="42"/>
       <c r="W14" s="43"/>
       <c r="Z14" s="40"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
       <c r="AD14" s="42"/>
       <c r="AE14" s="42"/>
       <c r="AF14" s="42"/>
       <c r="AG14" s="42"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="53"/>
-      <c r="AJ14" s="53"/>
-      <c r="AK14" s="53"/>
-      <c r="AL14" s="53"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="52"/>
+      <c r="AJ14" s="52"/>
+      <c r="AK14" s="52"/>
+      <c r="AL14" s="52"/>
       <c r="AM14" s="42"/>
       <c r="AN14" s="42"/>
       <c r="AO14" s="42"/>
@@ -4885,35 +5081,35 @@
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
       <c r="T15" s="49"/>
       <c r="U15" s="42"/>
       <c r="V15" s="42"/>
       <c r="W15" s="43"/>
       <c r="Z15" s="40"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
       <c r="AD15" s="42"/>
       <c r="AE15" s="42"/>
       <c r="AF15" s="42"/>
       <c r="AG15" s="42"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="53"/>
-      <c r="AL15" s="53"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="52"/>
+      <c r="AL15" s="52"/>
       <c r="AM15" s="42"/>
       <c r="AN15" s="42"/>
       <c r="AO15" s="42"/>
@@ -4928,35 +5124,35 @@
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
-      <c r="H16" s="83"/>
+      <c r="H16" s="73"/>
       <c r="I16" s="49"/>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
       <c r="T16" s="49"/>
       <c r="U16" s="42"/>
       <c r="V16" s="42"/>
       <c r="W16" s="43"/>
       <c r="Z16" s="40"/>
       <c r="AA16" s="42"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
       <c r="AD16" s="42"/>
       <c r="AE16" s="42"/>
       <c r="AF16" s="42"/>
       <c r="AG16" s="42"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="53"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
       <c r="AJ16" s="42"/>
-      <c r="AK16" s="53"/>
-      <c r="AL16" s="53"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="52"/>
       <c r="AM16" s="42"/>
       <c r="AN16" s="42"/>
       <c r="AO16" s="42"/>
@@ -4971,35 +5167,35 @@
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
-      <c r="H17" s="83"/>
+      <c r="H17" s="73"/>
       <c r="I17" s="49"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
       <c r="T17" s="49"/>
       <c r="U17" s="42"/>
       <c r="V17" s="42"/>
       <c r="W17" s="43"/>
       <c r="Z17" s="40"/>
       <c r="AA17" s="42"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
       <c r="AD17" s="42"/>
       <c r="AE17" s="42"/>
       <c r="AF17" s="42"/>
       <c r="AG17" s="42"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="53"/>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="53"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="52"/>
+      <c r="AK17" s="52"/>
+      <c r="AL17" s="52"/>
       <c r="AM17" s="42"/>
       <c r="AN17" s="42"/>
       <c r="AO17" s="42"/>
@@ -5014,37 +5210,37 @@
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
-      <c r="H18" s="83"/>
+      <c r="H18" s="73"/>
       <c r="I18" s="49"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
       <c r="W18" s="49"/>
       <c r="X18" s="48"/>
       <c r="Y18" s="48"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="53"/>
-      <c r="AC18" s="53"/>
-      <c r="AD18" s="53"/>
-      <c r="AE18" s="53"/>
-      <c r="AF18" s="53"/>
-      <c r="AG18" s="53"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="53"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
       <c r="AJ18" s="42"/>
-      <c r="AK18" s="53"/>
-      <c r="AL18" s="53"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="52"/>
       <c r="AM18" s="42"/>
       <c r="AN18" s="42"/>
       <c r="AO18" s="42"/>
@@ -5059,37 +5255,37 @@
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
-      <c r="H19" s="83"/>
+      <c r="H19" s="73"/>
       <c r="I19" s="49"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
       <c r="W19" s="49"/>
       <c r="X19" s="48"/>
       <c r="Y19" s="48"/>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="53"/>
-      <c r="AE19" s="53"/>
-      <c r="AF19" s="82"/>
-      <c r="AG19" s="82"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="53"/>
-      <c r="AJ19" s="53"/>
-      <c r="AK19" s="53"/>
-      <c r="AL19" s="53"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="72"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="52"/>
+      <c r="AL19" s="52"/>
       <c r="AM19" s="42"/>
       <c r="AN19" s="42"/>
       <c r="AO19" s="42"/>
@@ -5104,7 +5300,7 @@
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
-      <c r="H20" s="83"/>
+      <c r="H20" s="73"/>
       <c r="I20" s="49"/>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
@@ -5112,7 +5308,7 @@
       <c r="M20" s="42"/>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
-      <c r="P20" s="83"/>
+      <c r="P20" s="73"/>
       <c r="Q20" s="49"/>
       <c r="R20" s="42"/>
       <c r="S20" s="42"/>
@@ -5122,17 +5318,17 @@
       <c r="W20" s="43"/>
       <c r="Z20" s="40"/>
       <c r="AA20" s="42"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="53"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
       <c r="AD20" s="42"/>
       <c r="AE20" s="42"/>
-      <c r="AF20" s="53"/>
-      <c r="AG20" s="85"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="53"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="75"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
       <c r="AJ20" s="42"/>
-      <c r="AK20" s="53"/>
-      <c r="AL20" s="53"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="52"/>
       <c r="AM20" s="42"/>
       <c r="AN20" s="42"/>
       <c r="AO20" s="42"/>
@@ -5147,7 +5343,7 @@
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
-      <c r="H21" s="83"/>
+      <c r="H21" s="73"/>
       <c r="I21" s="49"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
@@ -5155,7 +5351,7 @@
       <c r="M21" s="42"/>
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
-      <c r="P21" s="83"/>
+      <c r="P21" s="73"/>
       <c r="Q21" s="49"/>
       <c r="R21" s="42"/>
       <c r="S21" s="42"/>
@@ -5165,17 +5361,17 @@
       <c r="W21" s="43"/>
       <c r="Z21" s="40"/>
       <c r="AA21" s="42"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
       <c r="AD21" s="42"/>
       <c r="AE21" s="42"/>
-      <c r="AF21" s="53"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="53"/>
-      <c r="AJ21" s="53"/>
-      <c r="AK21" s="53"/>
-      <c r="AL21" s="53"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="52"/>
+      <c r="AL21" s="52"/>
       <c r="AM21" s="42"/>
       <c r="AN21" s="42"/>
       <c r="AO21" s="42"/>
@@ -5190,16 +5386,16 @@
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="77"/>
       <c r="J22" s="45"/>
       <c r="K22" s="45"/>
       <c r="L22" s="45"/>
       <c r="M22" s="45"/>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="89"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="77"/>
       <c r="R22" s="45"/>
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
@@ -5208,17 +5404,17 @@
       <c r="W22" s="46"/>
       <c r="Z22" s="44"/>
       <c r="AA22" s="45"/>
-      <c r="AB22" s="82"/>
-      <c r="AC22" s="82"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
       <c r="AD22" s="45"/>
       <c r="AE22" s="45"/>
       <c r="AF22" s="45"/>
       <c r="AG22" s="45"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="84"/>
-      <c r="AK22" s="84"/>
-      <c r="AL22" s="84"/>
+      <c r="AH22" s="74"/>
+      <c r="AI22" s="74"/>
+      <c r="AJ22" s="74"/>
+      <c r="AK22" s="74"/>
+      <c r="AL22" s="74"/>
       <c r="AM22" s="45"/>
       <c r="AN22" s="45"/>
       <c r="AO22" s="45"/>
@@ -5233,7 +5429,7 @@
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
-      <c r="H23" s="83"/>
+      <c r="H23" s="73"/>
       <c r="I23" s="49"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
@@ -5241,7 +5437,7 @@
       <c r="M23" s="42"/>
       <c r="N23" s="42"/>
       <c r="O23" s="42"/>
-      <c r="P23" s="83"/>
+      <c r="P23" s="73"/>
       <c r="Q23" s="49"/>
       <c r="R23" s="42"/>
       <c r="S23" s="42"/>
@@ -5251,8 +5447,8 @@
       <c r="W23" s="42"/>
       <c r="Z23" s="42"/>
       <c r="AA23" s="42"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
       <c r="AD23" s="42"/>
       <c r="AE23" s="42"/>
       <c r="AF23" s="42"/>
@@ -5272,66 +5468,66 @@
       <c r="AT23" s="42"/>
     </row>
     <row r="24" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="H24" s="88"/>
-      <c r="I24" s="89"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="89"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="77"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="77"/>
       <c r="AA24" s="47"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="49"/>
-      <c r="AK24" s="45"/>
-      <c r="AU24" s="45"/>
-      <c r="AV24" s="45"/>
-      <c r="AW24" s="45"/>
+      <c r="AH24" s="120"/>
+      <c r="AI24" s="112"/>
+      <c r="AJ24" s="112"/>
+      <c r="AK24" s="120"/>
+      <c r="AU24" s="42"/>
+      <c r="AV24" s="42"/>
+      <c r="AW24" s="42"/>
     </row>
     <row r="25" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
       <c r="J25" s="38"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="93"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="81"/>
       <c r="O25" s="38"/>
       <c r="P25" s="38"/>
       <c r="Q25" s="38"/>
       <c r="R25" s="38"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="91"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="53"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="51"/>
-      <c r="AL25" s="51"/>
-      <c r="AM25" s="51"/>
-      <c r="AN25" s="51"/>
-      <c r="AO25" s="51"/>
-      <c r="AP25" s="51"/>
-      <c r="AQ25" s="51"/>
-      <c r="AR25" s="51"/>
-      <c r="AS25" s="51"/>
-      <c r="AT25" s="51"/>
-      <c r="AU25" s="54"/>
-      <c r="AV25" s="54"/>
-      <c r="AW25" s="52"/>
-    </row>
-    <row r="26" spans="4:49" ht="25.05" customHeight="1">
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="79"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="91"/>
+      <c r="AD25" s="92"/>
+      <c r="AE25" s="93"/>
+      <c r="AF25" s="93"/>
+      <c r="AG25" s="93"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="97"/>
+      <c r="AJ25" s="97"/>
+      <c r="AK25" s="42"/>
+      <c r="AL25" s="93"/>
+      <c r="AM25" s="93"/>
+      <c r="AN25" s="93"/>
+      <c r="AO25" s="93"/>
+      <c r="AP25" s="93"/>
+      <c r="AQ25" s="93"/>
+      <c r="AR25" s="93"/>
+      <c r="AS25" s="93"/>
+      <c r="AT25" s="94"/>
+      <c r="AU25" s="116"/>
+      <c r="AV25" s="117"/>
+      <c r="AW25" s="117"/>
+    </row>
+    <row r="26" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
       <c r="D26" s="40"/>
       <c r="E26" s="41" t="s">
         <v>84</v>
@@ -5354,35 +5550,35 @@
       <c r="U26" s="42"/>
       <c r="V26" s="42"/>
       <c r="W26" s="43"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="56"/>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="53"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="56"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="56"/>
-      <c r="AQ26" s="56"/>
-      <c r="AR26" s="56"/>
-      <c r="AS26" s="56"/>
-      <c r="AT26" s="56"/>
-      <c r="AU26" s="54"/>
-      <c r="AV26" s="54"/>
-      <c r="AW26" s="57"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="96"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="97"/>
+      <c r="AE26" s="97"/>
+      <c r="AF26" s="97"/>
+      <c r="AG26" s="97"/>
+      <c r="AH26" s="97"/>
+      <c r="AI26" s="97"/>
+      <c r="AJ26" s="97"/>
+      <c r="AK26" s="98"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="50"/>
+      <c r="AN26" s="50"/>
+      <c r="AO26" s="50"/>
+      <c r="AP26" s="50"/>
+      <c r="AQ26" s="50"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="97"/>
+      <c r="AT26" s="99"/>
+      <c r="AU26" s="116"/>
+      <c r="AV26" s="117"/>
+      <c r="AW26" s="117"/>
     </row>
     <row r="27" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
       <c r="D27" s="40"/>
       <c r="E27" s="42"/>
-      <c r="F27" s="89"/>
+      <c r="F27" s="77"/>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
       <c r="I27" s="42"/>
@@ -5400,35 +5596,35 @@
       <c r="U27" s="42"/>
       <c r="V27" s="42"/>
       <c r="W27" s="43"/>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="56"/>
-      <c r="AF27" s="56"/>
-      <c r="AG27" s="56"/>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="53"/>
-      <c r="AJ27" s="49"/>
-      <c r="AK27" s="56"/>
-      <c r="AL27" s="56"/>
-      <c r="AM27" s="56"/>
-      <c r="AN27" s="56"/>
-      <c r="AO27" s="56"/>
-      <c r="AP27" s="56"/>
-      <c r="AQ27" s="56"/>
-      <c r="AR27" s="56"/>
-      <c r="AS27" s="56"/>
-      <c r="AT27" s="56"/>
-      <c r="AU27" s="54"/>
-      <c r="AV27" s="54"/>
-      <c r="AW27" s="57"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="97"/>
+      <c r="AE27" s="97"/>
+      <c r="AF27" s="97"/>
+      <c r="AG27" s="97"/>
+      <c r="AH27" s="97"/>
+      <c r="AI27" s="97"/>
+      <c r="AJ27" s="97"/>
+      <c r="AK27" s="98"/>
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="53"/>
+      <c r="AN27" s="53"/>
+      <c r="AO27" s="53"/>
+      <c r="AP27" s="53"/>
+      <c r="AQ27" s="53"/>
+      <c r="AR27" s="54"/>
+      <c r="AS27" s="97"/>
+      <c r="AT27" s="99"/>
+      <c r="AU27" s="116"/>
+      <c r="AV27" s="117"/>
+      <c r="AW27" s="117"/>
     </row>
     <row r="28" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D28" s="92"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="85"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="75"/>
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
@@ -5444,37 +5640,35 @@
       <c r="S28" s="42"/>
       <c r="T28" s="42"/>
       <c r="U28" s="42"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="91"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="53"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
-      <c r="AM28" s="56"/>
-      <c r="AN28" s="56"/>
-      <c r="AO28" s="56"/>
-      <c r="AP28" s="56"/>
-      <c r="AQ28" s="56"/>
-      <c r="AR28" s="56"/>
-      <c r="AS28" s="56"/>
-      <c r="AT28" s="56"/>
-      <c r="AU28" s="54"/>
-      <c r="AV28" s="54"/>
-      <c r="AW28" s="57"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="79"/>
+      <c r="Z28" s="101"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="102"/>
+      <c r="AE28" s="103"/>
+      <c r="AF28" s="103"/>
+      <c r="AG28" s="103"/>
+      <c r="AH28" s="103"/>
+      <c r="AI28" s="103"/>
+      <c r="AJ28" s="103"/>
+      <c r="AK28" s="96"/>
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="53"/>
+      <c r="AN28" s="53"/>
+      <c r="AO28" s="53"/>
+      <c r="AP28" s="53"/>
+      <c r="AQ28" s="53"/>
+      <c r="AR28" s="54"/>
+      <c r="AS28" s="97"/>
+      <c r="AT28" s="99"/>
+      <c r="AU28" s="116"/>
+      <c r="AV28" s="117"/>
+      <c r="AW28" s="117"/>
     </row>
     <row r="29" spans="4:49" ht="25.05" customHeight="1">
-      <c r="D29" s="92"/>
+      <c r="D29" s="80"/>
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -5492,35 +5686,37 @@
       <c r="S29" s="42"/>
       <c r="T29" s="42"/>
       <c r="U29" s="42"/>
-      <c r="V29" s="83"/>
+      <c r="V29" s="73"/>
       <c r="W29" s="49"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="53"/>
-      <c r="AJ29" s="49"/>
-      <c r="AK29" s="56"/>
-      <c r="AL29" s="56"/>
-      <c r="AM29" s="56"/>
-      <c r="AN29" s="56"/>
-      <c r="AO29" s="56"/>
-      <c r="AP29" s="56"/>
-      <c r="AQ29" s="56"/>
-      <c r="AR29" s="56"/>
-      <c r="AS29" s="56"/>
-      <c r="AT29" s="56"/>
-      <c r="AU29" s="54"/>
-      <c r="AV29" s="54"/>
-      <c r="AW29" s="57"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="52"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="53"/>
+      <c r="AN29" s="53"/>
+      <c r="AO29" s="53"/>
+      <c r="AP29" s="53"/>
+      <c r="AQ29" s="53"/>
+      <c r="AR29" s="54"/>
+      <c r="AS29" s="97"/>
+      <c r="AT29" s="99"/>
+      <c r="AU29" s="116"/>
+      <c r="AV29" s="117"/>
+      <c r="AW29" s="117"/>
     </row>
     <row r="30" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D30" s="92"/>
+      <c r="D30" s="80"/>
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -5538,86 +5734,86 @@
       <c r="S30" s="42"/>
       <c r="T30" s="42"/>
       <c r="U30" s="42"/>
-      <c r="V30" s="83"/>
+      <c r="V30" s="73"/>
       <c r="W30" s="49"/>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="56"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="56"/>
-      <c r="AD30" s="56"/>
-      <c r="AE30" s="56"/>
-      <c r="AF30" s="56"/>
-      <c r="AG30" s="56"/>
-      <c r="AH30" s="57"/>
-      <c r="AI30" s="53"/>
-      <c r="AJ30" s="49"/>
-      <c r="AK30" s="56"/>
-      <c r="AL30" s="56"/>
-      <c r="AM30" s="56"/>
-      <c r="AN30" s="56"/>
-      <c r="AO30" s="56"/>
-      <c r="AP30" s="56"/>
-      <c r="AQ30" s="56"/>
-      <c r="AR30" s="56"/>
-      <c r="AS30" s="56"/>
-      <c r="AT30" s="56"/>
-      <c r="AU30" s="54"/>
-      <c r="AV30" s="54"/>
-      <c r="AW30" s="57"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="72"/>
+      <c r="AF30" s="72"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="72"/>
+      <c r="AI30" s="72"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="53"/>
+      <c r="AN30" s="53"/>
+      <c r="AO30" s="53"/>
+      <c r="AP30" s="53"/>
+      <c r="AQ30" s="53"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="97"/>
+      <c r="AT30" s="99"/>
+      <c r="AU30" s="116"/>
+      <c r="AV30" s="117"/>
+      <c r="AW30" s="117"/>
     </row>
     <row r="31" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D31" s="92"/>
+      <c r="D31" s="80"/>
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="95"/>
+      <c r="G31" s="83"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="93"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="81"/>
       <c r="N31" s="42"/>
       <c r="O31" s="42"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="85"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="75"/>
       <c r="U31" s="42"/>
-      <c r="V31" s="83"/>
+      <c r="V31" s="73"/>
       <c r="W31" s="49"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="56"/>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="57"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="56"/>
-      <c r="AL31" s="56"/>
-      <c r="AM31" s="56"/>
-      <c r="AN31" s="56"/>
-      <c r="AO31" s="56"/>
-      <c r="AP31" s="56"/>
-      <c r="AQ31" s="56"/>
-      <c r="AR31" s="56"/>
-      <c r="AS31" s="56"/>
-      <c r="AT31" s="56"/>
-      <c r="AU31" s="54"/>
-      <c r="AV31" s="54"/>
-      <c r="AW31" s="57"/>
+      <c r="Z31" s="104"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="58"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="53"/>
+      <c r="AQ31" s="53"/>
+      <c r="AR31" s="54"/>
+      <c r="AS31" s="97"/>
+      <c r="AT31" s="99"/>
+      <c r="AU31" s="116"/>
+      <c r="AV31" s="117"/>
+      <c r="AW31" s="117"/>
     </row>
     <row r="32" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D32" s="92"/>
+      <c r="D32" s="80"/>
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="92"/>
+      <c r="G32" s="80"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="92"/>
+      <c r="I32" s="80"/>
       <c r="J32" s="42"/>
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
@@ -5628,42 +5824,42 @@
       <c r="Q32" s="42"/>
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
-      <c r="T32" s="95"/>
+      <c r="T32" s="83"/>
       <c r="U32" s="42"/>
-      <c r="V32" s="83"/>
+      <c r="V32" s="73"/>
       <c r="W32" s="49"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="57"/>
-      <c r="AI32" s="53"/>
-      <c r="AJ32" s="53"/>
-      <c r="AK32" s="56"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
-      <c r="AP32" s="56"/>
-      <c r="AQ32" s="56"/>
-      <c r="AR32" s="56"/>
-      <c r="AS32" s="56"/>
-      <c r="AT32" s="56"/>
-      <c r="AU32" s="54"/>
-      <c r="AV32" s="54"/>
-      <c r="AW32" s="57"/>
-    </row>
-    <row r="33" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D33" s="92"/>
-      <c r="E33" s="91"/>
+      <c r="Z32" s="104"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="49"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="72"/>
+      <c r="AI32" s="72"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="49"/>
+      <c r="AL32" s="106"/>
+      <c r="AM32" s="107"/>
+      <c r="AN32" s="53"/>
+      <c r="AO32" s="54"/>
+      <c r="AP32" s="108"/>
+      <c r="AQ32" s="108"/>
+      <c r="AR32" s="107"/>
+      <c r="AS32" s="97"/>
+      <c r="AT32" s="99"/>
+      <c r="AU32" s="116"/>
+      <c r="AV32" s="117"/>
+      <c r="AW32" s="117"/>
+    </row>
+    <row r="33" spans="4:60" ht="25.05" customHeight="1">
+      <c r="D33" s="80"/>
+      <c r="E33" s="79"/>
       <c r="F33" s="42"/>
-      <c r="G33" s="92"/>
+      <c r="G33" s="80"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="92"/>
+      <c r="I33" s="80"/>
       <c r="J33" s="42"/>
       <c r="K33" s="42"/>
       <c r="L33" s="42"/>
@@ -5674,43 +5870,43 @@
       <c r="Q33" s="42"/>
       <c r="R33" s="42"/>
       <c r="S33" s="42"/>
-      <c r="T33" s="92"/>
+      <c r="T33" s="80"/>
       <c r="U33" s="42"/>
-      <c r="V33" s="83"/>
+      <c r="V33" s="73"/>
       <c r="W33" s="49"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="60"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="60"/>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="60"/>
-      <c r="AF33" s="60"/>
-      <c r="AG33" s="60"/>
-      <c r="AH33" s="61"/>
-      <c r="AI33" s="53"/>
-      <c r="AJ33" s="49"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="56"/>
-      <c r="AR33" s="56"/>
-      <c r="AS33" s="56"/>
-      <c r="AT33" s="56"/>
-      <c r="AU33" s="54"/>
-      <c r="AV33" s="54"/>
-      <c r="AW33" s="57"/>
+      <c r="Y33" s="119"/>
+      <c r="Z33" s="104"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="54"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="49"/>
+      <c r="AL33" s="53"/>
+      <c r="AM33" s="53"/>
+      <c r="AN33" s="53"/>
+      <c r="AO33" s="53"/>
+      <c r="AP33" s="53"/>
+      <c r="AQ33" s="53"/>
+      <c r="AR33" s="54"/>
+      <c r="AS33" s="97"/>
+      <c r="AT33" s="99"/>
+      <c r="AU33" s="116"/>
+      <c r="AV33" s="117"/>
+      <c r="AW33" s="117"/>
     </row>
     <row r="34" spans="4:60" ht="25.05" customHeight="1">
       <c r="D34" s="40"/>
       <c r="E34" s="49"/>
       <c r="F34" s="42"/>
-      <c r="G34" s="92"/>
+      <c r="G34" s="80"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="92"/>
+      <c r="I34" s="80"/>
       <c r="J34" s="42"/>
       <c r="L34" s="42"/>
       <c r="M34" s="42"/>
@@ -5720,43 +5916,43 @@
       <c r="Q34" s="42"/>
       <c r="R34" s="42"/>
       <c r="S34" s="42"/>
-      <c r="T34" s="92"/>
+      <c r="T34" s="80"/>
       <c r="U34" s="42"/>
-      <c r="V34" s="83"/>
+      <c r="V34" s="73"/>
       <c r="W34" s="49"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="53"/>
-      <c r="AC34" s="53"/>
-      <c r="AD34" s="53"/>
-      <c r="AE34" s="53"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="104"/>
+      <c r="AA34" s="98"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="49"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="49"/>
       <c r="AF34" s="53"/>
       <c r="AG34" s="53"/>
-      <c r="AH34" s="62"/>
-      <c r="AI34" s="53"/>
-      <c r="AJ34" s="49"/>
-      <c r="AK34" s="56"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="56"/>
-      <c r="AQ34" s="56"/>
-      <c r="AR34" s="56"/>
-      <c r="AS34" s="56"/>
-      <c r="AT34" s="56"/>
-      <c r="AU34" s="54"/>
-      <c r="AV34" s="54"/>
-      <c r="AW34" s="57"/>
+      <c r="AH34" s="53"/>
+      <c r="AI34" s="54"/>
+      <c r="AJ34" s="52"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="53"/>
+      <c r="AM34" s="53"/>
+      <c r="AN34" s="53"/>
+      <c r="AO34" s="53"/>
+      <c r="AP34" s="53"/>
+      <c r="AQ34" s="53"/>
+      <c r="AR34" s="54"/>
+      <c r="AS34" s="97"/>
+      <c r="AT34" s="99"/>
+      <c r="AU34" s="116"/>
+      <c r="AV34" s="117"/>
+      <c r="AW34" s="117"/>
     </row>
     <row r="35" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D35" s="40"/>
       <c r="E35" s="49"/>
       <c r="F35" s="42"/>
-      <c r="G35" s="92"/>
+      <c r="G35" s="80"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="92"/>
+      <c r="I35" s="80"/>
       <c r="J35" s="42"/>
       <c r="K35" s="42"/>
       <c r="L35" s="42"/>
@@ -5767,43 +5963,43 @@
       <c r="Q35" s="42"/>
       <c r="R35" s="42"/>
       <c r="S35" s="42"/>
-      <c r="T35" s="92"/>
+      <c r="T35" s="80"/>
       <c r="U35" s="42"/>
-      <c r="V35" s="83"/>
+      <c r="V35" s="73"/>
       <c r="W35" s="49"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="53"/>
-      <c r="AC35" s="53"/>
-      <c r="AD35" s="53"/>
-      <c r="AE35" s="53"/>
-      <c r="AF35" s="53"/>
-      <c r="AG35" s="53"/>
-      <c r="AH35" s="53"/>
-      <c r="AI35" s="53"/>
-      <c r="AJ35" s="49"/>
-      <c r="AK35" s="59"/>
-      <c r="AL35" s="60"/>
-      <c r="AM35" s="60"/>
-      <c r="AN35" s="60"/>
-      <c r="AO35" s="60"/>
-      <c r="AP35" s="60"/>
-      <c r="AQ35" s="60"/>
-      <c r="AR35" s="60"/>
-      <c r="AS35" s="56"/>
-      <c r="AT35" s="60"/>
-      <c r="AU35" s="60"/>
-      <c r="AV35" s="60"/>
-      <c r="AW35" s="61"/>
-    </row>
-    <row r="36" spans="4:60" ht="25.05" customHeight="1">
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="104"/>
+      <c r="AA35" s="98"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="49"/>
+      <c r="AD35" s="73"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="57"/>
+      <c r="AJ35" s="52"/>
+      <c r="AK35" s="52"/>
+      <c r="AL35" s="53"/>
+      <c r="AM35" s="53"/>
+      <c r="AN35" s="53"/>
+      <c r="AO35" s="53"/>
+      <c r="AP35" s="53"/>
+      <c r="AQ35" s="53"/>
+      <c r="AR35" s="54"/>
+      <c r="AS35" s="97"/>
+      <c r="AT35" s="99"/>
+      <c r="AU35" s="118"/>
+      <c r="AV35" s="117"/>
+      <c r="AW35" s="117"/>
+    </row>
+    <row r="36" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D36" s="40"/>
       <c r="E36" s="49"/>
       <c r="F36" s="42"/>
-      <c r="G36" s="92"/>
+      <c r="G36" s="80"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="92"/>
+      <c r="I36" s="80"/>
       <c r="J36" s="42"/>
       <c r="K36" s="42"/>
       <c r="L36" s="42"/>
@@ -5814,44 +6010,44 @@
       <c r="Q36" s="42"/>
       <c r="R36" s="42"/>
       <c r="S36" s="42"/>
-      <c r="T36" s="92"/>
+      <c r="T36" s="80"/>
       <c r="U36" s="42"/>
-      <c r="V36" s="83"/>
+      <c r="V36" s="73"/>
       <c r="W36" s="49"/>
       <c r="X36" s="40"/>
-      <c r="Y36" s="63"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="51"/>
-      <c r="AF36" s="51"/>
-      <c r="AG36" s="51"/>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="51"/>
-      <c r="AJ36" s="51"/>
-      <c r="AK36" s="52"/>
-      <c r="AL36" s="50"/>
+      <c r="Y36" s="97"/>
+      <c r="Z36" s="104"/>
+      <c r="AA36" s="98"/>
+      <c r="AB36" s="73"/>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="58"/>
+      <c r="AG36" s="58"/>
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52"/>
+      <c r="AJ36" s="52"/>
+      <c r="AK36" s="49"/>
+      <c r="AL36" s="56"/>
       <c r="AM36" s="56"/>
       <c r="AN36" s="56"/>
       <c r="AO36" s="56"/>
       <c r="AP36" s="56"/>
-      <c r="AQ36" s="56"/>
-      <c r="AR36" s="56"/>
-      <c r="AS36" s="56"/>
-      <c r="AT36" s="51"/>
-      <c r="AU36" s="64"/>
-      <c r="AV36" s="64"/>
-      <c r="AW36" s="65"/>
-    </row>
-    <row r="37" spans="4:60" ht="25.05" customHeight="1">
+      <c r="AQ36" s="53"/>
+      <c r="AR36" s="57"/>
+      <c r="AS36" s="97"/>
+      <c r="AT36" s="99"/>
+      <c r="AU36" s="116"/>
+      <c r="AV36" s="117"/>
+      <c r="AW36" s="117"/>
+    </row>
+    <row r="37" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D37" s="40"/>
       <c r="E37" s="49"/>
       <c r="F37" s="42"/>
-      <c r="G37" s="92"/>
+      <c r="G37" s="80"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="92"/>
+      <c r="I37" s="80"/>
       <c r="J37" s="42"/>
       <c r="K37" s="42"/>
       <c r="L37" s="42"/>
@@ -5862,43 +6058,43 @@
       <c r="Q37" s="42"/>
       <c r="R37" s="42"/>
       <c r="S37" s="42"/>
-      <c r="T37" s="92"/>
+      <c r="T37" s="80"/>
       <c r="U37" s="42"/>
-      <c r="V37" s="83"/>
+      <c r="V37" s="73"/>
       <c r="W37" s="49"/>
       <c r="Y37" s="42"/>
-      <c r="Z37" s="55"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="57"/>
-      <c r="AL37" s="55"/>
-      <c r="AM37" s="56"/>
-      <c r="AN37" s="56"/>
-      <c r="AO37" s="56"/>
-      <c r="AP37" s="56"/>
-      <c r="AQ37" s="56"/>
-      <c r="AR37" s="56"/>
-      <c r="AS37" s="56"/>
-      <c r="AT37" s="56"/>
-      <c r="AU37" s="66"/>
-      <c r="AV37" s="64"/>
-      <c r="AW37" s="65"/>
+      <c r="Z37" s="104"/>
+      <c r="AA37" s="98"/>
+      <c r="AB37" s="76"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="72"/>
+      <c r="AE37" s="72"/>
+      <c r="AF37" s="72"/>
+      <c r="AG37" s="52"/>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="72"/>
+      <c r="AJ37" s="72"/>
+      <c r="AK37" s="77"/>
+      <c r="AL37" s="109"/>
+      <c r="AM37" s="59"/>
+      <c r="AN37" s="53"/>
+      <c r="AO37" s="53"/>
+      <c r="AP37" s="53"/>
+      <c r="AQ37" s="53"/>
+      <c r="AR37" s="54"/>
+      <c r="AS37" s="97"/>
+      <c r="AT37" s="99"/>
+      <c r="AU37" s="117"/>
+      <c r="AV37" s="117"/>
+      <c r="AW37" s="117"/>
     </row>
     <row r="38" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D38" s="40"/>
       <c r="E38" s="49"/>
       <c r="F38" s="42"/>
-      <c r="G38" s="92"/>
+      <c r="G38" s="80"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="92"/>
+      <c r="I38" s="80"/>
       <c r="J38" s="42"/>
       <c r="K38" s="42"/>
       <c r="L38" s="42"/>
@@ -5909,80 +6105,80 @@
       <c r="Q38" s="42"/>
       <c r="R38" s="42"/>
       <c r="S38" s="42"/>
-      <c r="T38" s="92"/>
+      <c r="T38" s="80"/>
       <c r="U38" s="42"/>
-      <c r="V38" s="83"/>
+      <c r="V38" s="73"/>
       <c r="W38" s="49"/>
-      <c r="Z38" s="55"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="56"/>
-      <c r="AC38" s="56"/>
-      <c r="AD38" s="56"/>
-      <c r="AE38" s="56"/>
-      <c r="AF38" s="56"/>
-      <c r="AG38" s="56"/>
-      <c r="AH38" s="56"/>
-      <c r="AI38" s="56"/>
-      <c r="AJ38" s="56"/>
-      <c r="AK38" s="57"/>
-      <c r="AL38" s="55"/>
-      <c r="AM38" s="56"/>
-      <c r="AN38" s="56"/>
-      <c r="AO38" s="56"/>
-      <c r="AP38" s="56"/>
-      <c r="AQ38" s="56"/>
-      <c r="AR38" s="56"/>
-      <c r="AS38" s="56"/>
-      <c r="AT38" s="56"/>
-      <c r="AU38" s="66"/>
-      <c r="AV38" s="64"/>
-      <c r="AW38" s="65"/>
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="97"/>
+      <c r="AB38" s="97"/>
+      <c r="AC38" s="97"/>
+      <c r="AD38" s="97"/>
+      <c r="AE38" s="97"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="53"/>
+      <c r="AH38" s="53"/>
+      <c r="AI38" s="53"/>
+      <c r="AJ38" s="53"/>
+      <c r="AK38" s="54"/>
+      <c r="AL38" s="110"/>
+      <c r="AM38" s="98"/>
+      <c r="AN38" s="53"/>
+      <c r="AO38" s="53"/>
+      <c r="AP38" s="53"/>
+      <c r="AQ38" s="53"/>
+      <c r="AR38" s="54"/>
+      <c r="AS38" s="97"/>
+      <c r="AT38" s="99"/>
+      <c r="AU38" s="117"/>
+      <c r="AV38" s="117"/>
+      <c r="AW38" s="117"/>
     </row>
     <row r="39" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D39" s="40"/>
       <c r="E39" s="49"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="96"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="84"/>
       <c r="J39" s="42"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="93"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="81"/>
       <c r="R39" s="42"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="96"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="84"/>
       <c r="U39" s="42"/>
-      <c r="V39" s="88"/>
-      <c r="W39" s="89"/>
-      <c r="Z39" s="55"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AE39" s="56"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="56"/>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="56"/>
-      <c r="AJ39" s="56"/>
-      <c r="AK39" s="57"/>
-      <c r="AL39" s="55"/>
-      <c r="AM39" s="56"/>
-      <c r="AN39" s="56"/>
-      <c r="AO39" s="56"/>
-      <c r="AP39" s="56"/>
-      <c r="AQ39" s="56"/>
-      <c r="AR39" s="56"/>
-      <c r="AS39" s="56"/>
-      <c r="AT39" s="56"/>
-      <c r="AU39" s="66"/>
-      <c r="AV39" s="64"/>
-      <c r="AW39" s="65"/>
+      <c r="V39" s="76"/>
+      <c r="W39" s="77"/>
+      <c r="Z39" s="104"/>
+      <c r="AA39" s="97"/>
+      <c r="AB39" s="97"/>
+      <c r="AC39" s="97"/>
+      <c r="AD39" s="97"/>
+      <c r="AE39" s="97"/>
+      <c r="AF39" s="98"/>
+      <c r="AG39" s="53"/>
+      <c r="AH39" s="53"/>
+      <c r="AI39" s="53"/>
+      <c r="AJ39" s="53"/>
+      <c r="AK39" s="54"/>
+      <c r="AL39" s="110"/>
+      <c r="AM39" s="98"/>
+      <c r="AN39" s="53"/>
+      <c r="AO39" s="53"/>
+      <c r="AP39" s="53"/>
+      <c r="AQ39" s="53"/>
+      <c r="AR39" s="54"/>
+      <c r="AS39" s="97"/>
+      <c r="AT39" s="99"/>
+      <c r="AU39" s="117"/>
+      <c r="AV39" s="117"/>
+      <c r="AW39" s="117"/>
     </row>
     <row r="40" spans="4:60" ht="25.05" customHeight="1">
       <c r="D40" s="40"/>
@@ -6005,30 +6201,30 @@
       <c r="U40" s="42"/>
       <c r="V40" s="42"/>
       <c r="W40" s="43"/>
-      <c r="Z40" s="55"/>
-      <c r="AA40" s="56"/>
-      <c r="AB40" s="56"/>
-      <c r="AC40" s="56"/>
-      <c r="AD40" s="56"/>
-      <c r="AE40" s="56"/>
-      <c r="AF40" s="56"/>
-      <c r="AG40" s="56"/>
-      <c r="AH40" s="56"/>
-      <c r="AI40" s="56"/>
-      <c r="AJ40" s="56"/>
-      <c r="AK40" s="57"/>
-      <c r="AL40" s="55"/>
-      <c r="AM40" s="56"/>
-      <c r="AN40" s="56"/>
-      <c r="AO40" s="56"/>
-      <c r="AP40" s="56"/>
-      <c r="AQ40" s="56"/>
-      <c r="AR40" s="56"/>
-      <c r="AS40" s="56"/>
-      <c r="AT40" s="56"/>
-      <c r="AU40" s="66"/>
-      <c r="AV40" s="64"/>
-      <c r="AW40" s="65"/>
+      <c r="Z40" s="104"/>
+      <c r="AA40" s="97"/>
+      <c r="AB40" s="97"/>
+      <c r="AC40" s="97"/>
+      <c r="AD40" s="97"/>
+      <c r="AE40" s="97"/>
+      <c r="AF40" s="98"/>
+      <c r="AG40" s="53"/>
+      <c r="AH40" s="53"/>
+      <c r="AI40" s="53"/>
+      <c r="AJ40" s="53"/>
+      <c r="AK40" s="54"/>
+      <c r="AL40" s="110"/>
+      <c r="AM40" s="98"/>
+      <c r="AN40" s="53"/>
+      <c r="AO40" s="53"/>
+      <c r="AP40" s="53"/>
+      <c r="AQ40" s="53"/>
+      <c r="AR40" s="54"/>
+      <c r="AS40" s="97"/>
+      <c r="AT40" s="99"/>
+      <c r="AU40" s="117"/>
+      <c r="AV40" s="117"/>
+      <c r="AW40" s="117"/>
     </row>
     <row r="41" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D41" s="40"/>
@@ -6051,181 +6247,181 @@
       <c r="U41" s="42"/>
       <c r="V41" s="42"/>
       <c r="W41" s="43"/>
-      <c r="Z41" s="55"/>
-      <c r="AA41" s="56"/>
-      <c r="AB41" s="56"/>
-      <c r="AC41" s="56"/>
-      <c r="AD41" s="56"/>
-      <c r="AE41" s="56"/>
-      <c r="AF41" s="56"/>
-      <c r="AG41" s="56"/>
-      <c r="AH41" s="56"/>
-      <c r="AI41" s="56"/>
-      <c r="AJ41" s="56"/>
-      <c r="AK41" s="57"/>
-      <c r="AL41" s="55"/>
-      <c r="AM41" s="56"/>
-      <c r="AN41" s="56"/>
-      <c r="AO41" s="56"/>
-      <c r="AP41" s="56"/>
-      <c r="AQ41" s="56"/>
-      <c r="AR41" s="56"/>
-      <c r="AS41" s="56"/>
-      <c r="AT41" s="56"/>
-      <c r="AU41" s="66"/>
-      <c r="AV41" s="64"/>
-      <c r="AW41" s="65"/>
+      <c r="Z41" s="104"/>
+      <c r="AA41" s="97"/>
+      <c r="AB41" s="97"/>
+      <c r="AC41" s="97"/>
+      <c r="AD41" s="97"/>
+      <c r="AE41" s="97"/>
+      <c r="AF41" s="98"/>
+      <c r="AG41" s="53"/>
+      <c r="AH41" s="53"/>
+      <c r="AI41" s="53"/>
+      <c r="AJ41" s="53"/>
+      <c r="AK41" s="54"/>
+      <c r="AL41" s="110"/>
+      <c r="AM41" s="98"/>
+      <c r="AN41" s="53"/>
+      <c r="AO41" s="53"/>
+      <c r="AP41" s="53"/>
+      <c r="AQ41" s="53"/>
+      <c r="AR41" s="54"/>
+      <c r="AS41" s="97"/>
+      <c r="AT41" s="99"/>
+      <c r="AU41" s="117"/>
+      <c r="AV41" s="117"/>
+      <c r="AW41" s="117"/>
     </row>
     <row r="42" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D42" s="44"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="85"/>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="85"/>
-      <c r="U42" s="93"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="75"/>
+      <c r="R42" s="75"/>
+      <c r="S42" s="75"/>
+      <c r="T42" s="75"/>
+      <c r="U42" s="81"/>
       <c r="V42" s="45"/>
       <c r="W42" s="46"/>
-      <c r="Z42" s="55"/>
-      <c r="AA42" s="56"/>
-      <c r="AB42" s="56"/>
-      <c r="AC42" s="56"/>
-      <c r="AD42" s="56"/>
-      <c r="AE42" s="56"/>
-      <c r="AF42" s="56"/>
-      <c r="AG42" s="56"/>
-      <c r="AH42" s="56"/>
-      <c r="AI42" s="56"/>
-      <c r="AJ42" s="56"/>
-      <c r="AK42" s="57"/>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="56"/>
-      <c r="AN42" s="56"/>
-      <c r="AO42" s="56"/>
-      <c r="AP42" s="56"/>
-      <c r="AQ42" s="56"/>
-      <c r="AR42" s="56"/>
-      <c r="AS42" s="56"/>
-      <c r="AT42" s="56"/>
-      <c r="AU42" s="66"/>
-      <c r="AV42" s="64"/>
-      <c r="AW42" s="65"/>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="97"/>
+      <c r="AB42" s="97"/>
+      <c r="AC42" s="97"/>
+      <c r="AD42" s="97"/>
+      <c r="AE42" s="97"/>
+      <c r="AF42" s="98"/>
+      <c r="AG42" s="53"/>
+      <c r="AH42" s="53"/>
+      <c r="AI42" s="53"/>
+      <c r="AJ42" s="53"/>
+      <c r="AK42" s="54"/>
+      <c r="AL42" s="110"/>
+      <c r="AM42" s="98"/>
+      <c r="AN42" s="53"/>
+      <c r="AO42" s="53"/>
+      <c r="AP42" s="53"/>
+      <c r="AQ42" s="53"/>
+      <c r="AR42" s="54"/>
+      <c r="AS42" s="97"/>
+      <c r="AT42" s="99"/>
+      <c r="AU42" s="117"/>
+      <c r="AV42" s="117"/>
+      <c r="AW42" s="117"/>
     </row>
     <row r="43" spans="4:60" ht="19.95" customHeight="1">
-      <c r="Z43" s="55"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="56"/>
-      <c r="AC43" s="56"/>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="56"/>
-      <c r="AF43" s="56"/>
-      <c r="AG43" s="56"/>
-      <c r="AH43" s="56"/>
-      <c r="AI43" s="56"/>
-      <c r="AJ43" s="56"/>
-      <c r="AK43" s="57"/>
-      <c r="AL43" s="55"/>
-      <c r="AM43" s="56"/>
-      <c r="AN43" s="56"/>
-      <c r="AO43" s="56"/>
-      <c r="AP43" s="56"/>
-      <c r="AQ43" s="56"/>
-      <c r="AR43" s="56"/>
-      <c r="AS43" s="56"/>
-      <c r="AT43" s="56"/>
-      <c r="AU43" s="66"/>
-      <c r="AV43" s="64"/>
-      <c r="AW43" s="65"/>
-    </row>
-    <row r="44" spans="4:60" ht="19.95" customHeight="1">
-      <c r="Z44" s="55"/>
-      <c r="AA44" s="56"/>
-      <c r="AB44" s="56"/>
-      <c r="AC44" s="56"/>
-      <c r="AD44" s="56"/>
-      <c r="AE44" s="56"/>
-      <c r="AF44" s="56"/>
-      <c r="AG44" s="56"/>
-      <c r="AH44" s="56"/>
-      <c r="AI44" s="56"/>
-      <c r="AJ44" s="56"/>
-      <c r="AK44" s="56"/>
-      <c r="AL44" s="56"/>
-      <c r="AM44" s="56"/>
-      <c r="AN44" s="56"/>
-      <c r="AO44" s="56"/>
-      <c r="AP44" s="56"/>
-      <c r="AQ44" s="56"/>
-      <c r="AR44" s="56"/>
-      <c r="AS44" s="56"/>
-      <c r="AT44" s="56"/>
-      <c r="AU44" s="66"/>
-      <c r="AV44" s="64"/>
-      <c r="AW44" s="65"/>
+      <c r="Z43" s="104"/>
+      <c r="AA43" s="97"/>
+      <c r="AB43" s="97"/>
+      <c r="AC43" s="97"/>
+      <c r="AD43" s="97"/>
+      <c r="AE43" s="97"/>
+      <c r="AF43" s="98"/>
+      <c r="AG43" s="53"/>
+      <c r="AH43" s="53"/>
+      <c r="AI43" s="53"/>
+      <c r="AJ43" s="53"/>
+      <c r="AK43" s="54"/>
+      <c r="AL43" s="110"/>
+      <c r="AM43" s="98"/>
+      <c r="AN43" s="53"/>
+      <c r="AO43" s="53"/>
+      <c r="AP43" s="53"/>
+      <c r="AQ43" s="53"/>
+      <c r="AR43" s="54"/>
+      <c r="AS43" s="97"/>
+      <c r="AT43" s="99"/>
+      <c r="AU43" s="117"/>
+      <c r="AV43" s="117"/>
+      <c r="AW43" s="117"/>
+    </row>
+    <row r="44" spans="4:60" ht="19.95" customHeight="1" thickBot="1">
+      <c r="Z44" s="104"/>
+      <c r="AA44" s="97"/>
+      <c r="AB44" s="97"/>
+      <c r="AC44" s="97"/>
+      <c r="AD44" s="97"/>
+      <c r="AE44" s="97"/>
+      <c r="AF44" s="98"/>
+      <c r="AG44" s="53"/>
+      <c r="AH44" s="53"/>
+      <c r="AI44" s="53"/>
+      <c r="AJ44" s="53"/>
+      <c r="AK44" s="54"/>
+      <c r="AL44" s="102"/>
+      <c r="AM44" s="96"/>
+      <c r="AN44" s="53"/>
+      <c r="AO44" s="53"/>
+      <c r="AP44" s="53"/>
+      <c r="AQ44" s="53"/>
+      <c r="AR44" s="54"/>
+      <c r="AS44" s="97"/>
+      <c r="AT44" s="99"/>
+      <c r="AU44" s="117"/>
+      <c r="AV44" s="117"/>
+      <c r="AW44" s="117"/>
       <c r="BH44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="4:60" ht="19.95" customHeight="1" thickBot="1">
-      <c r="Z45" s="55"/>
-      <c r="AA45" s="56"/>
-      <c r="AB45" s="56"/>
-      <c r="AC45" s="56"/>
-      <c r="AD45" s="56"/>
-      <c r="AE45" s="56"/>
-      <c r="AF45" s="56"/>
-      <c r="AG45" s="56"/>
-      <c r="AH45" s="56"/>
-      <c r="AI45" s="56"/>
-      <c r="AJ45" s="56"/>
-      <c r="AK45" s="57"/>
-      <c r="AL45" s="55"/>
-      <c r="AM45" s="56"/>
-      <c r="AN45" s="56"/>
-      <c r="AO45" s="56"/>
-      <c r="AP45" s="56"/>
-      <c r="AQ45" s="56"/>
-      <c r="AR45" s="56"/>
-      <c r="AS45" s="56"/>
-      <c r="AT45" s="60"/>
-      <c r="AU45" s="67"/>
-      <c r="AV45" s="67"/>
-      <c r="AW45" s="68"/>
-    </row>
-    <row r="46" spans="4:60" ht="19.95" customHeight="1">
+    <row r="45" spans="4:60" ht="19.95" customHeight="1">
+      <c r="Z45" s="104"/>
+      <c r="AA45" s="97"/>
+      <c r="AB45" s="97"/>
+      <c r="AC45" s="97"/>
+      <c r="AD45" s="97"/>
+      <c r="AE45" s="97"/>
+      <c r="AF45" s="98"/>
+      <c r="AG45" s="53"/>
+      <c r="AH45" s="53"/>
+      <c r="AI45" s="53"/>
+      <c r="AJ45" s="53"/>
+      <c r="AK45" s="53"/>
+      <c r="AL45" s="52"/>
+      <c r="AM45" s="52"/>
+      <c r="AN45" s="53"/>
+      <c r="AO45" s="53"/>
+      <c r="AP45" s="53"/>
+      <c r="AQ45" s="53"/>
+      <c r="AR45" s="54"/>
+      <c r="AS45" s="97"/>
+      <c r="AT45" s="99"/>
+      <c r="AU45" s="118"/>
+      <c r="AV45" s="117"/>
+      <c r="AW45" s="117"/>
+    </row>
+    <row r="46" spans="4:60" ht="19.95" customHeight="1" thickBot="1">
       <c r="Y46" s="42"/>
-      <c r="Z46" s="69"/>
-      <c r="AA46" s="69"/>
-      <c r="AB46" s="69"/>
-      <c r="AC46" s="69"/>
-      <c r="AD46" s="69"/>
-      <c r="AE46" s="69"/>
-      <c r="AF46" s="69"/>
-      <c r="AG46" s="69"/>
-      <c r="AH46" s="69"/>
-      <c r="AI46" s="69"/>
-      <c r="AJ46" s="69"/>
-      <c r="AK46" s="69"/>
-      <c r="AL46" s="69"/>
-      <c r="AM46" s="69"/>
-      <c r="AN46" s="69"/>
-      <c r="AO46" s="69"/>
-      <c r="AP46" s="69"/>
-      <c r="AQ46" s="69"/>
-      <c r="AR46" s="69"/>
-      <c r="AS46" s="69"/>
-      <c r="AT46" s="69"/>
+      <c r="Z46" s="111"/>
+      <c r="AA46" s="112"/>
+      <c r="AB46" s="112"/>
+      <c r="AC46" s="112"/>
+      <c r="AD46" s="112"/>
+      <c r="AE46" s="112"/>
+      <c r="AF46" s="113"/>
+      <c r="AG46" s="55"/>
+      <c r="AH46" s="56"/>
+      <c r="AI46" s="56"/>
+      <c r="AJ46" s="56"/>
+      <c r="AK46" s="56"/>
+      <c r="AL46" s="72"/>
+      <c r="AM46" s="72"/>
+      <c r="AN46" s="56"/>
+      <c r="AO46" s="56"/>
+      <c r="AP46" s="56"/>
+      <c r="AQ46" s="56"/>
+      <c r="AR46" s="57"/>
+      <c r="AS46" s="114"/>
+      <c r="AT46" s="115"/>
     </row>
     <row r="47" spans="4:60" ht="19.95" customHeight="1">
       <c r="Z47" s="42"/>
@@ -6281,6 +6477,157 @@
       <c r="AW48" s="42"/>
       <c r="AX48" s="42"/>
     </row>
+    <row r="49" ht="19.95" customHeight="1"/>
+    <row r="50" ht="19.95" customHeight="1"/>
+    <row r="51" ht="19.95" customHeight="1"/>
+    <row r="52" ht="19.95" customHeight="1"/>
+    <row r="53" ht="19.95" customHeight="1"/>
+    <row r="54" ht="19.95" customHeight="1"/>
+    <row r="55" ht="19.95" customHeight="1"/>
+    <row r="56" ht="19.95" customHeight="1"/>
+    <row r="57" ht="19.95" customHeight="1"/>
+    <row r="58" ht="19.95" customHeight="1"/>
+    <row r="59" ht="19.95" customHeight="1"/>
+    <row r="60" ht="19.95" customHeight="1"/>
+    <row r="61" ht="19.95" customHeight="1"/>
+    <row r="62" ht="19.95" customHeight="1"/>
+    <row r="63" ht="19.95" customHeight="1"/>
+    <row r="64" ht="19.95" customHeight="1"/>
+    <row r="65" ht="19.95" customHeight="1"/>
+    <row r="66" ht="19.95" customHeight="1"/>
+    <row r="67" ht="19.95" customHeight="1"/>
+    <row r="68" ht="19.95" customHeight="1"/>
+    <row r="69" ht="19.95" customHeight="1"/>
+    <row r="70" ht="19.95" customHeight="1"/>
+    <row r="71" ht="19.95" customHeight="1"/>
+    <row r="72" ht="19.95" customHeight="1"/>
+    <row r="73" ht="19.95" customHeight="1"/>
+    <row r="74" ht="19.95" customHeight="1"/>
+    <row r="75" ht="19.95" customHeight="1"/>
+    <row r="76" ht="19.95" customHeight="1"/>
+    <row r="77" ht="19.95" customHeight="1"/>
+    <row r="78" ht="19.95" customHeight="1"/>
+    <row r="79" ht="19.95" customHeight="1"/>
+    <row r="80" ht="19.95" customHeight="1"/>
+    <row r="81" ht="19.95" customHeight="1"/>
+    <row r="82" ht="19.95" customHeight="1"/>
+    <row r="83" ht="19.95" customHeight="1"/>
+    <row r="84" ht="19.95" customHeight="1"/>
+    <row r="85" ht="19.95" customHeight="1"/>
+    <row r="86" ht="19.95" customHeight="1"/>
+    <row r="87" ht="19.95" customHeight="1"/>
+    <row r="88" ht="19.95" customHeight="1"/>
+    <row r="89" ht="19.95" customHeight="1"/>
+    <row r="90" ht="19.95" customHeight="1"/>
+    <row r="91" ht="19.95" customHeight="1"/>
+    <row r="92" ht="19.95" customHeight="1"/>
+    <row r="93" ht="19.95" customHeight="1"/>
+    <row r="94" ht="19.95" customHeight="1"/>
+    <row r="95" ht="19.95" customHeight="1"/>
+    <row r="96" ht="19.95" customHeight="1"/>
+    <row r="97" ht="19.95" customHeight="1"/>
+    <row r="98" ht="19.95" customHeight="1"/>
+    <row r="99" ht="19.95" customHeight="1"/>
+    <row r="100" ht="19.95" customHeight="1"/>
+    <row r="101" ht="19.95" customHeight="1"/>
+    <row r="102" ht="19.95" customHeight="1"/>
+    <row r="103" ht="19.95" customHeight="1"/>
+    <row r="104" ht="19.95" customHeight="1"/>
+    <row r="105" ht="19.95" customHeight="1"/>
+    <row r="106" ht="19.95" customHeight="1"/>
+    <row r="107" ht="19.95" customHeight="1"/>
+    <row r="108" ht="19.95" customHeight="1"/>
+    <row r="109" ht="19.95" customHeight="1"/>
+    <row r="110" ht="19.95" customHeight="1"/>
+    <row r="111" ht="19.95" customHeight="1"/>
+    <row r="112" ht="19.95" customHeight="1"/>
+    <row r="113" ht="19.95" customHeight="1"/>
+    <row r="114" ht="19.95" customHeight="1"/>
+    <row r="115" ht="19.95" customHeight="1"/>
+    <row r="116" ht="19.95" customHeight="1"/>
+    <row r="117" ht="19.95" customHeight="1"/>
+    <row r="118" ht="19.95" customHeight="1"/>
+    <row r="119" ht="19.95" customHeight="1"/>
+    <row r="120" ht="19.95" customHeight="1"/>
+    <row r="121" ht="19.95" customHeight="1"/>
+    <row r="122" ht="19.95" customHeight="1"/>
+    <row r="123" ht="19.95" customHeight="1"/>
+    <row r="124" ht="19.95" customHeight="1"/>
+    <row r="125" ht="19.95" customHeight="1"/>
+    <row r="126" ht="19.95" customHeight="1"/>
+    <row r="127" ht="19.95" customHeight="1"/>
+    <row r="128" ht="19.95" customHeight="1"/>
+    <row r="129" ht="19.95" customHeight="1"/>
+    <row r="130" ht="19.95" customHeight="1"/>
+    <row r="131" ht="19.95" customHeight="1"/>
+    <row r="132" ht="19.95" customHeight="1"/>
+    <row r="133" ht="19.95" customHeight="1"/>
+    <row r="134" ht="19.95" customHeight="1"/>
+    <row r="135" ht="19.95" customHeight="1"/>
+    <row r="136" ht="19.95" customHeight="1"/>
+    <row r="137" ht="19.95" customHeight="1"/>
+    <row r="138" ht="19.95" customHeight="1"/>
+    <row r="139" ht="19.95" customHeight="1"/>
+    <row r="140" ht="19.95" customHeight="1"/>
+    <row r="141" ht="19.95" customHeight="1"/>
+    <row r="142" ht="19.95" customHeight="1"/>
+    <row r="143" ht="19.95" customHeight="1"/>
+    <row r="144" ht="19.95" customHeight="1"/>
+    <row r="145" ht="19.95" customHeight="1"/>
+    <row r="146" ht="19.95" customHeight="1"/>
+    <row r="147" ht="19.95" customHeight="1"/>
+    <row r="148" ht="19.95" customHeight="1"/>
+    <row r="149" ht="19.95" customHeight="1"/>
+    <row r="150" ht="19.95" customHeight="1"/>
+    <row r="151" ht="19.95" customHeight="1"/>
+    <row r="152" ht="19.95" customHeight="1"/>
+    <row r="153" ht="19.95" customHeight="1"/>
+    <row r="154" ht="19.95" customHeight="1"/>
+    <row r="155" ht="19.95" customHeight="1"/>
+    <row r="156" ht="19.95" customHeight="1"/>
+    <row r="157" ht="19.95" customHeight="1"/>
+    <row r="158" ht="19.95" customHeight="1"/>
+    <row r="159" ht="19.95" customHeight="1"/>
+    <row r="160" ht="19.95" customHeight="1"/>
+    <row r="161" ht="19.95" customHeight="1"/>
+    <row r="162" ht="19.95" customHeight="1"/>
+    <row r="163" ht="19.95" customHeight="1"/>
+    <row r="164" ht="19.95" customHeight="1"/>
+    <row r="165" ht="19.95" customHeight="1"/>
+    <row r="166" ht="19.95" customHeight="1"/>
+    <row r="167" ht="19.95" customHeight="1"/>
+    <row r="168" ht="19.95" customHeight="1"/>
+    <row r="169" ht="19.95" customHeight="1"/>
+    <row r="170" ht="19.95" customHeight="1"/>
+    <row r="171" ht="19.95" customHeight="1"/>
+    <row r="172" ht="19.95" customHeight="1"/>
+    <row r="173" ht="19.95" customHeight="1"/>
+    <row r="174" ht="19.95" customHeight="1"/>
+    <row r="175" ht="19.95" customHeight="1"/>
+    <row r="176" ht="19.95" customHeight="1"/>
+    <row r="177" ht="19.95" customHeight="1"/>
+    <row r="178" ht="19.95" customHeight="1"/>
+    <row r="179" ht="19.95" customHeight="1"/>
+    <row r="180" ht="19.95" customHeight="1"/>
+    <row r="181" ht="19.95" customHeight="1"/>
+    <row r="182" ht="19.95" customHeight="1"/>
+    <row r="183" ht="19.95" customHeight="1"/>
+    <row r="184" ht="19.95" customHeight="1"/>
+    <row r="185" ht="19.95" customHeight="1"/>
+    <row r="186" ht="19.95" customHeight="1"/>
+    <row r="187" ht="19.95" customHeight="1"/>
+    <row r="188" ht="19.95" customHeight="1"/>
+    <row r="189" ht="19.95" customHeight="1"/>
+    <row r="190" ht="19.95" customHeight="1"/>
+    <row r="191" ht="19.95" customHeight="1"/>
+    <row r="192" ht="19.95" customHeight="1"/>
+    <row r="193" ht="19.95" customHeight="1"/>
+    <row r="194" ht="19.95" customHeight="1"/>
+    <row r="195" ht="19.95" customHeight="1"/>
+    <row r="196" ht="19.95" customHeight="1"/>
+    <row r="197" ht="19.95" customHeight="1"/>
+    <row r="198" ht="19.95" customHeight="1"/>
+    <row r="199" ht="19.95" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github3\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8424DF6-C24F-4EA3-80E1-5EC239E622FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D34097-50F8-4355-9A98-4FFEF18C969C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" activeTab="2" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -1113,7 +1113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1331,69 +1331,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1403,7 +1340,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1662,40 +1599,52 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4392,10 +4341,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2938C-A6E3-41DD-BC66-7CDBE357270C}">
-  <dimension ref="D3:BH48"/>
+  <dimension ref="A3:BH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="19.95" customHeight="1"/>
@@ -4761,15 +4710,15 @@
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="91"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
       <c r="U12" s="42"/>
       <c r="V12" s="42"/>
       <c r="W12" s="43"/>
@@ -4794,24 +4743,24 @@
       <c r="AS12" s="42"/>
       <c r="AT12" s="43"/>
     </row>
-    <row r="13" spans="4:46" ht="25.05" customHeight="1">
+    <row r="13" spans="4:46" ht="25.05" customHeight="1" thickBot="1">
       <c r="D13" s="40"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="49"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
       <c r="U13" s="42"/>
       <c r="V13" s="42"/>
       <c r="W13" s="43"/>
@@ -4842,19 +4791,19 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="49"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="89"/>
       <c r="U14" s="42"/>
       <c r="V14" s="42"/>
       <c r="W14" s="43"/>
@@ -4885,11 +4834,11 @@
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="53"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="83"/>
       <c r="M15" s="53"/>
       <c r="N15" s="53"/>
       <c r="O15" s="53"/>
@@ -4928,11 +4877,11 @@
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="83"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="53"/>
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
@@ -4966,16 +4915,16 @@
       <c r="AS16" s="42"/>
       <c r="AT16" s="43"/>
     </row>
-    <row r="17" spans="4:49" ht="25.05" customHeight="1">
+    <row r="17" spans="1:49" ht="25.05" customHeight="1" thickBot="1">
       <c r="D17" s="40"/>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="83"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="53"/>
       <c r="M17" s="53"/>
       <c r="N17" s="53"/>
       <c r="O17" s="53"/>
@@ -5009,15 +4958,15 @@
       <c r="AS17" s="42"/>
       <c r="AT17" s="43"/>
     </row>
-    <row r="18" spans="4:49" ht="25.05" customHeight="1">
+    <row r="18" spans="1:49" ht="25.05" customHeight="1">
       <c r="D18" s="40"/>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
       <c r="L18" s="83"/>
       <c r="M18" s="53"/>
       <c r="N18" s="53"/>
@@ -5054,16 +5003,16 @@
       <c r="AS18" s="42"/>
       <c r="AT18" s="43"/>
     </row>
-    <row r="19" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
+    <row r="19" spans="1:49" ht="25.05" customHeight="1" thickBot="1">
       <c r="D19" s="40"/>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="88"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="86"/>
       <c r="M19" s="82"/>
       <c r="N19" s="82"/>
       <c r="O19" s="82"/>
@@ -5099,15 +5048,15 @@
       <c r="AS19" s="42"/>
       <c r="AT19" s="43"/>
     </row>
-    <row r="20" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
+    <row r="20" spans="1:49" ht="25.05" customHeight="1" thickBot="1">
       <c r="D20" s="40"/>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
       <c r="L20" s="42"/>
       <c r="M20" s="42"/>
       <c r="N20" s="42"/>
@@ -5142,15 +5091,15 @@
       <c r="AS20" s="42"/>
       <c r="AT20" s="43"/>
     </row>
-    <row r="21" spans="4:49" ht="25.05" customHeight="1">
+    <row r="21" spans="1:49" ht="25.05" customHeight="1">
       <c r="D21" s="40"/>
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
       <c r="L21" s="42"/>
       <c r="M21" s="42"/>
       <c r="N21" s="42"/>
@@ -5185,21 +5134,21 @@
       <c r="AS21" s="42"/>
       <c r="AT21" s="43"/>
     </row>
-    <row r="22" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
+    <row r="22" spans="1:49" ht="25.05" customHeight="1" thickBot="1">
       <c r="D22" s="44"/>
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
       <c r="L22" s="45"/>
       <c r="M22" s="45"/>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="89"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="87"/>
       <c r="R22" s="45"/>
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
@@ -5228,7 +5177,7 @@
       <c r="AS22" s="45"/>
       <c r="AT22" s="46"/>
     </row>
-    <row r="23" spans="4:49" ht="25.05" customHeight="1">
+    <row r="23" spans="1:49" ht="25.05" customHeight="1">
       <c r="D23" s="42"/>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
@@ -5271,11 +5220,11 @@
       <c r="AS23" s="42"/>
       <c r="AT23" s="42"/>
     </row>
-    <row r="24" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="H24" s="88"/>
-      <c r="I24" s="89"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="89"/>
+    <row r="24" spans="1:49" ht="25.05" customHeight="1" thickBot="1">
+      <c r="H24" s="83"/>
+      <c r="I24" s="49"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="49"/>
       <c r="AA24" s="47"/>
       <c r="AH24" s="46"/>
       <c r="AI24" s="48"/>
@@ -5285,27 +5234,29 @@
       <c r="AV24" s="45"/>
       <c r="AW24" s="45"/>
     </row>
-    <row r="25" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
+    <row r="25" spans="1:49" ht="25.05" customHeight="1">
+      <c r="C25" s="94"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
       <c r="U25" s="62"/>
       <c r="V25" s="62"/>
-      <c r="W25" s="91"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="89"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="51"/>
       <c r="AB25" s="51"/>
@@ -5331,29 +5282,27 @@
       <c r="AV25" s="54"/>
       <c r="AW25" s="52"/>
     </row>
-    <row r="26" spans="4:49" ht="25.05" customHeight="1">
-      <c r="D26" s="40"/>
-      <c r="E26" s="41" t="s">
+    <row r="26" spans="1:49" ht="25.05" customHeight="1" thickBot="1">
+      <c r="C26" s="42"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="43"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="43"/>
       <c r="Z26" s="55"/>
       <c r="AA26" s="56"/>
       <c r="AB26" s="56"/>
@@ -5379,27 +5328,29 @@
       <c r="AV26" s="54"/>
       <c r="AW26" s="57"/>
     </row>
-    <row r="27" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D27" s="40"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="43"/>
+    <row r="27" spans="1:49" ht="25.05" customHeight="1" thickBot="1">
+      <c r="C27" s="42"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="89"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="43"/>
       <c r="Z27" s="55"/>
       <c r="AA27" s="56"/>
       <c r="AB27" s="56"/>
@@ -5425,27 +5376,32 @@
       <c r="AV27" s="54"/>
       <c r="AW27" s="57"/>
     </row>
-    <row r="28" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D28" s="92"/>
+    <row r="28" spans="1:49" ht="25.05" customHeight="1">
+      <c r="A28" s="88"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="94"/>
       <c r="E28" s="94"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="91"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="43"/>
       <c r="Z28" s="55"/>
       <c r="AA28" s="56"/>
       <c r="AB28" s="56"/>
@@ -5473,27 +5429,31 @@
       <c r="AV28" s="54"/>
       <c r="AW28" s="57"/>
     </row>
-    <row r="29" spans="4:49" ht="25.05" customHeight="1">
-      <c r="D29" s="92"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="49"/>
+    <row r="29" spans="1:49" ht="25.05" customHeight="1">
+      <c r="A29" s="83"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="43"/>
       <c r="Z29" s="55"/>
       <c r="AA29" s="56"/>
       <c r="AB29" s="56"/>
@@ -5519,27 +5479,32 @@
       <c r="AV29" s="54"/>
       <c r="AW29" s="57"/>
     </row>
-    <row r="30" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D30" s="92"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="49"/>
+    <row r="30" spans="1:49" ht="25.05" customHeight="1" thickBot="1">
+      <c r="A30" s="86"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="43"/>
       <c r="Z30" s="55"/>
       <c r="AA30" s="56"/>
       <c r="AB30" s="56"/>
@@ -5565,27 +5530,30 @@
       <c r="AV30" s="54"/>
       <c r="AW30" s="57"/>
     </row>
-    <row r="31" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D31" s="92"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="95"/>
+    <row r="31" spans="1:49" ht="25.05" customHeight="1">
+      <c r="C31" s="83"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
       <c r="J31" s="94"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
       <c r="P31" s="94"/>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="83"/>
-      <c r="W31" s="49"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="43"/>
       <c r="Z31" s="55"/>
       <c r="AA31" s="56"/>
       <c r="AB31" s="56"/>
@@ -5611,27 +5579,30 @@
       <c r="AV31" s="54"/>
       <c r="AW31" s="57"/>
     </row>
-    <row r="32" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D32" s="92"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="83"/>
-      <c r="W32" s="49"/>
+    <row r="32" spans="1:49" ht="25.05" customHeight="1" thickBot="1">
+      <c r="C32" s="86"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="43"/>
       <c r="Z32" s="55"/>
       <c r="AA32" s="56"/>
       <c r="AB32" s="56"/>
@@ -5657,28 +5628,30 @@
       <c r="AV32" s="54"/>
       <c r="AW32" s="57"/>
     </row>
-    <row r="33" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D33" s="92"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="83"/>
-      <c r="W33" s="49"/>
-      <c r="Y33" s="45"/>
+    <row r="33" spans="3:60" ht="25.05" customHeight="1" thickBot="1">
+      <c r="C33" s="42"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="46"/>
       <c r="Z33" s="59"/>
       <c r="AA33" s="60"/>
       <c r="AB33" s="56"/>
@@ -5704,26 +5677,29 @@
       <c r="AV33" s="54"/>
       <c r="AW33" s="57"/>
     </row>
-    <row r="34" spans="4:60" ht="25.05" customHeight="1">
-      <c r="D34" s="40"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="92"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="83"/>
-      <c r="W34" s="49"/>
+    <row r="34" spans="3:60" ht="25.05" customHeight="1">
+      <c r="C34" s="42"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="42"/>
       <c r="Y34" s="62"/>
       <c r="Z34" s="53"/>
       <c r="AA34" s="53"/>
@@ -5750,27 +5726,29 @@
       <c r="AV34" s="54"/>
       <c r="AW34" s="57"/>
     </row>
-    <row r="35" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D35" s="40"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="92"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="83"/>
-      <c r="W35" s="49"/>
+    <row r="35" spans="3:60" ht="25.05" customHeight="1" thickBot="1">
+      <c r="C35" s="42"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="42"/>
       <c r="Y35" s="53"/>
       <c r="Z35" s="53"/>
       <c r="AA35" s="53"/>
@@ -5797,28 +5775,29 @@
       <c r="AV35" s="60"/>
       <c r="AW35" s="61"/>
     </row>
-    <row r="36" spans="4:60" ht="25.05" customHeight="1">
-      <c r="D36" s="40"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="92"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="83"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="40"/>
+    <row r="36" spans="3:60" ht="25.05" customHeight="1">
+      <c r="C36" s="42"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="94"/>
+      <c r="X36" s="42"/>
       <c r="Y36" s="63"/>
       <c r="Z36" s="51"/>
       <c r="AA36" s="51"/>
@@ -5845,28 +5824,30 @@
       <c r="AV36" s="64"/>
       <c r="AW36" s="65"/>
     </row>
-    <row r="37" spans="4:60" ht="25.05" customHeight="1">
-      <c r="D37" s="40"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="92"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="83"/>
-      <c r="W37" s="49"/>
-      <c r="Y37" s="42"/>
+    <row r="37" spans="3:60" ht="25.05" customHeight="1">
+      <c r="C37" s="42"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="94"/>
+      <c r="U37" s="94"/>
+      <c r="V37" s="94"/>
+      <c r="W37" s="94"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="43"/>
       <c r="Z37" s="55"/>
       <c r="AA37" s="56"/>
       <c r="AB37" s="56"/>
@@ -5892,27 +5873,30 @@
       <c r="AV37" s="64"/>
       <c r="AW37" s="65"/>
     </row>
-    <row r="38" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D38" s="40"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="92"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="83"/>
-      <c r="W38" s="49"/>
+    <row r="38" spans="3:60" ht="25.05" customHeight="1">
+      <c r="C38" s="42"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="94"/>
+      <c r="T38" s="94"/>
+      <c r="U38" s="94"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="94"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="43"/>
       <c r="Z38" s="55"/>
       <c r="AA38" s="56"/>
       <c r="AB38" s="56"/>
@@ -5938,27 +5922,30 @@
       <c r="AV38" s="64"/>
       <c r="AW38" s="65"/>
     </row>
-    <row r="39" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D39" s="40"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="42"/>
+    <row r="39" spans="3:60" ht="25.05" customHeight="1">
+      <c r="C39" s="42"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
       <c r="K39" s="94"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="88"/>
-      <c r="W39" s="89"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="94"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="94"/>
+      <c r="T39" s="94"/>
+      <c r="U39" s="94"/>
+      <c r="V39" s="94"/>
+      <c r="W39" s="94"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="43"/>
       <c r="Z39" s="55"/>
       <c r="AA39" s="56"/>
       <c r="AB39" s="56"/>
@@ -5984,27 +5971,30 @@
       <c r="AV39" s="64"/>
       <c r="AW39" s="65"/>
     </row>
-    <row r="40" spans="4:60" ht="25.05" customHeight="1">
-      <c r="D40" s="40"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="43"/>
+    <row r="40" spans="3:60" ht="25.05" customHeight="1">
+      <c r="C40" s="42"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="94"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="43"/>
       <c r="Z40" s="55"/>
       <c r="AA40" s="56"/>
       <c r="AB40" s="56"/>
@@ -6030,27 +6020,30 @@
       <c r="AV40" s="64"/>
       <c r="AW40" s="65"/>
     </row>
-    <row r="41" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D41" s="40"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="43"/>
+    <row r="41" spans="3:60" ht="25.05" customHeight="1">
+      <c r="C41" s="42"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="94"/>
+      <c r="U41" s="94"/>
+      <c r="V41" s="94"/>
+      <c r="W41" s="94"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="43"/>
       <c r="Z41" s="55"/>
       <c r="AA41" s="56"/>
       <c r="AB41" s="56"/>
@@ -6076,27 +6069,30 @@
       <c r="AV41" s="64"/>
       <c r="AW41" s="65"/>
     </row>
-    <row r="42" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D42" s="44"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="85"/>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="85"/>
-      <c r="U42" s="93"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="46"/>
+    <row r="42" spans="3:60" ht="25.05" customHeight="1" thickBot="1">
+      <c r="C42" s="42"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="100"/>
+      <c r="P42" s="100"/>
+      <c r="Q42" s="100"/>
+      <c r="R42" s="100"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
+      <c r="V42" s="100"/>
+      <c r="W42" s="100"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="46"/>
       <c r="Z42" s="55"/>
       <c r="AA42" s="56"/>
       <c r="AB42" s="56"/>
@@ -6122,7 +6118,7 @@
       <c r="AV42" s="64"/>
       <c r="AW42" s="65"/>
     </row>
-    <row r="43" spans="4:60" ht="19.95" customHeight="1">
+    <row r="43" spans="3:60" ht="19.95" customHeight="1">
       <c r="Z43" s="55"/>
       <c r="AA43" s="56"/>
       <c r="AB43" s="56"/>
@@ -6148,7 +6144,7 @@
       <c r="AV43" s="64"/>
       <c r="AW43" s="65"/>
     </row>
-    <row r="44" spans="4:60" ht="19.95" customHeight="1">
+    <row r="44" spans="3:60" ht="19.95" customHeight="1">
       <c r="Z44" s="55"/>
       <c r="AA44" s="56"/>
       <c r="AB44" s="56"/>
@@ -6177,7 +6173,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="4:60" ht="19.95" customHeight="1" thickBot="1">
+    <row r="45" spans="3:60" ht="19.95" customHeight="1" thickBot="1">
       <c r="Z45" s="55"/>
       <c r="AA45" s="56"/>
       <c r="AB45" s="56"/>
@@ -6203,7 +6199,7 @@
       <c r="AV45" s="67"/>
       <c r="AW45" s="68"/>
     </row>
-    <row r="46" spans="4:60" ht="19.95" customHeight="1">
+    <row r="46" spans="3:60" ht="19.95" customHeight="1">
       <c r="Y46" s="42"/>
       <c r="Z46" s="69"/>
       <c r="AA46" s="69"/>
@@ -6227,7 +6223,7 @@
       <c r="AS46" s="69"/>
       <c r="AT46" s="69"/>
     </row>
-    <row r="47" spans="4:60" ht="19.95" customHeight="1">
+    <row r="47" spans="3:60" ht="19.95" customHeight="1">
       <c r="Z47" s="42"/>
       <c r="AA47" s="42"/>
       <c r="AB47" s="42"/>
@@ -6254,7 +6250,7 @@
       <c r="AW47" s="42"/>
       <c r="AX47" s="42"/>
     </row>
-    <row r="48" spans="4:60" ht="19.95" customHeight="1">
+    <row r="48" spans="3:60" ht="19.95" customHeight="1">
       <c r="Z48" s="42"/>
       <c r="AA48" s="42"/>
       <c r="AB48" s="42"/>
@@ -6594,7 +6590,7 @@
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="90" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="7"/>
@@ -6611,7 +6607,7 @@
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -7197,7 +7193,7 @@
     </row>
     <row r="44" spans="1:11" ht="18" customHeight="1">
       <c r="A44" s="5"/>
-      <c r="B44" s="86" t="s">
+      <c r="B44" s="90" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="7"/>
@@ -7214,7 +7210,7 @@
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1">
       <c r="A45" s="5"/>
-      <c r="B45" s="87"/>
+      <c r="B45" s="91"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -8028,7 +8024,7 @@
     </row>
     <row r="95" spans="1:11" ht="18" customHeight="1">
       <c r="A95" s="4"/>
-      <c r="B95" s="86" t="s">
+      <c r="B95" s="90" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="7"/>
@@ -8045,7 +8041,7 @@
     </row>
     <row r="96" spans="1:11" ht="18" customHeight="1">
       <c r="A96" s="4"/>
-      <c r="B96" s="87"/>
+      <c r="B96" s="91"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2189537-EB6F-4FCD-B14B-9B862CE5A6F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AEC974-F768-4256-9B7C-F1DBD2D25A96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="159">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -909,6 +909,30 @@
   </si>
   <si>
     <t>丹野</t>
+  </si>
+  <si>
+    <t>エフェクトの追加</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーティクルの追加</t>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一応エクスプロージョンも追加</t>
+    <rPh sb="0" eb="2">
+      <t>イチオウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2721,7 +2745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3166,14 +3190,21 @@
       <c r="D43" s="63"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="64"/>
+      <c r="B44" s="64" t="s">
+        <v>156</v>
+      </c>
       <c r="D44" s="63"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="64"/>
+      <c r="B45" s="64" t="s">
+        <v>157</v>
+      </c>
       <c r="D45" s="63"/>
     </row>
     <row r="46" spans="2:4">
+      <c r="B46" s="64" t="s">
+        <v>158</v>
+      </c>
       <c r="D46" s="63"/>
     </row>
     <row r="47" spans="2:4">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AEC974-F768-4256-9B7C-F1DBD2D25A96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796DED36-1554-4F6C-B1F9-CFD6F5460F73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="180">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -932,6 +932,188 @@
     <rPh sb="12" eb="14">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>effect.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>particle.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>explosion.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り込み中</t>
+  </si>
+  <si>
+    <t>敵の距離に応じたバイブレーション処理</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の距離に応じた敵の描画処理</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の距離に応じたSEの追加</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトによる明るさ変更</t>
+    <rPh sb="9" eb="10">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが懐中電灯を持ち、正面が明るくなる処理</t>
+    <rPh sb="6" eb="10">
+      <t>カイチュウデントウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player.cpp&amp;&amp;light.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移～悪透用リザルト画面を追加する</t>
+    <rPh sb="5" eb="6">
+      <t>アク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移～透走用リザルト画面を追加する（クリア）</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移～透走用リザルト画面を追加する（ゲームオーバー）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移～逃透用ランキング画面を追加する</t>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移～悪透用ランキング画面を追加する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EscapeClearResult.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EscapeOverResult.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VillainResult.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EscapeRanking.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VillainRanking.cpp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1126,13 +1308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,24 +1928,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1776,7 +1943,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1">
@@ -1910,6 +2077,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2745,15 +2927,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="1.796875" customWidth="1"/>
     <col min="2" max="2" width="70.8984375" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.09765625" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.09765625" style="64" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="62" customWidth="1"/>
     <col min="5" max="5" width="16.296875" style="62" bestFit="1" customWidth="1"/>
   </cols>
@@ -2785,22 +2967,22 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="66"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="117" t="s">
         <v>128</v>
       </c>
       <c r="D5" s="63" t="s">
@@ -2808,10 +2990,10 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="117" t="s">
         <v>129</v>
       </c>
       <c r="D6" s="63" t="s">
@@ -2819,10 +3001,10 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="117" t="s">
         <v>130</v>
       </c>
       <c r="D7" s="63" t="s">
@@ -2830,30 +3012,33 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="117" t="s">
         <v>131</v>
       </c>
       <c r="D8" s="63"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="117" t="s">
         <v>132</v>
       </c>
       <c r="D9" s="63" t="s">
         <v>152</v>
       </c>
+      <c r="E9" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="117" t="s">
         <v>133</v>
       </c>
       <c r="D10" s="63" t="s">
@@ -2861,39 +3046,42 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="117" t="s">
         <v>134</v>
       </c>
       <c r="D11" s="63"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="117" t="s">
         <v>135</v>
       </c>
       <c r="D12" s="63" t="s">
         <v>152</v>
       </c>
+      <c r="E12" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="117" t="s">
         <v>131</v>
       </c>
       <c r="D13" s="63"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="117" t="s">
         <v>136</v>
       </c>
       <c r="D14" s="63" t="s">
@@ -2901,10 +3089,10 @@
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="117" t="s">
         <v>136</v>
       </c>
       <c r="D15" s="63" t="s">
@@ -2912,353 +3100,437 @@
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="117" t="s">
         <v>136</v>
       </c>
       <c r="D16" s="63" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="64" t="s">
+      <c r="E16" s="62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="117" t="s">
         <v>136</v>
       </c>
       <c r="D17" s="63" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="64" t="s">
+    <row r="18" spans="2:5">
+      <c r="B18" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="117" t="s">
         <v>137</v>
       </c>
       <c r="D18" s="63" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="64" t="s">
+    <row r="19" spans="2:5">
+      <c r="B19" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="117" t="s">
         <v>134</v>
       </c>
       <c r="D19" s="63"/>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="64" t="s">
+    <row r="20" spans="2:5">
+      <c r="B20" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="117" t="s">
         <v>138</v>
       </c>
       <c r="D20" s="63" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="64" t="s">
+    <row r="21" spans="2:5">
+      <c r="B21" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="117" t="s">
         <v>139</v>
       </c>
       <c r="D21" s="63" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="64" t="s">
+      <c r="E21" s="62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="117" t="s">
         <v>140</v>
       </c>
       <c r="D22" s="63" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="64" t="s">
+      <c r="E22" s="62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="117" t="s">
         <v>141</v>
       </c>
       <c r="D23" s="63"/>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="64" t="s">
+    <row r="24" spans="2:5">
+      <c r="B24" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="117" t="s">
         <v>142</v>
       </c>
       <c r="D24" s="63" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="64" t="s">
+    <row r="25" spans="2:5">
+      <c r="B25" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="117" t="s">
         <v>137</v>
       </c>
       <c r="D25" s="63" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="64" t="s">
+    <row r="26" spans="2:5">
+      <c r="B26" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="117" t="s">
         <v>143</v>
       </c>
       <c r="D26" s="63"/>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="64" t="s">
+    <row r="27" spans="2:5">
+      <c r="B27" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="117" t="s">
         <v>143</v>
       </c>
       <c r="D27" s="63"/>
     </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="64" t="s">
+    <row r="28" spans="2:5">
+      <c r="B28" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="117" t="s">
         <v>144</v>
       </c>
       <c r="D28" s="63"/>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="64" t="s">
+    <row r="29" spans="2:5">
+      <c r="B29" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="117" t="s">
         <v>144</v>
       </c>
       <c r="D29" s="63"/>
     </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="64" t="s">
+    <row r="30" spans="2:5">
+      <c r="B30" s="116" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="117" t="s">
         <v>138</v>
       </c>
       <c r="D30" s="63" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="64" t="s">
+    <row r="31" spans="2:5">
+      <c r="B31" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="117" t="s">
         <v>138</v>
       </c>
       <c r="D31" s="63" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="64" t="s">
+    <row r="32" spans="2:5">
+      <c r="B32" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="117" t="s">
         <v>138</v>
       </c>
       <c r="D32" s="63"/>
     </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="64" t="s">
+    <row r="33" spans="2:5">
+      <c r="B33" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="118" t="s">
         <v>145</v>
       </c>
       <c r="D33" s="63"/>
     </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="64" t="s">
+    <row r="34" spans="2:5">
+      <c r="B34" s="116" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="117" t="s">
         <v>146</v>
       </c>
       <c r="D34" s="63" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="64" t="s">
+      <c r="E34" s="62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="117" t="s">
         <v>147</v>
       </c>
       <c r="D35" s="63" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="64" t="s">
+    <row r="36" spans="2:5">
+      <c r="B36" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="117" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="63" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="64" t="s">
+    <row r="37" spans="2:5">
+      <c r="B37" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="117" t="s">
         <v>147</v>
       </c>
       <c r="D37" s="63"/>
     </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="64" t="s">
+    <row r="38" spans="2:5">
+      <c r="B38" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="117" t="s">
         <v>148</v>
       </c>
       <c r="D38" s="63"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="64" t="s">
+      <c r="E38" s="62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="117" t="s">
         <v>149</v>
       </c>
       <c r="D39" s="63"/>
     </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="64" t="s">
+    <row r="40" spans="2:5">
+      <c r="B40" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="117" t="s">
         <v>149</v>
       </c>
       <c r="D40" s="63"/>
     </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="64" t="s">
+    <row r="41" spans="2:5">
+      <c r="B41" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="117" t="s">
         <v>150</v>
       </c>
       <c r="D41" s="63"/>
     </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="64" t="s">
+    <row r="42" spans="2:5">
+      <c r="B42" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="117" t="s">
         <v>149</v>
       </c>
       <c r="D42" s="63"/>
     </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="64" t="s">
+    <row r="43" spans="2:5">
+      <c r="B43" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="117" t="s">
         <v>150</v>
       </c>
       <c r="D43" s="63"/>
     </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="64" t="s">
+    <row r="44" spans="2:5">
+      <c r="B44" s="116" t="s">
         <v>156</v>
       </c>
+      <c r="C44" s="117" t="s">
+        <v>159</v>
+      </c>
       <c r="D44" s="63"/>
     </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="64" t="s">
+    <row r="45" spans="2:5">
+      <c r="B45" s="116" t="s">
         <v>157</v>
       </c>
+      <c r="C45" s="64" t="s">
+        <v>160</v>
+      </c>
       <c r="D45" s="63"/>
     </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="64" t="s">
+    <row r="46" spans="2:5">
+      <c r="B46" s="116" t="s">
         <v>158</v>
       </c>
+      <c r="C46" s="64" t="s">
+        <v>161</v>
+      </c>
       <c r="D46" s="63"/>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:5">
+      <c r="B47" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="64" t="s">
+        <v>166</v>
+      </c>
       <c r="D47" s="63"/>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:5">
+      <c r="B48" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="64" t="s">
+        <v>166</v>
+      </c>
       <c r="D48" s="63"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="2:4">
+      <c r="B49" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="64" t="s">
+        <v>166</v>
+      </c>
       <c r="D49" s="63"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="2:4">
+      <c r="B50" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="64" t="s">
+        <v>139</v>
+      </c>
       <c r="D50" s="63"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="2:4">
+      <c r="B51" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>169</v>
+      </c>
       <c r="D51" s="63"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="2:4">
+      <c r="B52" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="64" t="s">
+        <v>175</v>
+      </c>
       <c r="D52" s="63"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="2:4">
+      <c r="B53" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="64" t="s">
+        <v>176</v>
+      </c>
       <c r="D53" s="63"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="2:4">
+      <c r="B54" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="64" t="s">
+        <v>177</v>
+      </c>
       <c r="D54" s="63"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="2:4">
+      <c r="B55" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" s="64" t="s">
+        <v>178</v>
+      </c>
       <c r="D55" s="63"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="2:4">
+      <c r="B56" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="64" t="s">
+        <v>179</v>
+      </c>
       <c r="D56" s="63"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="2:4">
       <c r="D57" s="63"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="2:4">
       <c r="D58" s="63"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="2:4">
       <c r="D59" s="63"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="2:4">
       <c r="D60" s="63"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="2:4">
       <c r="D61" s="63"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="2:4">
       <c r="D62" s="63"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="2:4">
       <c r="D63" s="63"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="2:4">
       <c r="D64" s="63"/>
     </row>
     <row r="65" spans="4:4">
@@ -4619,7 +4891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2938C-A6E3-41DD-BC66-7CDBE357270C}">
   <dimension ref="D1:BH199"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="R37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="A200" sqref="A200:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4961,7 +5233,7 @@
       <c r="AA11" s="42"/>
       <c r="AB11" s="52"/>
       <c r="AC11" s="52"/>
-      <c r="AD11" s="72"/>
+      <c r="AD11" s="67"/>
       <c r="AE11" s="52"/>
       <c r="AF11" s="52"/>
       <c r="AG11" s="52"/>
@@ -4988,7 +5260,7 @@
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
-      <c r="L12" s="78"/>
+      <c r="L12" s="73"/>
       <c r="M12" s="58"/>
       <c r="N12" s="58"/>
       <c r="O12" s="58"/>
@@ -4996,7 +5268,7 @@
       <c r="Q12" s="58"/>
       <c r="R12" s="58"/>
       <c r="S12" s="58"/>
-      <c r="T12" s="79"/>
+      <c r="T12" s="74"/>
       <c r="U12" s="42"/>
       <c r="V12" s="42"/>
       <c r="W12" s="43"/>
@@ -5004,7 +5276,7 @@
       <c r="AA12" s="52"/>
       <c r="AB12" s="52"/>
       <c r="AC12" s="52"/>
-      <c r="AD12" s="72"/>
+      <c r="AD12" s="67"/>
       <c r="AE12" s="42"/>
       <c r="AF12" s="42"/>
       <c r="AH12" s="52"/>
@@ -5026,7 +5298,7 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="78"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
@@ -5069,7 +5341,7 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="73"/>
+      <c r="H14" s="68"/>
       <c r="I14" s="52"/>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
@@ -5112,10 +5384,10 @@
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
-      <c r="H15" s="73"/>
+      <c r="H15" s="68"/>
       <c r="I15" s="52"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
       <c r="L15" s="52"/>
       <c r="M15" s="52"/>
       <c r="N15" s="52"/>
@@ -5155,11 +5427,11 @@
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
-      <c r="H16" s="73"/>
+      <c r="H16" s="68"/>
       <c r="I16" s="49"/>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
-      <c r="L16" s="73"/>
+      <c r="L16" s="68"/>
       <c r="M16" s="52"/>
       <c r="N16" s="52"/>
       <c r="O16" s="52"/>
@@ -5198,11 +5470,11 @@
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
-      <c r="H17" s="73"/>
+      <c r="H17" s="68"/>
       <c r="I17" s="49"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
-      <c r="L17" s="73"/>
+      <c r="L17" s="68"/>
       <c r="M17" s="52"/>
       <c r="N17" s="52"/>
       <c r="O17" s="52"/>
@@ -5241,11 +5513,11 @@
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
-      <c r="H18" s="73"/>
+      <c r="H18" s="68"/>
       <c r="I18" s="49"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
-      <c r="L18" s="73"/>
+      <c r="L18" s="68"/>
       <c r="M18" s="52"/>
       <c r="N18" s="52"/>
       <c r="O18" s="52"/>
@@ -5259,7 +5531,7 @@
       <c r="W18" s="49"/>
       <c r="X18" s="48"/>
       <c r="Y18" s="48"/>
-      <c r="Z18" s="73"/>
+      <c r="Z18" s="68"/>
       <c r="AA18" s="52"/>
       <c r="AB18" s="52"/>
       <c r="AC18" s="52"/>
@@ -5286,32 +5558,32 @@
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
-      <c r="H19" s="73"/>
+      <c r="H19" s="68"/>
       <c r="I19" s="49"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
       <c r="U19" s="52"/>
       <c r="V19" s="52"/>
       <c r="W19" s="49"/>
       <c r="X19" s="48"/>
       <c r="Y19" s="48"/>
-      <c r="Z19" s="73"/>
+      <c r="Z19" s="68"/>
       <c r="AA19" s="52"/>
       <c r="AB19" s="52"/>
       <c r="AC19" s="52"/>
       <c r="AD19" s="52"/>
       <c r="AE19" s="52"/>
-      <c r="AF19" s="72"/>
-      <c r="AG19" s="72"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
       <c r="AH19" s="52"/>
       <c r="AI19" s="52"/>
       <c r="AJ19" s="52"/>
@@ -5331,7 +5603,7 @@
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
-      <c r="H20" s="73"/>
+      <c r="H20" s="68"/>
       <c r="I20" s="49"/>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
@@ -5339,7 +5611,7 @@
       <c r="M20" s="42"/>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
-      <c r="P20" s="73"/>
+      <c r="P20" s="68"/>
       <c r="Q20" s="49"/>
       <c r="R20" s="42"/>
       <c r="S20" s="42"/>
@@ -5354,7 +5626,7 @@
       <c r="AD20" s="42"/>
       <c r="AE20" s="42"/>
       <c r="AF20" s="52"/>
-      <c r="AG20" s="75"/>
+      <c r="AG20" s="70"/>
       <c r="AH20" s="52"/>
       <c r="AI20" s="52"/>
       <c r="AJ20" s="42"/>
@@ -5374,7 +5646,7 @@
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
-      <c r="H21" s="73"/>
+      <c r="H21" s="68"/>
       <c r="I21" s="49"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
@@ -5382,7 +5654,7 @@
       <c r="M21" s="42"/>
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
-      <c r="P21" s="73"/>
+      <c r="P21" s="68"/>
       <c r="Q21" s="49"/>
       <c r="R21" s="42"/>
       <c r="S21" s="42"/>
@@ -5417,16 +5689,16 @@
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="77"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="72"/>
       <c r="J22" s="45"/>
       <c r="K22" s="45"/>
       <c r="L22" s="45"/>
       <c r="M22" s="45"/>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="77"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="72"/>
       <c r="R22" s="45"/>
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
@@ -5435,17 +5707,17 @@
       <c r="W22" s="46"/>
       <c r="Z22" s="44"/>
       <c r="AA22" s="45"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
+      <c r="AB22" s="67"/>
+      <c r="AC22" s="67"/>
       <c r="AD22" s="45"/>
       <c r="AE22" s="45"/>
       <c r="AF22" s="45"/>
       <c r="AG22" s="45"/>
-      <c r="AH22" s="74"/>
-      <c r="AI22" s="74"/>
-      <c r="AJ22" s="74"/>
-      <c r="AK22" s="74"/>
-      <c r="AL22" s="74"/>
+      <c r="AH22" s="69"/>
+      <c r="AI22" s="69"/>
+      <c r="AJ22" s="69"/>
+      <c r="AK22" s="69"/>
+      <c r="AL22" s="69"/>
       <c r="AM22" s="45"/>
       <c r="AN22" s="45"/>
       <c r="AO22" s="45"/>
@@ -5460,7 +5732,7 @@
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
-      <c r="H23" s="73"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="49"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
@@ -5468,7 +5740,7 @@
       <c r="M23" s="42"/>
       <c r="N23" s="42"/>
       <c r="O23" s="42"/>
-      <c r="P23" s="73"/>
+      <c r="P23" s="68"/>
       <c r="Q23" s="49"/>
       <c r="R23" s="42"/>
       <c r="S23" s="42"/>
@@ -5499,15 +5771,15 @@
       <c r="AT23" s="42"/>
     </row>
     <row r="24" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="H24" s="76"/>
-      <c r="I24" s="77"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="77"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="72"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="72"/>
       <c r="AA24" s="47"/>
-      <c r="AH24" s="118"/>
-      <c r="AI24" s="110"/>
-      <c r="AJ24" s="110"/>
-      <c r="AK24" s="118"/>
+      <c r="AH24" s="113"/>
+      <c r="AI24" s="105"/>
+      <c r="AJ24" s="105"/>
+      <c r="AK24" s="113"/>
       <c r="AU24" s="42"/>
       <c r="AV24" s="42"/>
       <c r="AW24" s="42"/>
@@ -5515,15 +5787,15 @@
     <row r="25" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
       <c r="J25" s="38"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="81"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="76"/>
       <c r="O25" s="38"/>
       <c r="P25" s="38"/>
       <c r="Q25" s="38"/>
@@ -5532,31 +5804,31 @@
       <c r="T25" s="58"/>
       <c r="U25" s="58"/>
       <c r="V25" s="58"/>
-      <c r="W25" s="79"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="87"/>
-      <c r="AB25" s="88"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="90"/>
-      <c r="AE25" s="91"/>
-      <c r="AF25" s="91"/>
-      <c r="AG25" s="91"/>
+      <c r="W25" s="74"/>
+      <c r="Z25" s="81"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="83"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="85"/>
+      <c r="AE25" s="86"/>
+      <c r="AF25" s="86"/>
+      <c r="AG25" s="86"/>
       <c r="AH25" s="42"/>
-      <c r="AI25" s="95"/>
-      <c r="AJ25" s="95"/>
+      <c r="AI25" s="90"/>
+      <c r="AJ25" s="90"/>
       <c r="AK25" s="42"/>
-      <c r="AL25" s="91"/>
-      <c r="AM25" s="91"/>
-      <c r="AN25" s="91"/>
-      <c r="AO25" s="91"/>
-      <c r="AP25" s="91"/>
-      <c r="AQ25" s="91"/>
-      <c r="AR25" s="91"/>
-      <c r="AS25" s="91"/>
-      <c r="AT25" s="92"/>
-      <c r="AU25" s="114"/>
-      <c r="AV25" s="115"/>
-      <c r="AW25" s="115"/>
+      <c r="AL25" s="86"/>
+      <c r="AM25" s="86"/>
+      <c r="AN25" s="86"/>
+      <c r="AO25" s="86"/>
+      <c r="AP25" s="86"/>
+      <c r="AQ25" s="86"/>
+      <c r="AR25" s="86"/>
+      <c r="AS25" s="86"/>
+      <c r="AT25" s="87"/>
+      <c r="AU25" s="109"/>
+      <c r="AV25" s="110"/>
+      <c r="AW25" s="110"/>
     </row>
     <row r="26" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
       <c r="D26" s="40"/>
@@ -5581,18 +5853,18 @@
       <c r="U26" s="42"/>
       <c r="V26" s="42"/>
       <c r="W26" s="43"/>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="94"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="89"/>
       <c r="AB26" s="52"/>
       <c r="AC26" s="49"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="95"/>
-      <c r="AF26" s="95"/>
-      <c r="AG26" s="95"/>
-      <c r="AH26" s="95"/>
-      <c r="AI26" s="95"/>
-      <c r="AJ26" s="95"/>
-      <c r="AK26" s="96"/>
+      <c r="AD26" s="90"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="90"/>
+      <c r="AG26" s="90"/>
+      <c r="AH26" s="90"/>
+      <c r="AI26" s="90"/>
+      <c r="AJ26" s="90"/>
+      <c r="AK26" s="91"/>
       <c r="AL26" s="50"/>
       <c r="AM26" s="50"/>
       <c r="AN26" s="50"/>
@@ -5600,16 +5872,16 @@
       <c r="AP26" s="50"/>
       <c r="AQ26" s="50"/>
       <c r="AR26" s="51"/>
-      <c r="AS26" s="95"/>
-      <c r="AT26" s="97"/>
-      <c r="AU26" s="114"/>
-      <c r="AV26" s="115"/>
-      <c r="AW26" s="115"/>
+      <c r="AS26" s="90"/>
+      <c r="AT26" s="92"/>
+      <c r="AU26" s="109"/>
+      <c r="AV26" s="110"/>
+      <c r="AW26" s="110"/>
     </row>
     <row r="27" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
       <c r="D27" s="40"/>
       <c r="E27" s="42"/>
-      <c r="F27" s="77"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
       <c r="I27" s="42"/>
@@ -5627,18 +5899,18 @@
       <c r="U27" s="42"/>
       <c r="V27" s="42"/>
       <c r="W27" s="43"/>
-      <c r="Z27" s="98"/>
+      <c r="Z27" s="93"/>
       <c r="AA27" s="58"/>
       <c r="AB27" s="52"/>
       <c r="AC27" s="49"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="95"/>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="95"/>
-      <c r="AJ27" s="95"/>
-      <c r="AK27" s="96"/>
+      <c r="AD27" s="90"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="90"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="90"/>
+      <c r="AK27" s="91"/>
       <c r="AL27" s="53"/>
       <c r="AM27" s="53"/>
       <c r="AN27" s="53"/>
@@ -5646,16 +5918,16 @@
       <c r="AP27" s="53"/>
       <c r="AQ27" s="53"/>
       <c r="AR27" s="54"/>
-      <c r="AS27" s="95"/>
-      <c r="AT27" s="97"/>
-      <c r="AU27" s="114"/>
-      <c r="AV27" s="115"/>
-      <c r="AW27" s="115"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="92"/>
+      <c r="AU27" s="109"/>
+      <c r="AV27" s="110"/>
+      <c r="AW27" s="110"/>
     </row>
     <row r="28" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D28" s="80"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="70"/>
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
@@ -5671,20 +5943,20 @@
       <c r="S28" s="42"/>
       <c r="T28" s="42"/>
       <c r="U28" s="42"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="79"/>
-      <c r="Z28" s="99"/>
-      <c r="AA28" s="72"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="74"/>
+      <c r="Z28" s="94"/>
+      <c r="AA28" s="67"/>
       <c r="AB28" s="52"/>
       <c r="AC28" s="49"/>
-      <c r="AD28" s="100"/>
-      <c r="AE28" s="101"/>
-      <c r="AF28" s="101"/>
-      <c r="AG28" s="101"/>
-      <c r="AH28" s="101"/>
-      <c r="AI28" s="101"/>
-      <c r="AJ28" s="101"/>
-      <c r="AK28" s="94"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="96"/>
+      <c r="AF28" s="96"/>
+      <c r="AG28" s="96"/>
+      <c r="AH28" s="96"/>
+      <c r="AI28" s="96"/>
+      <c r="AJ28" s="96"/>
+      <c r="AK28" s="89"/>
       <c r="AL28" s="53"/>
       <c r="AM28" s="53"/>
       <c r="AN28" s="53"/>
@@ -5692,14 +5964,14 @@
       <c r="AP28" s="53"/>
       <c r="AQ28" s="53"/>
       <c r="AR28" s="54"/>
-      <c r="AS28" s="95"/>
-      <c r="AT28" s="97"/>
-      <c r="AU28" s="114"/>
-      <c r="AV28" s="115"/>
-      <c r="AW28" s="115"/>
+      <c r="AS28" s="90"/>
+      <c r="AT28" s="92"/>
+      <c r="AU28" s="109"/>
+      <c r="AV28" s="110"/>
+      <c r="AW28" s="110"/>
     </row>
     <row r="29" spans="4:49" ht="25.05" customHeight="1">
-      <c r="D29" s="80"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -5717,12 +5989,12 @@
       <c r="S29" s="42"/>
       <c r="T29" s="42"/>
       <c r="U29" s="42"/>
-      <c r="V29" s="73"/>
+      <c r="V29" s="68"/>
       <c r="W29" s="49"/>
-      <c r="Z29" s="102"/>
-      <c r="AA29" s="96"/>
+      <c r="Z29" s="97"/>
+      <c r="AA29" s="91"/>
       <c r="AB29" s="52"/>
-      <c r="AC29" s="103" t="s">
+      <c r="AC29" s="98" t="s">
         <v>85</v>
       </c>
       <c r="AD29" s="52"/>
@@ -5740,14 +6012,14 @@
       <c r="AP29" s="53"/>
       <c r="AQ29" s="53"/>
       <c r="AR29" s="54"/>
-      <c r="AS29" s="95"/>
-      <c r="AT29" s="97"/>
-      <c r="AU29" s="114"/>
-      <c r="AV29" s="115"/>
-      <c r="AW29" s="115"/>
+      <c r="AS29" s="90"/>
+      <c r="AT29" s="92"/>
+      <c r="AU29" s="109"/>
+      <c r="AV29" s="110"/>
+      <c r="AW29" s="110"/>
     </row>
     <row r="30" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D30" s="80"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -5765,18 +6037,18 @@
       <c r="S30" s="42"/>
       <c r="T30" s="42"/>
       <c r="U30" s="42"/>
-      <c r="V30" s="73"/>
+      <c r="V30" s="68"/>
       <c r="W30" s="49"/>
-      <c r="Z30" s="102"/>
-      <c r="AA30" s="96"/>
+      <c r="Z30" s="97"/>
+      <c r="AA30" s="91"/>
       <c r="AB30" s="52"/>
       <c r="AC30" s="52"/>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="72"/>
-      <c r="AF30" s="72"/>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="72"/>
-      <c r="AI30" s="72"/>
+      <c r="AD30" s="67"/>
+      <c r="AE30" s="67"/>
+      <c r="AF30" s="67"/>
+      <c r="AG30" s="67"/>
+      <c r="AH30" s="67"/>
+      <c r="AI30" s="67"/>
       <c r="AJ30" s="52"/>
       <c r="AK30" s="52"/>
       <c r="AL30" s="53"/>
@@ -5786,35 +6058,35 @@
       <c r="AP30" s="53"/>
       <c r="AQ30" s="53"/>
       <c r="AR30" s="54"/>
-      <c r="AS30" s="95"/>
-      <c r="AT30" s="97"/>
-      <c r="AU30" s="114"/>
-      <c r="AV30" s="115"/>
-      <c r="AW30" s="115"/>
+      <c r="AS30" s="90"/>
+      <c r="AT30" s="92"/>
+      <c r="AU30" s="109"/>
+      <c r="AV30" s="110"/>
+      <c r="AW30" s="110"/>
     </row>
     <row r="31" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D31" s="80"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="83"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="81"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="76"/>
       <c r="N31" s="42"/>
       <c r="O31" s="42"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="75"/>
-      <c r="S31" s="75"/>
-      <c r="T31" s="75"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="70"/>
       <c r="U31" s="42"/>
-      <c r="V31" s="73"/>
+      <c r="V31" s="68"/>
       <c r="W31" s="49"/>
-      <c r="Z31" s="102"/>
-      <c r="AA31" s="96"/>
+      <c r="Z31" s="97"/>
+      <c r="AA31" s="91"/>
       <c r="AB31" s="52"/>
       <c r="AC31" s="49"/>
       <c r="AD31" s="52"/>
@@ -5832,19 +6104,19 @@
       <c r="AP31" s="53"/>
       <c r="AQ31" s="53"/>
       <c r="AR31" s="54"/>
-      <c r="AS31" s="95"/>
-      <c r="AT31" s="97"/>
-      <c r="AU31" s="114"/>
-      <c r="AV31" s="115"/>
-      <c r="AW31" s="115"/>
+      <c r="AS31" s="90"/>
+      <c r="AT31" s="92"/>
+      <c r="AU31" s="109"/>
+      <c r="AV31" s="110"/>
+      <c r="AW31" s="110"/>
     </row>
     <row r="32" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D32" s="80"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="80"/>
+      <c r="G32" s="75"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="80"/>
+      <c r="I32" s="75"/>
       <c r="J32" s="42"/>
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
@@ -5855,42 +6127,42 @@
       <c r="Q32" s="42"/>
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
-      <c r="T32" s="83"/>
+      <c r="T32" s="78"/>
       <c r="U32" s="42"/>
-      <c r="V32" s="73"/>
+      <c r="V32" s="68"/>
       <c r="W32" s="49"/>
-      <c r="Z32" s="102"/>
-      <c r="AA32" s="96"/>
+      <c r="Z32" s="97"/>
+      <c r="AA32" s="91"/>
       <c r="AB32" s="52"/>
       <c r="AC32" s="49"/>
       <c r="AD32" s="52"/>
       <c r="AE32" s="52"/>
       <c r="AF32" s="52"/>
-      <c r="AG32" s="72"/>
-      <c r="AH32" s="72"/>
-      <c r="AI32" s="72"/>
+      <c r="AG32" s="67"/>
+      <c r="AH32" s="67"/>
+      <c r="AI32" s="67"/>
       <c r="AJ32" s="52"/>
       <c r="AK32" s="49"/>
-      <c r="AL32" s="104"/>
-      <c r="AM32" s="105"/>
+      <c r="AL32" s="99"/>
+      <c r="AM32" s="100"/>
       <c r="AN32" s="53"/>
       <c r="AO32" s="54"/>
-      <c r="AP32" s="106"/>
-      <c r="AQ32" s="106"/>
-      <c r="AR32" s="105"/>
-      <c r="AS32" s="95"/>
-      <c r="AT32" s="97"/>
-      <c r="AU32" s="114"/>
-      <c r="AV32" s="115"/>
-      <c r="AW32" s="115"/>
+      <c r="AP32" s="101"/>
+      <c r="AQ32" s="101"/>
+      <c r="AR32" s="100"/>
+      <c r="AS32" s="90"/>
+      <c r="AT32" s="92"/>
+      <c r="AU32" s="109"/>
+      <c r="AV32" s="110"/>
+      <c r="AW32" s="110"/>
     </row>
     <row r="33" spans="4:60" ht="25.05" customHeight="1">
-      <c r="D33" s="80"/>
-      <c r="E33" s="79"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="74"/>
       <c r="F33" s="42"/>
-      <c r="G33" s="80"/>
+      <c r="G33" s="75"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="80"/>
+      <c r="I33" s="75"/>
       <c r="J33" s="42"/>
       <c r="K33" s="42"/>
       <c r="L33" s="42"/>
@@ -5901,13 +6173,13 @@
       <c r="Q33" s="42"/>
       <c r="R33" s="42"/>
       <c r="S33" s="42"/>
-      <c r="T33" s="80"/>
+      <c r="T33" s="75"/>
       <c r="U33" s="42"/>
-      <c r="V33" s="73"/>
+      <c r="V33" s="68"/>
       <c r="W33" s="49"/>
-      <c r="Y33" s="117"/>
-      <c r="Z33" s="102"/>
-      <c r="AA33" s="96"/>
+      <c r="Y33" s="112"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="91"/>
       <c r="AB33" s="52"/>
       <c r="AC33" s="49"/>
       <c r="AD33" s="52"/>
@@ -5925,19 +6197,19 @@
       <c r="AP33" s="53"/>
       <c r="AQ33" s="53"/>
       <c r="AR33" s="54"/>
-      <c r="AS33" s="95"/>
-      <c r="AT33" s="97"/>
-      <c r="AU33" s="114"/>
-      <c r="AV33" s="115"/>
-      <c r="AW33" s="115"/>
+      <c r="AS33" s="90"/>
+      <c r="AT33" s="92"/>
+      <c r="AU33" s="109"/>
+      <c r="AV33" s="110"/>
+      <c r="AW33" s="110"/>
     </row>
     <row r="34" spans="4:60" ht="25.05" customHeight="1">
       <c r="D34" s="40"/>
       <c r="E34" s="49"/>
       <c r="F34" s="42"/>
-      <c r="G34" s="80"/>
+      <c r="G34" s="75"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="80"/>
+      <c r="I34" s="75"/>
       <c r="J34" s="42"/>
       <c r="L34" s="42"/>
       <c r="M34" s="42"/>
@@ -5947,16 +6219,16 @@
       <c r="Q34" s="42"/>
       <c r="R34" s="42"/>
       <c r="S34" s="42"/>
-      <c r="T34" s="80"/>
+      <c r="T34" s="75"/>
       <c r="U34" s="42"/>
-      <c r="V34" s="73"/>
+      <c r="V34" s="68"/>
       <c r="W34" s="49"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="102"/>
-      <c r="AA34" s="96"/>
+      <c r="Y34" s="90"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="91"/>
       <c r="AB34" s="52"/>
       <c r="AC34" s="49"/>
-      <c r="AD34" s="73"/>
+      <c r="AD34" s="68"/>
       <c r="AE34" s="49"/>
       <c r="AF34" s="53"/>
       <c r="AG34" s="53"/>
@@ -5971,19 +6243,19 @@
       <c r="AP34" s="53"/>
       <c r="AQ34" s="53"/>
       <c r="AR34" s="54"/>
-      <c r="AS34" s="95"/>
-      <c r="AT34" s="97"/>
-      <c r="AU34" s="114"/>
-      <c r="AV34" s="115"/>
-      <c r="AW34" s="115"/>
+      <c r="AS34" s="90"/>
+      <c r="AT34" s="92"/>
+      <c r="AU34" s="109"/>
+      <c r="AV34" s="110"/>
+      <c r="AW34" s="110"/>
     </row>
     <row r="35" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D35" s="40"/>
       <c r="E35" s="49"/>
       <c r="F35" s="42"/>
-      <c r="G35" s="80"/>
+      <c r="G35" s="75"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="80"/>
+      <c r="I35" s="75"/>
       <c r="J35" s="42"/>
       <c r="K35" s="42"/>
       <c r="L35" s="42"/>
@@ -5994,16 +6266,16 @@
       <c r="Q35" s="42"/>
       <c r="R35" s="42"/>
       <c r="S35" s="42"/>
-      <c r="T35" s="80"/>
+      <c r="T35" s="75"/>
       <c r="U35" s="42"/>
-      <c r="V35" s="73"/>
+      <c r="V35" s="68"/>
       <c r="W35" s="49"/>
-      <c r="Y35" s="97"/>
-      <c r="Z35" s="102"/>
-      <c r="AA35" s="96"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="97"/>
+      <c r="AA35" s="91"/>
       <c r="AB35" s="52"/>
       <c r="AC35" s="49"/>
-      <c r="AD35" s="73"/>
+      <c r="AD35" s="68"/>
       <c r="AE35" s="49"/>
       <c r="AF35" s="56"/>
       <c r="AG35" s="56"/>
@@ -6018,19 +6290,19 @@
       <c r="AP35" s="53"/>
       <c r="AQ35" s="53"/>
       <c r="AR35" s="54"/>
-      <c r="AS35" s="95"/>
-      <c r="AT35" s="97"/>
-      <c r="AU35" s="116"/>
-      <c r="AV35" s="115"/>
-      <c r="AW35" s="115"/>
+      <c r="AS35" s="90"/>
+      <c r="AT35" s="92"/>
+      <c r="AU35" s="111"/>
+      <c r="AV35" s="110"/>
+      <c r="AW35" s="110"/>
     </row>
     <row r="36" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D36" s="40"/>
       <c r="E36" s="49"/>
       <c r="F36" s="42"/>
-      <c r="G36" s="80"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="80"/>
+      <c r="I36" s="75"/>
       <c r="J36" s="42"/>
       <c r="K36" s="42"/>
       <c r="L36" s="42"/>
@@ -6041,15 +6313,15 @@
       <c r="Q36" s="42"/>
       <c r="R36" s="42"/>
       <c r="S36" s="42"/>
-      <c r="T36" s="80"/>
+      <c r="T36" s="75"/>
       <c r="U36" s="42"/>
-      <c r="V36" s="73"/>
+      <c r="V36" s="68"/>
       <c r="W36" s="49"/>
       <c r="X36" s="40"/>
-      <c r="Y36" s="95"/>
-      <c r="Z36" s="102"/>
-      <c r="AA36" s="96"/>
-      <c r="AB36" s="73"/>
+      <c r="Y36" s="90"/>
+      <c r="Z36" s="97"/>
+      <c r="AA36" s="91"/>
+      <c r="AB36" s="68"/>
       <c r="AC36" s="52"/>
       <c r="AD36" s="52"/>
       <c r="AE36" s="52"/>
@@ -6066,19 +6338,19 @@
       <c r="AP36" s="56"/>
       <c r="AQ36" s="53"/>
       <c r="AR36" s="57"/>
-      <c r="AS36" s="95"/>
-      <c r="AT36" s="97"/>
-      <c r="AU36" s="114"/>
-      <c r="AV36" s="115"/>
-      <c r="AW36" s="115"/>
+      <c r="AS36" s="90"/>
+      <c r="AT36" s="92"/>
+      <c r="AU36" s="109"/>
+      <c r="AV36" s="110"/>
+      <c r="AW36" s="110"/>
     </row>
     <row r="37" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D37" s="40"/>
       <c r="E37" s="49"/>
       <c r="F37" s="42"/>
-      <c r="G37" s="80"/>
+      <c r="G37" s="75"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="80"/>
+      <c r="I37" s="75"/>
       <c r="J37" s="42"/>
       <c r="K37" s="42"/>
       <c r="L37" s="42"/>
@@ -6089,43 +6361,43 @@
       <c r="Q37" s="42"/>
       <c r="R37" s="42"/>
       <c r="S37" s="42"/>
-      <c r="T37" s="80"/>
+      <c r="T37" s="75"/>
       <c r="U37" s="42"/>
-      <c r="V37" s="73"/>
+      <c r="V37" s="68"/>
       <c r="W37" s="49"/>
       <c r="Y37" s="42"/>
-      <c r="Z37" s="102"/>
-      <c r="AA37" s="96"/>
-      <c r="AB37" s="76"/>
-      <c r="AC37" s="72"/>
-      <c r="AD37" s="72"/>
-      <c r="AE37" s="72"/>
-      <c r="AF37" s="72"/>
+      <c r="Z37" s="97"/>
+      <c r="AA37" s="91"/>
+      <c r="AB37" s="71"/>
+      <c r="AC37" s="67"/>
+      <c r="AD37" s="67"/>
+      <c r="AE37" s="67"/>
+      <c r="AF37" s="67"/>
       <c r="AG37" s="52"/>
       <c r="AH37" s="52"/>
-      <c r="AI37" s="72"/>
-      <c r="AJ37" s="72"/>
-      <c r="AK37" s="77"/>
-      <c r="AL37" s="107"/>
+      <c r="AI37" s="67"/>
+      <c r="AJ37" s="67"/>
+      <c r="AK37" s="72"/>
+      <c r="AL37" s="102"/>
       <c r="AM37" s="59"/>
       <c r="AN37" s="53"/>
       <c r="AO37" s="53"/>
       <c r="AP37" s="53"/>
       <c r="AQ37" s="53"/>
       <c r="AR37" s="54"/>
-      <c r="AS37" s="95"/>
-      <c r="AT37" s="97"/>
-      <c r="AU37" s="115"/>
-      <c r="AV37" s="115"/>
-      <c r="AW37" s="115"/>
+      <c r="AS37" s="90"/>
+      <c r="AT37" s="92"/>
+      <c r="AU37" s="110"/>
+      <c r="AV37" s="110"/>
+      <c r="AW37" s="110"/>
     </row>
     <row r="38" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D38" s="40"/>
       <c r="E38" s="49"/>
       <c r="F38" s="42"/>
-      <c r="G38" s="80"/>
+      <c r="G38" s="75"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="80"/>
+      <c r="I38" s="75"/>
       <c r="J38" s="42"/>
       <c r="K38" s="42"/>
       <c r="L38" s="42"/>
@@ -6136,80 +6408,80 @@
       <c r="Q38" s="42"/>
       <c r="R38" s="42"/>
       <c r="S38" s="42"/>
-      <c r="T38" s="80"/>
+      <c r="T38" s="75"/>
       <c r="U38" s="42"/>
-      <c r="V38" s="73"/>
+      <c r="V38" s="68"/>
       <c r="W38" s="49"/>
-      <c r="Z38" s="102"/>
-      <c r="AA38" s="95"/>
-      <c r="AB38" s="95"/>
-      <c r="AC38" s="95"/>
-      <c r="AD38" s="95"/>
-      <c r="AE38" s="95"/>
+      <c r="Z38" s="97"/>
+      <c r="AA38" s="90"/>
+      <c r="AB38" s="90"/>
+      <c r="AC38" s="90"/>
+      <c r="AD38" s="90"/>
+      <c r="AE38" s="90"/>
       <c r="AF38" s="59"/>
       <c r="AG38" s="53"/>
       <c r="AH38" s="53"/>
       <c r="AI38" s="53"/>
       <c r="AJ38" s="53"/>
       <c r="AK38" s="54"/>
-      <c r="AL38" s="108"/>
-      <c r="AM38" s="96"/>
+      <c r="AL38" s="103"/>
+      <c r="AM38" s="91"/>
       <c r="AN38" s="53"/>
       <c r="AO38" s="53"/>
       <c r="AP38" s="53"/>
       <c r="AQ38" s="53"/>
       <c r="AR38" s="54"/>
-      <c r="AS38" s="95"/>
-      <c r="AT38" s="97"/>
-      <c r="AU38" s="115"/>
-      <c r="AV38" s="115"/>
-      <c r="AW38" s="115"/>
+      <c r="AS38" s="90"/>
+      <c r="AT38" s="92"/>
+      <c r="AU38" s="110"/>
+      <c r="AV38" s="110"/>
+      <c r="AW38" s="110"/>
     </row>
     <row r="39" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D39" s="40"/>
       <c r="E39" s="49"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="84"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="79"/>
       <c r="J39" s="42"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="81"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="76"/>
       <c r="R39" s="42"/>
-      <c r="S39" s="84"/>
-      <c r="T39" s="84"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="79"/>
       <c r="U39" s="42"/>
-      <c r="V39" s="76"/>
-      <c r="W39" s="77"/>
-      <c r="Z39" s="102"/>
-      <c r="AA39" s="95"/>
-      <c r="AB39" s="95"/>
-      <c r="AC39" s="95"/>
-      <c r="AD39" s="95"/>
-      <c r="AE39" s="95"/>
-      <c r="AF39" s="96"/>
+      <c r="V39" s="71"/>
+      <c r="W39" s="72"/>
+      <c r="Z39" s="97"/>
+      <c r="AA39" s="90"/>
+      <c r="AB39" s="90"/>
+      <c r="AC39" s="90"/>
+      <c r="AD39" s="90"/>
+      <c r="AE39" s="90"/>
+      <c r="AF39" s="91"/>
       <c r="AG39" s="53"/>
       <c r="AH39" s="53"/>
       <c r="AI39" s="53"/>
       <c r="AJ39" s="53"/>
       <c r="AK39" s="54"/>
-      <c r="AL39" s="108"/>
-      <c r="AM39" s="96"/>
+      <c r="AL39" s="103"/>
+      <c r="AM39" s="91"/>
       <c r="AN39" s="53"/>
       <c r="AO39" s="53"/>
       <c r="AP39" s="53"/>
       <c r="AQ39" s="53"/>
       <c r="AR39" s="54"/>
-      <c r="AS39" s="95"/>
-      <c r="AT39" s="97"/>
-      <c r="AU39" s="115"/>
-      <c r="AV39" s="115"/>
-      <c r="AW39" s="115"/>
+      <c r="AS39" s="90"/>
+      <c r="AT39" s="92"/>
+      <c r="AU39" s="110"/>
+      <c r="AV39" s="110"/>
+      <c r="AW39" s="110"/>
     </row>
     <row r="40" spans="4:60" ht="25.05" customHeight="1">
       <c r="D40" s="40"/>
@@ -6232,30 +6504,30 @@
       <c r="U40" s="42"/>
       <c r="V40" s="42"/>
       <c r="W40" s="43"/>
-      <c r="Z40" s="102"/>
-      <c r="AA40" s="95"/>
-      <c r="AB40" s="95"/>
-      <c r="AC40" s="95"/>
-      <c r="AD40" s="95"/>
-      <c r="AE40" s="95"/>
-      <c r="AF40" s="96"/>
+      <c r="Z40" s="97"/>
+      <c r="AA40" s="90"/>
+      <c r="AB40" s="90"/>
+      <c r="AC40" s="90"/>
+      <c r="AD40" s="90"/>
+      <c r="AE40" s="90"/>
+      <c r="AF40" s="91"/>
       <c r="AG40" s="53"/>
       <c r="AH40" s="53"/>
       <c r="AI40" s="53"/>
       <c r="AJ40" s="53"/>
       <c r="AK40" s="54"/>
-      <c r="AL40" s="108"/>
-      <c r="AM40" s="96"/>
+      <c r="AL40" s="103"/>
+      <c r="AM40" s="91"/>
       <c r="AN40" s="53"/>
       <c r="AO40" s="53"/>
       <c r="AP40" s="53"/>
       <c r="AQ40" s="53"/>
       <c r="AR40" s="54"/>
-      <c r="AS40" s="95"/>
-      <c r="AT40" s="97"/>
-      <c r="AU40" s="115"/>
-      <c r="AV40" s="115"/>
-      <c r="AW40" s="115"/>
+      <c r="AS40" s="90"/>
+      <c r="AT40" s="92"/>
+      <c r="AU40" s="110"/>
+      <c r="AV40" s="110"/>
+      <c r="AW40" s="110"/>
     </row>
     <row r="41" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D41" s="40"/>
@@ -6278,140 +6550,140 @@
       <c r="U41" s="42"/>
       <c r="V41" s="42"/>
       <c r="W41" s="43"/>
-      <c r="Z41" s="102"/>
-      <c r="AA41" s="95"/>
-      <c r="AB41" s="95"/>
-      <c r="AC41" s="95"/>
-      <c r="AD41" s="95"/>
-      <c r="AE41" s="95"/>
-      <c r="AF41" s="96"/>
+      <c r="Z41" s="97"/>
+      <c r="AA41" s="90"/>
+      <c r="AB41" s="90"/>
+      <c r="AC41" s="90"/>
+      <c r="AD41" s="90"/>
+      <c r="AE41" s="90"/>
+      <c r="AF41" s="91"/>
       <c r="AG41" s="53"/>
       <c r="AH41" s="53"/>
       <c r="AI41" s="53"/>
       <c r="AJ41" s="53"/>
       <c r="AK41" s="54"/>
-      <c r="AL41" s="108"/>
-      <c r="AM41" s="96"/>
+      <c r="AL41" s="103"/>
+      <c r="AM41" s="91"/>
       <c r="AN41" s="53"/>
       <c r="AO41" s="53"/>
       <c r="AP41" s="53"/>
       <c r="AQ41" s="53"/>
       <c r="AR41" s="54"/>
-      <c r="AS41" s="95"/>
-      <c r="AT41" s="97"/>
-      <c r="AU41" s="115"/>
-      <c r="AV41" s="115"/>
-      <c r="AW41" s="115"/>
+      <c r="AS41" s="90"/>
+      <c r="AT41" s="92"/>
+      <c r="AU41" s="110"/>
+      <c r="AV41" s="110"/>
+      <c r="AW41" s="110"/>
     </row>
     <row r="42" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
       <c r="D42" s="44"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="75"/>
-      <c r="S42" s="75"/>
-      <c r="T42" s="75"/>
-      <c r="U42" s="81"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="70"/>
+      <c r="U42" s="76"/>
       <c r="V42" s="45"/>
       <c r="W42" s="46"/>
-      <c r="Z42" s="102"/>
-      <c r="AA42" s="95"/>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="95"/>
-      <c r="AD42" s="95"/>
-      <c r="AE42" s="95"/>
-      <c r="AF42" s="96"/>
+      <c r="Z42" s="97"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="90"/>
+      <c r="AC42" s="90"/>
+      <c r="AD42" s="90"/>
+      <c r="AE42" s="90"/>
+      <c r="AF42" s="91"/>
       <c r="AG42" s="53"/>
       <c r="AH42" s="53"/>
       <c r="AI42" s="53"/>
       <c r="AJ42" s="53"/>
       <c r="AK42" s="54"/>
-      <c r="AL42" s="108"/>
-      <c r="AM42" s="96"/>
+      <c r="AL42" s="103"/>
+      <c r="AM42" s="91"/>
       <c r="AN42" s="53"/>
       <c r="AO42" s="53"/>
       <c r="AP42" s="53"/>
       <c r="AQ42" s="53"/>
       <c r="AR42" s="54"/>
-      <c r="AS42" s="95"/>
-      <c r="AT42" s="97"/>
-      <c r="AU42" s="115"/>
-      <c r="AV42" s="115"/>
-      <c r="AW42" s="115"/>
+      <c r="AS42" s="90"/>
+      <c r="AT42" s="92"/>
+      <c r="AU42" s="110"/>
+      <c r="AV42" s="110"/>
+      <c r="AW42" s="110"/>
     </row>
     <row r="43" spans="4:60" ht="19.95" customHeight="1">
-      <c r="Z43" s="102"/>
-      <c r="AA43" s="95"/>
-      <c r="AB43" s="95"/>
-      <c r="AC43" s="95"/>
-      <c r="AD43" s="95"/>
-      <c r="AE43" s="95"/>
-      <c r="AF43" s="96"/>
+      <c r="Z43" s="97"/>
+      <c r="AA43" s="90"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="90"/>
+      <c r="AD43" s="90"/>
+      <c r="AE43" s="90"/>
+      <c r="AF43" s="91"/>
       <c r="AG43" s="53"/>
       <c r="AH43" s="53"/>
       <c r="AI43" s="53"/>
       <c r="AJ43" s="53"/>
       <c r="AK43" s="54"/>
-      <c r="AL43" s="108"/>
-      <c r="AM43" s="96"/>
+      <c r="AL43" s="103"/>
+      <c r="AM43" s="91"/>
       <c r="AN43" s="53"/>
       <c r="AO43" s="53"/>
       <c r="AP43" s="53"/>
       <c r="AQ43" s="53"/>
       <c r="AR43" s="54"/>
-      <c r="AS43" s="95"/>
-      <c r="AT43" s="97"/>
-      <c r="AU43" s="115"/>
-      <c r="AV43" s="115"/>
-      <c r="AW43" s="115"/>
+      <c r="AS43" s="90"/>
+      <c r="AT43" s="92"/>
+      <c r="AU43" s="110"/>
+      <c r="AV43" s="110"/>
+      <c r="AW43" s="110"/>
     </row>
     <row r="44" spans="4:60" ht="19.95" customHeight="1" thickBot="1">
-      <c r="Z44" s="102"/>
-      <c r="AA44" s="95"/>
-      <c r="AB44" s="95"/>
-      <c r="AC44" s="95"/>
-      <c r="AD44" s="95"/>
-      <c r="AE44" s="95"/>
-      <c r="AF44" s="96"/>
+      <c r="Z44" s="97"/>
+      <c r="AA44" s="90"/>
+      <c r="AB44" s="90"/>
+      <c r="AC44" s="90"/>
+      <c r="AD44" s="90"/>
+      <c r="AE44" s="90"/>
+      <c r="AF44" s="91"/>
       <c r="AG44" s="53"/>
       <c r="AH44" s="53"/>
       <c r="AI44" s="53"/>
       <c r="AJ44" s="53"/>
       <c r="AK44" s="54"/>
-      <c r="AL44" s="100"/>
-      <c r="AM44" s="94"/>
+      <c r="AL44" s="95"/>
+      <c r="AM44" s="89"/>
       <c r="AN44" s="53"/>
       <c r="AO44" s="53"/>
       <c r="AP44" s="53"/>
       <c r="AQ44" s="53"/>
       <c r="AR44" s="54"/>
-      <c r="AS44" s="95"/>
-      <c r="AT44" s="97"/>
-      <c r="AU44" s="115"/>
-      <c r="AV44" s="115"/>
-      <c r="AW44" s="115"/>
+      <c r="AS44" s="90"/>
+      <c r="AT44" s="92"/>
+      <c r="AU44" s="110"/>
+      <c r="AV44" s="110"/>
+      <c r="AW44" s="110"/>
       <c r="BH44" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="45" spans="4:60" ht="19.95" customHeight="1">
-      <c r="Z45" s="102"/>
-      <c r="AA45" s="95"/>
-      <c r="AB45" s="95"/>
-      <c r="AC45" s="95"/>
-      <c r="AD45" s="95"/>
-      <c r="AE45" s="95"/>
-      <c r="AF45" s="96"/>
+      <c r="Z45" s="97"/>
+      <c r="AA45" s="90"/>
+      <c r="AB45" s="90"/>
+      <c r="AC45" s="90"/>
+      <c r="AD45" s="90"/>
+      <c r="AE45" s="90"/>
+      <c r="AF45" s="91"/>
       <c r="AG45" s="53"/>
       <c r="AH45" s="53"/>
       <c r="AI45" s="53"/>
@@ -6424,35 +6696,35 @@
       <c r="AP45" s="53"/>
       <c r="AQ45" s="53"/>
       <c r="AR45" s="54"/>
-      <c r="AS45" s="95"/>
-      <c r="AT45" s="97"/>
-      <c r="AU45" s="116"/>
-      <c r="AV45" s="115"/>
-      <c r="AW45" s="115"/>
+      <c r="AS45" s="90"/>
+      <c r="AT45" s="92"/>
+      <c r="AU45" s="111"/>
+      <c r="AV45" s="110"/>
+      <c r="AW45" s="110"/>
     </row>
     <row r="46" spans="4:60" ht="19.95" customHeight="1" thickBot="1">
       <c r="Y46" s="42"/>
-      <c r="Z46" s="109"/>
-      <c r="AA46" s="110"/>
-      <c r="AB46" s="110"/>
-      <c r="AC46" s="110"/>
-      <c r="AD46" s="110"/>
-      <c r="AE46" s="110"/>
-      <c r="AF46" s="111"/>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="105"/>
+      <c r="AB46" s="105"/>
+      <c r="AC46" s="105"/>
+      <c r="AD46" s="105"/>
+      <c r="AE46" s="105"/>
+      <c r="AF46" s="106"/>
       <c r="AG46" s="55"/>
       <c r="AH46" s="56"/>
       <c r="AI46" s="56"/>
       <c r="AJ46" s="56"/>
       <c r="AK46" s="56"/>
-      <c r="AL46" s="72"/>
-      <c r="AM46" s="72"/>
+      <c r="AL46" s="67"/>
+      <c r="AM46" s="67"/>
       <c r="AN46" s="56"/>
       <c r="AO46" s="56"/>
       <c r="AP46" s="56"/>
       <c r="AQ46" s="56"/>
       <c r="AR46" s="57"/>
-      <c r="AS46" s="112"/>
-      <c r="AT46" s="113"/>
+      <c r="AS46" s="107"/>
+      <c r="AT46" s="108"/>
     </row>
     <row r="47" spans="4:60" ht="19.95" customHeight="1">
       <c r="Z47" s="42"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github4\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796DED36-1554-4F6C-B1F9-CFD6F5460F73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF8B92E-F21D-4320-88C9-135368DC15B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -2927,7 +2927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796DED36-1554-4F6C-B1F9-CFD6F5460F73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA022A8-9F13-4F2B-80C9-E3A9ECF819FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="194">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -1114,6 +1114,182 @@
   </si>
   <si>
     <t>VillainRanking.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面のタイトル表示をbool化し、trueの時に表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面に雨用ビルボードをboolこみで作り、trueの時降らせる</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アメヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面の背景マップの作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面のプレイ選択時にカメラが施設の入り口に移動する処理</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>グチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景用のオブジェクトの作成</t>
+    <rPh sb="0" eb="3">
+      <t>ハイケイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bg_object.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rain.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>titleUI.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面のボタン入力時に2Dの白いポリゴンを一瞬画面全体に表示する処理</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ニュウリョクジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イッシュン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thunder.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月のビルボードをboolこみで作り、trueの時表示する</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moon.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドアのモデルを作り、画面遷移する時にドアが開く演出をする</t>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>door.cpp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2412,13 +2588,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>95</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -2478,16 +2654,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>472989</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>42292</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>412029</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>286132</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2516,8 +2692,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647700" y="12706350"/>
-          <a:ext cx="6340389" cy="4404742"/>
+          <a:off x="7818120" y="1863090"/>
+          <a:ext cx="6370869" cy="4336162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2528,16 +2704,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>305563</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>194586</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>153163</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>164106</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2566,8 +2742,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8305800" y="13582650"/>
-          <a:ext cx="8801863" cy="3185436"/>
+          <a:off x="5581650" y="8122920"/>
+          <a:ext cx="8866633" cy="3135906"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2578,14 +2754,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>277089</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>221672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>249381</xdr:colOff>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>157941</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>100466</xdr:rowOff>
     </xdr:to>
@@ -2927,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3190,7 +3366,12 @@
       <c r="C23" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="63"/>
+      <c r="D23" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="116" t="s">
@@ -3399,7 +3580,9 @@
       <c r="C44" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="63"/>
+      <c r="D44" s="63" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="116" t="s">
@@ -3408,7 +3591,9 @@
       <c r="C45" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="63"/>
+      <c r="D45" s="63" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="116" t="s">
@@ -3510,27 +3695,75 @@
       <c r="D56" s="63"/>
     </row>
     <row r="57" spans="2:4">
+      <c r="B57" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="64" t="s">
+        <v>186</v>
+      </c>
       <c r="D57" s="63"/>
     </row>
     <row r="58" spans="2:4">
+      <c r="B58" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="64" t="s">
+        <v>187</v>
+      </c>
       <c r="D58" s="63"/>
     </row>
     <row r="59" spans="2:4">
+      <c r="B59" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="64" t="s">
+        <v>185</v>
+      </c>
       <c r="D59" s="63"/>
     </row>
     <row r="60" spans="2:4">
+      <c r="B60" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="64" t="s">
+        <v>147</v>
+      </c>
       <c r="D60" s="63"/>
     </row>
     <row r="61" spans="2:4">
+      <c r="B61" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="64" t="s">
+        <v>185</v>
+      </c>
       <c r="D61" s="63"/>
     </row>
     <row r="62" spans="2:4">
+      <c r="B62" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="64" t="s">
+        <v>189</v>
+      </c>
       <c r="D62" s="63"/>
     </row>
     <row r="63" spans="2:4">
+      <c r="B63" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="64" t="s">
+        <v>191</v>
+      </c>
       <c r="D63" s="63"/>
     </row>
     <row r="64" spans="2:4">
+      <c r="B64" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="64" t="s">
+        <v>193</v>
+      </c>
       <c r="D64" s="63"/>
     </row>
     <row r="65" spans="4:4">
@@ -4889,10 +5122,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2938C-A6E3-41DD-BC66-7CDBE357270C}">
-  <dimension ref="D1:BH199"/>
+  <dimension ref="V1:BZ199"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200:XFD1048576"/>
+      <selection activeCell="AP49" sqref="AP49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="19.95" customHeight="1" zeroHeight="1"/>
@@ -4900,31 +5133,15 @@
     <col min="4" max="49" width="6.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:46" ht="19.95" customHeight="1"/>
-    <row r="2" spans="4:46" ht="19.95" customHeight="1"/>
-    <row r="3" spans="4:46" ht="18.600000000000001" thickBot="1"/>
-    <row r="4" spans="4:46" ht="25.05" customHeight="1">
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="39"/>
-      <c r="Z4" s="37"/>
+    <row r="1" spans="22:64" ht="19.95" customHeight="1"/>
+    <row r="2" spans="22:64" ht="19.95" customHeight="1"/>
+    <row r="3" spans="22:64" ht="18.600000000000001" thickBot="1"/>
+    <row r="4" spans="22:64" ht="25.05" customHeight="1">
+      <c r="V4" s="37"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
       <c r="AA4" s="38"/>
       <c r="AB4" s="38"/>
       <c r="AC4" s="38"/>
@@ -4939,40 +5156,38 @@
       <c r="AL4" s="38"/>
       <c r="AM4" s="38"/>
       <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
+      <c r="AO4" s="39"/>
+      <c r="AR4" s="37"/>
       <c r="AS4" s="38"/>
-      <c r="AT4" s="39"/>
-    </row>
-    <row r="5" spans="4:46" ht="25.05" customHeight="1">
-      <c r="D5" s="40"/>
-      <c r="E5" s="41" t="s">
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="39"/>
+    </row>
+    <row r="5" spans="22:64" ht="25.05" customHeight="1">
+      <c r="V5" s="40"/>
+      <c r="W5" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="43"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="41" t="s">
-        <v>83</v>
-      </c>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
       <c r="AB5" s="42"/>
       <c r="AC5" s="42"/>
       <c r="AD5" s="42"/>
@@ -4986,35 +5201,37 @@
       <c r="AL5" s="42"/>
       <c r="AM5" s="42"/>
       <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="43"/>
-    </row>
-    <row r="6" spans="4:46" ht="25.05" customHeight="1">
-      <c r="D6" s="40"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="43"/>
-      <c r="Z6" s="40"/>
+      <c r="AO5" s="43"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="42"/>
+      <c r="BF5" s="42"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="43"/>
+    </row>
+    <row r="6" spans="22:64" ht="25.05" customHeight="1">
+      <c r="V6" s="40"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
       <c r="AA6" s="42"/>
       <c r="AB6" s="42"/>
       <c r="AC6" s="42"/>
@@ -5029,35 +5246,35 @@
       <c r="AL6" s="42"/>
       <c r="AM6" s="42"/>
       <c r="AN6" s="42"/>
-      <c r="AO6" s="42"/>
-      <c r="AP6" s="42"/>
-      <c r="AQ6" s="42"/>
-      <c r="AR6" s="42"/>
+      <c r="AO6" s="43"/>
+      <c r="AR6" s="40"/>
       <c r="AS6" s="42"/>
-      <c r="AT6" s="43"/>
-    </row>
-    <row r="7" spans="4:46" ht="25.05" customHeight="1">
-      <c r="D7" s="40"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="43"/>
-      <c r="Z7" s="40"/>
+      <c r="AT6" s="42"/>
+      <c r="AU6" s="42"/>
+      <c r="AV6" s="42"/>
+      <c r="AW6" s="42"/>
+      <c r="AX6" s="42"/>
+      <c r="AY6" s="42"/>
+      <c r="AZ6" s="42"/>
+      <c r="BA6" s="42"/>
+      <c r="BB6" s="42"/>
+      <c r="BC6" s="42"/>
+      <c r="BD6" s="42"/>
+      <c r="BE6" s="42"/>
+      <c r="BF6" s="42"/>
+      <c r="BG6" s="42"/>
+      <c r="BH6" s="42"/>
+      <c r="BI6" s="42"/>
+      <c r="BJ6" s="42"/>
+      <c r="BK6" s="42"/>
+      <c r="BL6" s="43"/>
+    </row>
+    <row r="7" spans="22:64" ht="25.05" customHeight="1">
+      <c r="V7" s="40"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
       <c r="AB7" s="42"/>
       <c r="AC7" s="42"/>
@@ -5072,35 +5289,35 @@
       <c r="AL7" s="42"/>
       <c r="AM7" s="42"/>
       <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
+      <c r="AO7" s="43"/>
+      <c r="AR7" s="40"/>
       <c r="AS7" s="42"/>
-      <c r="AT7" s="43"/>
-    </row>
-    <row r="8" spans="4:46" ht="25.05" customHeight="1">
-      <c r="D8" s="40"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="43"/>
-      <c r="Z8" s="40"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="42"/>
+      <c r="AX7" s="42"/>
+      <c r="AY7" s="42"/>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="42"/>
+      <c r="BD7" s="42"/>
+      <c r="BE7" s="42"/>
+      <c r="BF7" s="42"/>
+      <c r="BG7" s="42"/>
+      <c r="BH7" s="42"/>
+      <c r="BI7" s="42"/>
+      <c r="BJ7" s="42"/>
+      <c r="BK7" s="42"/>
+      <c r="BL7" s="43"/>
+    </row>
+    <row r="8" spans="22:64" ht="25.05" customHeight="1">
+      <c r="V8" s="40"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
       <c r="AA8" s="42"/>
       <c r="AB8" s="42"/>
       <c r="AC8" s="42"/>
@@ -5115,35 +5332,35 @@
       <c r="AL8" s="42"/>
       <c r="AM8" s="42"/>
       <c r="AN8" s="42"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
+      <c r="AO8" s="43"/>
+      <c r="AR8" s="40"/>
       <c r="AS8" s="42"/>
-      <c r="AT8" s="43"/>
-    </row>
-    <row r="9" spans="4:46" ht="25.05" customHeight="1">
-      <c r="D9" s="40"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="43"/>
-      <c r="Z9" s="40"/>
+      <c r="AT8" s="42"/>
+      <c r="AU8" s="42"/>
+      <c r="AV8" s="42"/>
+      <c r="AW8" s="42"/>
+      <c r="AX8" s="42"/>
+      <c r="AY8" s="42"/>
+      <c r="AZ8" s="42"/>
+      <c r="BA8" s="42"/>
+      <c r="BB8" s="42"/>
+      <c r="BC8" s="42"/>
+      <c r="BD8" s="42"/>
+      <c r="BE8" s="42"/>
+      <c r="BF8" s="42"/>
+      <c r="BG8" s="42"/>
+      <c r="BH8" s="42"/>
+      <c r="BI8" s="42"/>
+      <c r="BJ8" s="42"/>
+      <c r="BK8" s="42"/>
+      <c r="BL8" s="43"/>
+    </row>
+    <row r="9" spans="22:64" ht="25.05" customHeight="1">
+      <c r="V9" s="40"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
       <c r="AA9" s="42"/>
       <c r="AB9" s="42"/>
       <c r="AC9" s="42"/>
@@ -5158,1593 +5375,1591 @@
       <c r="AL9" s="42"/>
       <c r="AM9" s="42"/>
       <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
+      <c r="AO9" s="43"/>
+      <c r="AR9" s="40"/>
       <c r="AS9" s="42"/>
-      <c r="AT9" s="43"/>
-    </row>
-    <row r="10" spans="4:46" ht="25.05" customHeight="1">
-      <c r="D10" s="40"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="43"/>
-      <c r="Z10" s="40"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42"/>
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42"/>
+      <c r="BB9" s="42"/>
+      <c r="BC9" s="42"/>
+      <c r="BD9" s="42"/>
+      <c r="BE9" s="42"/>
+      <c r="BF9" s="42"/>
+      <c r="BG9" s="42"/>
+      <c r="BH9" s="42"/>
+      <c r="BI9" s="42"/>
+      <c r="BJ9" s="42"/>
+      <c r="BK9" s="42"/>
+      <c r="BL9" s="43"/>
+    </row>
+    <row r="10" spans="22:64" ht="25.05" customHeight="1">
+      <c r="V10" s="40"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
       <c r="AA10" s="42"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="52"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
       <c r="AJ10" s="42"/>
       <c r="AK10" s="42"/>
       <c r="AL10" s="42"/>
       <c r="AM10" s="42"/>
       <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
+      <c r="AO10" s="43"/>
+      <c r="AR10" s="40"/>
       <c r="AS10" s="42"/>
-      <c r="AT10" s="43"/>
-    </row>
-    <row r="11" spans="4:46" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D11" s="40"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="43"/>
-      <c r="Z11" s="40"/>
+      <c r="AT10" s="52"/>
+      <c r="AU10" s="52"/>
+      <c r="AV10" s="52"/>
+      <c r="AW10" s="52"/>
+      <c r="AX10" s="52"/>
+      <c r="AY10" s="52"/>
+      <c r="AZ10" s="52"/>
+      <c r="BA10" s="52"/>
+      <c r="BB10" s="42"/>
+      <c r="BC10" s="42"/>
+      <c r="BD10" s="42"/>
+      <c r="BE10" s="42"/>
+      <c r="BF10" s="42"/>
+      <c r="BG10" s="42"/>
+      <c r="BH10" s="42"/>
+      <c r="BI10" s="42"/>
+      <c r="BJ10" s="42"/>
+      <c r="BK10" s="42"/>
+      <c r="BL10" s="43"/>
+    </row>
+    <row r="11" spans="22:64" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V11" s="40"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
       <c r="AA11" s="42"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="67"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
       <c r="AJ11" s="42"/>
       <c r="AK11" s="42"/>
       <c r="AL11" s="42"/>
       <c r="AM11" s="42"/>
       <c r="AN11" s="42"/>
-      <c r="AO11" s="42"/>
-      <c r="AP11" s="42"/>
-      <c r="AQ11" s="42"/>
-      <c r="AR11" s="42"/>
+      <c r="AO11" s="43"/>
+      <c r="AR11" s="40"/>
       <c r="AS11" s="42"/>
-      <c r="AT11" s="43"/>
-    </row>
-    <row r="12" spans="4:46" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D12" s="40"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="43"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="67"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="52"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="42"/>
+      <c r="AT11" s="52"/>
+      <c r="AU11" s="52"/>
+      <c r="AV11" s="67"/>
+      <c r="AW11" s="52"/>
+      <c r="AX11" s="52"/>
+      <c r="AY11" s="52"/>
+      <c r="AZ11" s="52"/>
+      <c r="BA11" s="52"/>
+      <c r="BB11" s="42"/>
+      <c r="BC11" s="42"/>
+      <c r="BD11" s="42"/>
+      <c r="BE11" s="42"/>
+      <c r="BF11" s="42"/>
+      <c r="BG11" s="42"/>
+      <c r="BH11" s="42"/>
+      <c r="BI11" s="42"/>
+      <c r="BJ11" s="42"/>
+      <c r="BK11" s="42"/>
+      <c r="BL11" s="43"/>
+    </row>
+    <row r="12" spans="22:64" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V12" s="40"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="58"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="74"/>
       <c r="AM12" s="42"/>
       <c r="AN12" s="42"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="43"/>
-    </row>
-    <row r="13" spans="4:46" ht="25.05" customHeight="1">
-      <c r="D13" s="40"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="43"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
+      <c r="AO12" s="43"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="52"/>
+      <c r="AT12" s="52"/>
+      <c r="AU12" s="52"/>
+      <c r="AV12" s="67"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AZ12" s="52"/>
+      <c r="BA12" s="52"/>
+      <c r="BB12" s="42"/>
+      <c r="BC12" s="42"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="42"/>
+      <c r="BF12" s="42"/>
+      <c r="BG12" s="42"/>
+      <c r="BH12" s="42"/>
+      <c r="BI12" s="42"/>
+      <c r="BJ12" s="42"/>
+      <c r="BK12" s="42"/>
+      <c r="BL12" s="43"/>
+    </row>
+    <row r="13" spans="22:64" ht="25.05" customHeight="1">
+      <c r="V13" s="40"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
       <c r="AD13" s="52"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="42"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
       <c r="AH13" s="52"/>
       <c r="AI13" s="52"/>
-      <c r="AJ13" s="42"/>
+      <c r="AJ13" s="52"/>
       <c r="AK13" s="52"/>
-      <c r="AL13" s="52"/>
+      <c r="AL13" s="49"/>
       <c r="AM13" s="42"/>
       <c r="AN13" s="42"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="42"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42"/>
-      <c r="AT13" s="43"/>
-    </row>
-    <row r="14" spans="4:46" ht="25.05" customHeight="1">
-      <c r="D14" s="40"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="43"/>
-      <c r="Z14" s="40"/>
+      <c r="AO13" s="43"/>
+      <c r="AR13" s="40"/>
+      <c r="AS13" s="52"/>
+      <c r="AT13" s="52"/>
+      <c r="AU13" s="52"/>
+      <c r="AV13" s="52"/>
+      <c r="AW13" s="42"/>
+      <c r="AX13" s="42"/>
+      <c r="AY13" s="42"/>
+      <c r="AZ13" s="52"/>
+      <c r="BA13" s="52"/>
+      <c r="BB13" s="42"/>
+      <c r="BC13" s="52"/>
+      <c r="BD13" s="52"/>
+      <c r="BE13" s="42"/>
+      <c r="BF13" s="42"/>
+      <c r="BG13" s="42"/>
+      <c r="BH13" s="42"/>
+      <c r="BI13" s="42"/>
+      <c r="BJ13" s="42"/>
+      <c r="BK13" s="42"/>
+      <c r="BL13" s="43"/>
+    </row>
+    <row r="14" spans="22:64" ht="25.05" customHeight="1">
+      <c r="V14" s="40"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="68"/>
       <c r="AA14" s="52"/>
       <c r="AB14" s="52"/>
       <c r="AC14" s="52"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="52"/>
       <c r="AH14" s="52"/>
       <c r="AI14" s="52"/>
       <c r="AJ14" s="52"/>
       <c r="AK14" s="52"/>
-      <c r="AL14" s="52"/>
+      <c r="AL14" s="49"/>
       <c r="AM14" s="42"/>
       <c r="AN14" s="42"/>
-      <c r="AO14" s="42"/>
-      <c r="AP14" s="42"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="43"/>
-    </row>
-    <row r="15" spans="4:46" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D15" s="40"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="43"/>
-      <c r="Z15" s="40"/>
+      <c r="AO14" s="43"/>
+      <c r="AR14" s="40"/>
+      <c r="AS14" s="52"/>
+      <c r="AT14" s="52"/>
+      <c r="AU14" s="52"/>
+      <c r="AV14" s="42"/>
+      <c r="AW14" s="42"/>
+      <c r="AX14" s="42"/>
+      <c r="AY14" s="42"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
+      <c r="BB14" s="52"/>
+      <c r="BC14" s="52"/>
+      <c r="BD14" s="52"/>
+      <c r="BE14" s="42"/>
+      <c r="BF14" s="42"/>
+      <c r="BG14" s="42"/>
+      <c r="BH14" s="42"/>
+      <c r="BI14" s="42"/>
+      <c r="BJ14" s="42"/>
+      <c r="BK14" s="42"/>
+      <c r="BL14" s="43"/>
+    </row>
+    <row r="15" spans="22:64" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V15" s="40"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="68"/>
       <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="42"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
       <c r="AH15" s="52"/>
       <c r="AI15" s="52"/>
       <c r="AJ15" s="52"/>
       <c r="AK15" s="52"/>
-      <c r="AL15" s="52"/>
+      <c r="AL15" s="49"/>
       <c r="AM15" s="42"/>
       <c r="AN15" s="42"/>
-      <c r="AO15" s="42"/>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="42"/>
-      <c r="AR15" s="42"/>
-      <c r="AS15" s="42"/>
-      <c r="AT15" s="43"/>
-    </row>
-    <row r="16" spans="4:46" ht="25.05" customHeight="1">
-      <c r="D16" s="40"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="43"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="42"/>
+      <c r="AO15" s="43"/>
+      <c r="AR15" s="40"/>
+      <c r="AS15" s="52"/>
+      <c r="AT15" s="52"/>
+      <c r="AU15" s="52"/>
+      <c r="AV15" s="42"/>
+      <c r="AW15" s="42"/>
+      <c r="AX15" s="42"/>
+      <c r="AY15" s="42"/>
+      <c r="AZ15" s="52"/>
+      <c r="BA15" s="52"/>
+      <c r="BB15" s="52"/>
+      <c r="BC15" s="52"/>
+      <c r="BD15" s="52"/>
+      <c r="BE15" s="42"/>
+      <c r="BF15" s="42"/>
+      <c r="BG15" s="42"/>
+      <c r="BH15" s="42"/>
+      <c r="BI15" s="42"/>
+      <c r="BJ15" s="42"/>
+      <c r="BK15" s="42"/>
+      <c r="BL15" s="43"/>
+    </row>
+    <row r="16" spans="22:64" ht="25.05" customHeight="1">
+      <c r="V16" s="40"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
       <c r="AH16" s="52"/>
       <c r="AI16" s="52"/>
-      <c r="AJ16" s="42"/>
+      <c r="AJ16" s="52"/>
       <c r="AK16" s="52"/>
-      <c r="AL16" s="52"/>
+      <c r="AL16" s="49"/>
       <c r="AM16" s="42"/>
       <c r="AN16" s="42"/>
-      <c r="AO16" s="42"/>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="42"/>
+      <c r="AO16" s="43"/>
+      <c r="AR16" s="40"/>
       <c r="AS16" s="42"/>
-      <c r="AT16" s="43"/>
-    </row>
-    <row r="17" spans="4:49" ht="25.05" customHeight="1">
-      <c r="D17" s="40"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="43"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
+      <c r="AT16" s="52"/>
+      <c r="AU16" s="52"/>
+      <c r="AV16" s="42"/>
+      <c r="AW16" s="42"/>
+      <c r="AX16" s="42"/>
+      <c r="AY16" s="42"/>
+      <c r="AZ16" s="52"/>
+      <c r="BA16" s="52"/>
+      <c r="BB16" s="42"/>
+      <c r="BC16" s="52"/>
+      <c r="BD16" s="52"/>
+      <c r="BE16" s="42"/>
+      <c r="BF16" s="42"/>
+      <c r="BG16" s="42"/>
+      <c r="BH16" s="42"/>
+      <c r="BI16" s="42"/>
+      <c r="BJ16" s="42"/>
+      <c r="BK16" s="42"/>
+      <c r="BL16" s="43"/>
+    </row>
+    <row r="17" spans="22:67" ht="25.05" customHeight="1">
+      <c r="V17" s="40"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
       <c r="AH17" s="52"/>
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52"/>
       <c r="AK17" s="52"/>
-      <c r="AL17" s="52"/>
+      <c r="AL17" s="49"/>
       <c r="AM17" s="42"/>
       <c r="AN17" s="42"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
+      <c r="AO17" s="43"/>
+      <c r="AR17" s="40"/>
       <c r="AS17" s="42"/>
-      <c r="AT17" s="43"/>
-    </row>
-    <row r="18" spans="4:49" ht="25.05" customHeight="1">
-      <c r="D18" s="40"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
+      <c r="AT17" s="52"/>
+      <c r="AU17" s="52"/>
+      <c r="AV17" s="42"/>
+      <c r="AW17" s="42"/>
+      <c r="AX17" s="42"/>
+      <c r="AY17" s="42"/>
+      <c r="AZ17" s="52"/>
+      <c r="BA17" s="52"/>
+      <c r="BB17" s="52"/>
+      <c r="BC17" s="52"/>
+      <c r="BD17" s="52"/>
+      <c r="BE17" s="42"/>
+      <c r="BF17" s="42"/>
+      <c r="BG17" s="42"/>
+      <c r="BH17" s="42"/>
+      <c r="BI17" s="42"/>
+      <c r="BJ17" s="42"/>
+      <c r="BK17" s="42"/>
+      <c r="BL17" s="43"/>
+    </row>
+    <row r="18" spans="22:67" ht="25.05" customHeight="1">
+      <c r="V18" s="40"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
       <c r="Z18" s="68"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="68"/>
       <c r="AE18" s="52"/>
       <c r="AF18" s="52"/>
       <c r="AG18" s="52"/>
       <c r="AH18" s="52"/>
       <c r="AI18" s="52"/>
-      <c r="AJ18" s="42"/>
+      <c r="AJ18" s="52"/>
       <c r="AK18" s="52"/>
       <c r="AL18" s="52"/>
-      <c r="AM18" s="42"/>
-      <c r="AN18" s="42"/>
-      <c r="AO18" s="42"/>
-      <c r="AP18" s="42"/>
-      <c r="AQ18" s="42"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AT18" s="43"/>
-    </row>
-    <row r="19" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D19" s="40"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
+      <c r="AM18" s="52"/>
+      <c r="AN18" s="52"/>
+      <c r="AO18" s="49"/>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="68"/>
+      <c r="AS18" s="52"/>
+      <c r="AT18" s="52"/>
+      <c r="AU18" s="52"/>
+      <c r="AV18" s="52"/>
+      <c r="AW18" s="52"/>
+      <c r="AX18" s="52"/>
+      <c r="AY18" s="52"/>
+      <c r="AZ18" s="52"/>
+      <c r="BA18" s="52"/>
+      <c r="BB18" s="42"/>
+      <c r="BC18" s="52"/>
+      <c r="BD18" s="52"/>
+      <c r="BE18" s="42"/>
+      <c r="BF18" s="42"/>
+      <c r="BG18" s="42"/>
+      <c r="BH18" s="42"/>
+      <c r="BI18" s="42"/>
+      <c r="BJ18" s="42"/>
+      <c r="BK18" s="42"/>
+      <c r="BL18" s="43"/>
+    </row>
+    <row r="19" spans="22:67" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V19" s="40"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
       <c r="Z19" s="68"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="67"/>
       <c r="AF19" s="67"/>
       <c r="AG19" s="67"/>
       <c r="AH19" s="52"/>
       <c r="AI19" s="52"/>
-      <c r="AJ19" s="52"/>
-      <c r="AK19" s="52"/>
-      <c r="AL19" s="52"/>
-      <c r="AM19" s="42"/>
-      <c r="AN19" s="42"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="42"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AT19" s="43"/>
-    </row>
-    <row r="20" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D20" s="40"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="43"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="67"/>
+      <c r="AL19" s="67"/>
+      <c r="AM19" s="52"/>
+      <c r="AN19" s="52"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="48"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="68"/>
+      <c r="AS19" s="52"/>
+      <c r="AT19" s="52"/>
+      <c r="AU19" s="52"/>
+      <c r="AV19" s="52"/>
+      <c r="AW19" s="52"/>
+      <c r="AX19" s="67"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="52"/>
+      <c r="BA19" s="52"/>
+      <c r="BB19" s="52"/>
+      <c r="BC19" s="52"/>
+      <c r="BD19" s="52"/>
+      <c r="BE19" s="42"/>
+      <c r="BF19" s="42"/>
+      <c r="BG19" s="42"/>
+      <c r="BH19" s="42"/>
+      <c r="BI19" s="42"/>
+      <c r="BJ19" s="42"/>
+      <c r="BK19" s="42"/>
+      <c r="BL19" s="43"/>
+    </row>
+    <row r="20" spans="22:67" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V20" s="40"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
       <c r="AD20" s="42"/>
       <c r="AE20" s="42"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="70"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="68"/>
+      <c r="AI20" s="49"/>
       <c r="AJ20" s="42"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="52"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
       <c r="AM20" s="42"/>
       <c r="AN20" s="42"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="42"/>
+      <c r="AO20" s="43"/>
+      <c r="AR20" s="40"/>
       <c r="AS20" s="42"/>
-      <c r="AT20" s="43"/>
-    </row>
-    <row r="21" spans="4:49" ht="25.05" customHeight="1">
-      <c r="D21" s="40"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="43"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
+      <c r="AT20" s="52"/>
+      <c r="AU20" s="52"/>
+      <c r="AV20" s="42"/>
+      <c r="AW20" s="42"/>
+      <c r="AX20" s="52"/>
+      <c r="AY20" s="70"/>
+      <c r="AZ20" s="52"/>
+      <c r="BA20" s="52"/>
+      <c r="BB20" s="42"/>
+      <c r="BC20" s="52"/>
+      <c r="BD20" s="52"/>
+      <c r="BE20" s="42"/>
+      <c r="BF20" s="42"/>
+      <c r="BG20" s="42"/>
+      <c r="BH20" s="42"/>
+      <c r="BI20" s="42"/>
+      <c r="BJ20" s="42"/>
+      <c r="BK20" s="42"/>
+      <c r="BL20" s="43"/>
+    </row>
+    <row r="21" spans="22:67" ht="25.05" customHeight="1">
+      <c r="V21" s="40"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
       <c r="AD21" s="42"/>
       <c r="AE21" s="42"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="52"/>
-      <c r="AL21" s="52"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="68"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="42"/>
+      <c r="AL21" s="42"/>
       <c r="AM21" s="42"/>
       <c r="AN21" s="42"/>
-      <c r="AO21" s="42"/>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="42"/>
-      <c r="AR21" s="42"/>
+      <c r="AO21" s="43"/>
+      <c r="AR21" s="40"/>
       <c r="AS21" s="42"/>
-      <c r="AT21" s="43"/>
-    </row>
-    <row r="22" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="46"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="67"/>
+      <c r="AT21" s="52"/>
+      <c r="AU21" s="52"/>
+      <c r="AV21" s="42"/>
+      <c r="AW21" s="42"/>
+      <c r="AX21" s="52"/>
+      <c r="AY21" s="52"/>
+      <c r="AZ21" s="52"/>
+      <c r="BA21" s="52"/>
+      <c r="BB21" s="52"/>
+      <c r="BC21" s="52"/>
+      <c r="BD21" s="52"/>
+      <c r="BE21" s="42"/>
+      <c r="BF21" s="42"/>
+      <c r="BG21" s="42"/>
+      <c r="BH21" s="42"/>
+      <c r="BI21" s="42"/>
+      <c r="BJ21" s="42"/>
+      <c r="BK21" s="42"/>
+      <c r="BL21" s="43"/>
+    </row>
+    <row r="22" spans="22:67" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V22" s="44"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
       <c r="AD22" s="45"/>
       <c r="AE22" s="45"/>
       <c r="AF22" s="45"/>
       <c r="AG22" s="45"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="69"/>
-      <c r="AJ22" s="69"/>
-      <c r="AK22" s="69"/>
-      <c r="AL22" s="69"/>
+      <c r="AH22" s="71"/>
+      <c r="AI22" s="72"/>
+      <c r="AJ22" s="45"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="45"/>
       <c r="AM22" s="45"/>
       <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="45"/>
-      <c r="AQ22" s="45"/>
-      <c r="AR22" s="45"/>
+      <c r="AO22" s="46"/>
+      <c r="AR22" s="44"/>
       <c r="AS22" s="45"/>
-      <c r="AT22" s="46"/>
-    </row>
-    <row r="23" spans="4:49" ht="25.05" customHeight="1">
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
+      <c r="AT22" s="67"/>
+      <c r="AU22" s="67"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45"/>
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="45"/>
+      <c r="AZ22" s="69"/>
+      <c r="BA22" s="69"/>
+      <c r="BB22" s="69"/>
+      <c r="BC22" s="69"/>
+      <c r="BD22" s="69"/>
+      <c r="BE22" s="45"/>
+      <c r="BF22" s="45"/>
+      <c r="BG22" s="45"/>
+      <c r="BH22" s="45"/>
+      <c r="BI22" s="45"/>
+      <c r="BJ22" s="45"/>
+      <c r="BK22" s="45"/>
+      <c r="BL22" s="46"/>
+    </row>
+    <row r="23" spans="22:67" ht="25.05" customHeight="1">
       <c r="V23" s="42"/>
       <c r="W23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
       <c r="AD23" s="42"/>
       <c r="AE23" s="42"/>
       <c r="AF23" s="42"/>
       <c r="AG23" s="42"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="42"/>
+      <c r="AH23" s="68"/>
+      <c r="AI23" s="49"/>
       <c r="AJ23" s="42"/>
       <c r="AK23" s="42"/>
       <c r="AL23" s="42"/>
       <c r="AM23" s="42"/>
       <c r="AN23" s="42"/>
       <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
       <c r="AR23" s="42"/>
       <c r="AS23" s="42"/>
-      <c r="AT23" s="42"/>
-    </row>
-    <row r="24" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="H24" s="71"/>
-      <c r="I24" s="72"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="72"/>
-      <c r="AA24" s="47"/>
-      <c r="AH24" s="113"/>
-      <c r="AI24" s="105"/>
-      <c r="AJ24" s="105"/>
-      <c r="AK24" s="113"/>
-      <c r="AU24" s="42"/>
-      <c r="AV24" s="42"/>
-      <c r="AW24" s="42"/>
-    </row>
-    <row r="25" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="74"/>
-      <c r="Z25" s="81"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="83"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="85"/>
-      <c r="AE25" s="86"/>
-      <c r="AF25" s="86"/>
-      <c r="AG25" s="86"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="90"/>
-      <c r="AJ25" s="90"/>
-      <c r="AK25" s="42"/>
-      <c r="AL25" s="86"/>
-      <c r="AM25" s="86"/>
-      <c r="AN25" s="86"/>
-      <c r="AO25" s="86"/>
-      <c r="AP25" s="86"/>
-      <c r="AQ25" s="86"/>
-      <c r="AR25" s="86"/>
-      <c r="AS25" s="86"/>
-      <c r="AT25" s="87"/>
-      <c r="AU25" s="109"/>
-      <c r="AV25" s="110"/>
-      <c r="AW25" s="110"/>
-    </row>
-    <row r="26" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D26" s="40"/>
-      <c r="E26" s="41" t="s">
+      <c r="AT23" s="52"/>
+      <c r="AU23" s="52"/>
+      <c r="AV23" s="42"/>
+      <c r="AW23" s="42"/>
+      <c r="AX23" s="42"/>
+      <c r="AY23" s="42"/>
+      <c r="AZ23" s="42"/>
+      <c r="BA23" s="42"/>
+      <c r="BB23" s="42"/>
+      <c r="BC23" s="42"/>
+      <c r="BD23" s="42"/>
+      <c r="BE23" s="42"/>
+      <c r="BF23" s="42"/>
+      <c r="BG23" s="42"/>
+      <c r="BH23" s="42"/>
+      <c r="BI23" s="42"/>
+      <c r="BJ23" s="42"/>
+      <c r="BK23" s="42"/>
+      <c r="BL23" s="42"/>
+    </row>
+    <row r="24" spans="22:67" ht="25.05" customHeight="1" thickBot="1">
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="72"/>
+      <c r="AH24" s="71"/>
+      <c r="AI24" s="72"/>
+      <c r="AS24" s="47"/>
+      <c r="AZ24" s="113"/>
+      <c r="BA24" s="105"/>
+      <c r="BB24" s="105"/>
+      <c r="BC24" s="113"/>
+      <c r="BM24" s="42"/>
+      <c r="BN24" s="42"/>
+      <c r="BO24" s="42"/>
+    </row>
+    <row r="25" spans="22:67" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V25" s="37"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="70"/>
+      <c r="AA25" s="70"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="70"/>
+      <c r="AF25" s="76"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="58"/>
+      <c r="AL25" s="58"/>
+      <c r="AM25" s="58"/>
+      <c r="AN25" s="58"/>
+      <c r="AO25" s="74"/>
+      <c r="AR25" s="81"/>
+      <c r="AS25" s="82"/>
+      <c r="AT25" s="83"/>
+      <c r="AU25" s="84"/>
+      <c r="AV25" s="85"/>
+      <c r="AW25" s="86"/>
+      <c r="AX25" s="86"/>
+      <c r="AY25" s="86"/>
+      <c r="AZ25" s="42"/>
+      <c r="BA25" s="90"/>
+      <c r="BB25" s="90"/>
+      <c r="BC25" s="42"/>
+      <c r="BD25" s="86"/>
+      <c r="BE25" s="86"/>
+      <c r="BF25" s="86"/>
+      <c r="BG25" s="86"/>
+      <c r="BH25" s="86"/>
+      <c r="BI25" s="86"/>
+      <c r="BJ25" s="86"/>
+      <c r="BK25" s="86"/>
+      <c r="BL25" s="87"/>
+      <c r="BM25" s="109"/>
+      <c r="BN25" s="110"/>
+      <c r="BO25" s="110"/>
+    </row>
+    <row r="26" spans="22:67" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V26" s="40"/>
+      <c r="W26" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="43"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="49"/>
-      <c r="AD26" s="90"/>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="90"/>
-      <c r="AG26" s="90"/>
-      <c r="AH26" s="90"/>
-      <c r="AI26" s="90"/>
-      <c r="AJ26" s="90"/>
-      <c r="AK26" s="91"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="50"/>
-      <c r="AN26" s="50"/>
-      <c r="AO26" s="50"/>
-      <c r="AP26" s="50"/>
-      <c r="AQ26" s="50"/>
-      <c r="AR26" s="51"/>
-      <c r="AS26" s="90"/>
-      <c r="AT26" s="92"/>
-      <c r="AU26" s="109"/>
-      <c r="AV26" s="110"/>
-      <c r="AW26" s="110"/>
-    </row>
-    <row r="27" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D27" s="40"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="43"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="49"/>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="90"/>
-      <c r="AI27" s="90"/>
-      <c r="AJ27" s="90"/>
-      <c r="AK27" s="91"/>
-      <c r="AL27" s="53"/>
-      <c r="AM27" s="53"/>
-      <c r="AN27" s="53"/>
-      <c r="AO27" s="53"/>
-      <c r="AP27" s="53"/>
-      <c r="AQ27" s="53"/>
-      <c r="AR27" s="54"/>
-      <c r="AS27" s="90"/>
-      <c r="AT27" s="92"/>
-      <c r="AU27" s="109"/>
-      <c r="AV27" s="110"/>
-      <c r="AW27" s="110"/>
-    </row>
-    <row r="28" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D28" s="75"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="74"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="67"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="49"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="96"/>
-      <c r="AF28" s="96"/>
-      <c r="AG28" s="96"/>
-      <c r="AH28" s="96"/>
-      <c r="AI28" s="96"/>
-      <c r="AJ28" s="96"/>
-      <c r="AK28" s="89"/>
-      <c r="AL28" s="53"/>
-      <c r="AM28" s="53"/>
-      <c r="AN28" s="53"/>
-      <c r="AO28" s="53"/>
-      <c r="AP28" s="53"/>
-      <c r="AQ28" s="53"/>
-      <c r="AR28" s="54"/>
-      <c r="AS28" s="90"/>
-      <c r="AT28" s="92"/>
-      <c r="AU28" s="109"/>
-      <c r="AV28" s="110"/>
-      <c r="AW28" s="110"/>
-    </row>
-    <row r="29" spans="4:49" ht="25.05" customHeight="1">
-      <c r="D29" s="75"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="49"/>
-      <c r="Z29" s="97"/>
-      <c r="AA29" s="91"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="98" t="s">
+      <c r="X26" s="49"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="42"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="42"/>
+      <c r="AL26" s="42"/>
+      <c r="AM26" s="42"/>
+      <c r="AN26" s="42"/>
+      <c r="AO26" s="43"/>
+      <c r="AR26" s="88"/>
+      <c r="AS26" s="89"/>
+      <c r="AT26" s="52"/>
+      <c r="AU26" s="49"/>
+      <c r="AV26" s="90"/>
+      <c r="AW26" s="90"/>
+      <c r="AX26" s="90"/>
+      <c r="AY26" s="90"/>
+      <c r="AZ26" s="90"/>
+      <c r="BA26" s="90"/>
+      <c r="BB26" s="90"/>
+      <c r="BC26" s="91"/>
+      <c r="BD26" s="50"/>
+      <c r="BE26" s="50"/>
+      <c r="BF26" s="50"/>
+      <c r="BG26" s="50"/>
+      <c r="BH26" s="50"/>
+      <c r="BI26" s="50"/>
+      <c r="BJ26" s="51"/>
+      <c r="BK26" s="90"/>
+      <c r="BL26" s="92"/>
+      <c r="BM26" s="109"/>
+      <c r="BN26" s="110"/>
+      <c r="BO26" s="110"/>
+    </row>
+    <row r="27" spans="22:67" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V27" s="40"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="42"/>
+      <c r="AL27" s="42"/>
+      <c r="AM27" s="42"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="43"/>
+      <c r="AR27" s="93"/>
+      <c r="AS27" s="58"/>
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="49"/>
+      <c r="AV27" s="90"/>
+      <c r="AW27" s="90"/>
+      <c r="AX27" s="90"/>
+      <c r="AY27" s="90"/>
+      <c r="AZ27" s="90"/>
+      <c r="BA27" s="90"/>
+      <c r="BB27" s="90"/>
+      <c r="BC27" s="91"/>
+      <c r="BD27" s="53"/>
+      <c r="BE27" s="53"/>
+      <c r="BF27" s="53"/>
+      <c r="BG27" s="53"/>
+      <c r="BH27" s="53"/>
+      <c r="BI27" s="53"/>
+      <c r="BJ27" s="54"/>
+      <c r="BK27" s="90"/>
+      <c r="BL27" s="92"/>
+      <c r="BM27" s="109"/>
+      <c r="BN27" s="110"/>
+      <c r="BO27" s="110"/>
+    </row>
+    <row r="28" spans="22:67" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V28" s="75"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="42"/>
+      <c r="AL28" s="42"/>
+      <c r="AM28" s="42"/>
+      <c r="AN28" s="73"/>
+      <c r="AO28" s="74"/>
+      <c r="AR28" s="94"/>
+      <c r="AS28" s="67"/>
+      <c r="AT28" s="52"/>
+      <c r="AU28" s="49"/>
+      <c r="AV28" s="95"/>
+      <c r="AW28" s="96"/>
+      <c r="AX28" s="96"/>
+      <c r="AY28" s="96"/>
+      <c r="AZ28" s="96"/>
+      <c r="BA28" s="96"/>
+      <c r="BB28" s="96"/>
+      <c r="BC28" s="89"/>
+      <c r="BD28" s="53"/>
+      <c r="BE28" s="53"/>
+      <c r="BF28" s="53"/>
+      <c r="BG28" s="53"/>
+      <c r="BH28" s="53"/>
+      <c r="BI28" s="53"/>
+      <c r="BJ28" s="54"/>
+      <c r="BK28" s="90"/>
+      <c r="BL28" s="92"/>
+      <c r="BM28" s="109"/>
+      <c r="BN28" s="110"/>
+      <c r="BO28" s="110"/>
+    </row>
+    <row r="29" spans="22:67" ht="25.05" customHeight="1">
+      <c r="V29" s="75"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="42"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="42"/>
+      <c r="AK29" s="42"/>
+      <c r="AL29" s="42"/>
+      <c r="AM29" s="42"/>
+      <c r="AN29" s="68"/>
+      <c r="AO29" s="49"/>
+      <c r="AR29" s="97"/>
+      <c r="AS29" s="91"/>
+      <c r="AT29" s="52"/>
+      <c r="AU29" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="52"/>
-      <c r="AJ29" s="52"/>
-      <c r="AK29" s="52"/>
-      <c r="AL29" s="53"/>
-      <c r="AM29" s="53"/>
-      <c r="AN29" s="53"/>
-      <c r="AO29" s="53"/>
-      <c r="AP29" s="53"/>
-      <c r="AQ29" s="53"/>
-      <c r="AR29" s="54"/>
-      <c r="AS29" s="90"/>
-      <c r="AT29" s="92"/>
-      <c r="AU29" s="109"/>
-      <c r="AV29" s="110"/>
-      <c r="AW29" s="110"/>
-    </row>
-    <row r="30" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D30" s="75"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="49"/>
-      <c r="Z30" s="97"/>
-      <c r="AA30" s="91"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="67"/>
-      <c r="AE30" s="67"/>
-      <c r="AF30" s="67"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="67"/>
-      <c r="AJ30" s="52"/>
-      <c r="AK30" s="52"/>
-      <c r="AL30" s="53"/>
-      <c r="AM30" s="53"/>
-      <c r="AN30" s="53"/>
-      <c r="AO30" s="53"/>
-      <c r="AP30" s="53"/>
-      <c r="AQ30" s="53"/>
-      <c r="AR30" s="54"/>
-      <c r="AS30" s="90"/>
-      <c r="AT30" s="92"/>
-      <c r="AU30" s="109"/>
-      <c r="AV30" s="110"/>
-      <c r="AW30" s="110"/>
-    </row>
-    <row r="31" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D31" s="75"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="70"/>
-      <c r="S31" s="70"/>
-      <c r="T31" s="70"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="49"/>
-      <c r="Z31" s="97"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="49"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="58"/>
-      <c r="AJ31" s="52"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="53"/>
-      <c r="AN31" s="53"/>
-      <c r="AO31" s="53"/>
-      <c r="AP31" s="53"/>
-      <c r="AQ31" s="53"/>
-      <c r="AR31" s="54"/>
-      <c r="AS31" s="90"/>
-      <c r="AT31" s="92"/>
-      <c r="AU31" s="109"/>
-      <c r="AV31" s="110"/>
-      <c r="AW31" s="110"/>
-    </row>
-    <row r="32" spans="4:49" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D32" s="75"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="49"/>
-      <c r="Z32" s="97"/>
-      <c r="AA32" s="91"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="67"/>
-      <c r="AJ32" s="52"/>
-      <c r="AK32" s="49"/>
-      <c r="AL32" s="99"/>
-      <c r="AM32" s="100"/>
-      <c r="AN32" s="53"/>
-      <c r="AO32" s="54"/>
-      <c r="AP32" s="101"/>
-      <c r="AQ32" s="101"/>
-      <c r="AR32" s="100"/>
-      <c r="AS32" s="90"/>
-      <c r="AT32" s="92"/>
-      <c r="AU32" s="109"/>
-      <c r="AV32" s="110"/>
-      <c r="AW32" s="110"/>
-    </row>
-    <row r="33" spans="4:60" ht="25.05" customHeight="1">
-      <c r="D33" s="75"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="75"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="49"/>
-      <c r="Y33" s="112"/>
-      <c r="Z33" s="97"/>
-      <c r="AA33" s="91"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="49"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="54"/>
-      <c r="AJ33" s="52"/>
-      <c r="AK33" s="49"/>
-      <c r="AL33" s="53"/>
-      <c r="AM33" s="53"/>
-      <c r="AN33" s="53"/>
-      <c r="AO33" s="53"/>
-      <c r="AP33" s="53"/>
-      <c r="AQ33" s="53"/>
-      <c r="AR33" s="54"/>
-      <c r="AS33" s="90"/>
-      <c r="AT33" s="92"/>
-      <c r="AU33" s="109"/>
-      <c r="AV33" s="110"/>
-      <c r="AW33" s="110"/>
-    </row>
-    <row r="34" spans="4:60" ht="25.05" customHeight="1">
-      <c r="D34" s="40"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="75"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="68"/>
+      <c r="AV29" s="52"/>
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="52"/>
+      <c r="AY29" s="52"/>
+      <c r="AZ29" s="52"/>
+      <c r="BA29" s="52"/>
+      <c r="BB29" s="52"/>
+      <c r="BC29" s="52"/>
+      <c r="BD29" s="53"/>
+      <c r="BE29" s="53"/>
+      <c r="BF29" s="53"/>
+      <c r="BG29" s="53"/>
+      <c r="BH29" s="53"/>
+      <c r="BI29" s="53"/>
+      <c r="BJ29" s="54"/>
+      <c r="BK29" s="90"/>
+      <c r="BL29" s="92"/>
+      <c r="BM29" s="109"/>
+      <c r="BN29" s="110"/>
+      <c r="BO29" s="110"/>
+    </row>
+    <row r="30" spans="22:67" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V30" s="75"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="42"/>
+      <c r="AL30" s="42"/>
+      <c r="AM30" s="42"/>
+      <c r="AN30" s="68"/>
+      <c r="AO30" s="49"/>
+      <c r="AR30" s="97"/>
+      <c r="AS30" s="91"/>
+      <c r="AT30" s="52"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="67"/>
+      <c r="AW30" s="67"/>
+      <c r="AX30" s="67"/>
+      <c r="AY30" s="67"/>
+      <c r="AZ30" s="67"/>
+      <c r="BA30" s="67"/>
+      <c r="BB30" s="52"/>
+      <c r="BC30" s="52"/>
+      <c r="BD30" s="53"/>
+      <c r="BE30" s="53"/>
+      <c r="BF30" s="53"/>
+      <c r="BG30" s="53"/>
+      <c r="BH30" s="53"/>
+      <c r="BI30" s="53"/>
+      <c r="BJ30" s="54"/>
+      <c r="BK30" s="90"/>
+      <c r="BL30" s="92"/>
+      <c r="BM30" s="109"/>
+      <c r="BN30" s="110"/>
+      <c r="BO30" s="110"/>
+    </row>
+    <row r="31" spans="22:67" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V31" s="75"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="78"/>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="70"/>
+      <c r="AD31" s="70"/>
+      <c r="AE31" s="76"/>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="77"/>
+      <c r="AI31" s="70"/>
+      <c r="AJ31" s="70"/>
+      <c r="AK31" s="70"/>
+      <c r="AL31" s="70"/>
+      <c r="AM31" s="42"/>
+      <c r="AN31" s="68"/>
+      <c r="AO31" s="49"/>
+      <c r="AR31" s="97"/>
+      <c r="AS31" s="91"/>
+      <c r="AT31" s="52"/>
+      <c r="AU31" s="49"/>
+      <c r="AV31" s="52"/>
+      <c r="AW31" s="52"/>
+      <c r="AX31" s="52"/>
+      <c r="AY31" s="52"/>
+      <c r="AZ31" s="52"/>
+      <c r="BA31" s="58"/>
+      <c r="BB31" s="52"/>
+      <c r="BC31" s="49"/>
+      <c r="BD31" s="53"/>
+      <c r="BE31" s="53"/>
+      <c r="BF31" s="53"/>
+      <c r="BG31" s="53"/>
+      <c r="BH31" s="53"/>
+      <c r="BI31" s="53"/>
+      <c r="BJ31" s="54"/>
+      <c r="BK31" s="90"/>
+      <c r="BL31" s="92"/>
+      <c r="BM31" s="109"/>
+      <c r="BN31" s="110"/>
+      <c r="BO31" s="110"/>
+    </row>
+    <row r="32" spans="22:67" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V32" s="75"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="75"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="75"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="42"/>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="42"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="42"/>
+      <c r="AH32" s="42"/>
+      <c r="AI32" s="42"/>
+      <c r="AJ32" s="42"/>
+      <c r="AK32" s="42"/>
+      <c r="AL32" s="78"/>
+      <c r="AM32" s="42"/>
+      <c r="AN32" s="68"/>
+      <c r="AO32" s="49"/>
+      <c r="AR32" s="97"/>
+      <c r="AS32" s="91"/>
+      <c r="AT32" s="52"/>
+      <c r="AU32" s="49"/>
+      <c r="AV32" s="52"/>
+      <c r="AW32" s="52"/>
+      <c r="AX32" s="52"/>
+      <c r="AY32" s="67"/>
+      <c r="AZ32" s="67"/>
+      <c r="BA32" s="67"/>
+      <c r="BB32" s="52"/>
+      <c r="BC32" s="49"/>
+      <c r="BD32" s="99"/>
+      <c r="BE32" s="100"/>
+      <c r="BF32" s="53"/>
+      <c r="BG32" s="54"/>
+      <c r="BH32" s="101"/>
+      <c r="BI32" s="101"/>
+      <c r="BJ32" s="100"/>
+      <c r="BK32" s="90"/>
+      <c r="BL32" s="92"/>
+      <c r="BM32" s="109"/>
+      <c r="BN32" s="110"/>
+      <c r="BO32" s="110"/>
+    </row>
+    <row r="33" spans="22:78" ht="25.05" customHeight="1">
+      <c r="V33" s="75"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="75"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="42"/>
+      <c r="AE33" s="42"/>
+      <c r="AF33" s="42"/>
+      <c r="AG33" s="42"/>
+      <c r="AH33" s="42"/>
+      <c r="AI33" s="42"/>
+      <c r="AJ33" s="42"/>
+      <c r="AK33" s="42"/>
+      <c r="AL33" s="75"/>
+      <c r="AM33" s="42"/>
+      <c r="AN33" s="68"/>
+      <c r="AO33" s="49"/>
+      <c r="AQ33" s="112"/>
+      <c r="AR33" s="97"/>
+      <c r="AS33" s="91"/>
+      <c r="AT33" s="52"/>
+      <c r="AU33" s="49"/>
+      <c r="AV33" s="52"/>
+      <c r="AW33" s="49"/>
+      <c r="AX33" s="53"/>
+      <c r="AY33" s="53"/>
+      <c r="AZ33" s="53"/>
+      <c r="BA33" s="54"/>
+      <c r="BB33" s="52"/>
+      <c r="BC33" s="49"/>
+      <c r="BD33" s="53"/>
+      <c r="BE33" s="53"/>
+      <c r="BF33" s="53"/>
+      <c r="BG33" s="53"/>
+      <c r="BH33" s="53"/>
+      <c r="BI33" s="53"/>
+      <c r="BJ33" s="54"/>
+      <c r="BK33" s="90"/>
+      <c r="BL33" s="92"/>
+      <c r="BM33" s="109"/>
+      <c r="BN33" s="110"/>
+      <c r="BO33" s="110"/>
+    </row>
+    <row r="34" spans="22:78" ht="25.05" customHeight="1">
+      <c r="V34" s="40"/>
       <c r="W34" s="49"/>
-      <c r="Y34" s="90"/>
-      <c r="Z34" s="97"/>
-      <c r="AA34" s="91"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="49"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="53"/>
-      <c r="AG34" s="53"/>
-      <c r="AH34" s="53"/>
-      <c r="AI34" s="54"/>
-      <c r="AJ34" s="52"/>
-      <c r="AK34" s="49"/>
-      <c r="AL34" s="53"/>
-      <c r="AM34" s="53"/>
-      <c r="AN34" s="53"/>
-      <c r="AO34" s="53"/>
-      <c r="AP34" s="53"/>
-      <c r="AQ34" s="53"/>
-      <c r="AR34" s="54"/>
-      <c r="AS34" s="90"/>
-      <c r="AT34" s="92"/>
-      <c r="AU34" s="109"/>
-      <c r="AV34" s="110"/>
-      <c r="AW34" s="110"/>
-    </row>
-    <row r="35" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D35" s="40"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="75"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="68"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="42"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="42"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="42"/>
+      <c r="AH34" s="42"/>
+      <c r="AI34" s="42"/>
+      <c r="AJ34" s="42"/>
+      <c r="AK34" s="42"/>
+      <c r="AL34" s="75"/>
+      <c r="AM34" s="42"/>
+      <c r="AN34" s="68"/>
+      <c r="AO34" s="49"/>
+      <c r="AQ34" s="90"/>
+      <c r="AR34" s="97"/>
+      <c r="AS34" s="91"/>
+      <c r="AT34" s="52"/>
+      <c r="AU34" s="49"/>
+      <c r="AV34" s="68"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="53"/>
+      <c r="AZ34" s="53"/>
+      <c r="BA34" s="54"/>
+      <c r="BB34" s="52"/>
+      <c r="BC34" s="49"/>
+      <c r="BD34" s="53"/>
+      <c r="BE34" s="53"/>
+      <c r="BF34" s="53"/>
+      <c r="BG34" s="53"/>
+      <c r="BH34" s="53"/>
+      <c r="BI34" s="53"/>
+      <c r="BJ34" s="54"/>
+      <c r="BK34" s="90"/>
+      <c r="BL34" s="92"/>
+      <c r="BM34" s="109"/>
+      <c r="BN34" s="110"/>
+      <c r="BO34" s="110"/>
+    </row>
+    <row r="35" spans="22:78" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V35" s="40"/>
       <c r="W35" s="49"/>
-      <c r="Y35" s="92"/>
-      <c r="Z35" s="97"/>
-      <c r="AA35" s="91"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="49"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="57"/>
-      <c r="AJ35" s="52"/>
-      <c r="AK35" s="52"/>
-      <c r="AL35" s="53"/>
-      <c r="AM35" s="53"/>
-      <c r="AN35" s="53"/>
-      <c r="AO35" s="53"/>
-      <c r="AP35" s="53"/>
-      <c r="AQ35" s="53"/>
-      <c r="AR35" s="54"/>
-      <c r="AS35" s="90"/>
-      <c r="AT35" s="92"/>
-      <c r="AU35" s="111"/>
-      <c r="AV35" s="110"/>
-      <c r="AW35" s="110"/>
-    </row>
-    <row r="36" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D36" s="40"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="75"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="68"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="75"/>
+      <c r="Z35" s="42"/>
+      <c r="AA35" s="75"/>
+      <c r="AB35" s="42"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="42"/>
+      <c r="AF35" s="42"/>
+      <c r="AG35" s="42"/>
+      <c r="AH35" s="42"/>
+      <c r="AI35" s="42"/>
+      <c r="AJ35" s="42"/>
+      <c r="AK35" s="42"/>
+      <c r="AL35" s="75"/>
+      <c r="AM35" s="42"/>
+      <c r="AN35" s="68"/>
+      <c r="AO35" s="49"/>
+      <c r="AQ35" s="92"/>
+      <c r="AR35" s="97"/>
+      <c r="AS35" s="91"/>
+      <c r="AT35" s="52"/>
+      <c r="AU35" s="49"/>
+      <c r="AV35" s="68"/>
+      <c r="AW35" s="49"/>
+      <c r="AX35" s="56"/>
+      <c r="AY35" s="56"/>
+      <c r="AZ35" s="56"/>
+      <c r="BA35" s="57"/>
+      <c r="BB35" s="52"/>
+      <c r="BC35" s="52"/>
+      <c r="BD35" s="53"/>
+      <c r="BE35" s="53"/>
+      <c r="BF35" s="53"/>
+      <c r="BG35" s="53"/>
+      <c r="BH35" s="53"/>
+      <c r="BI35" s="53"/>
+      <c r="BJ35" s="54"/>
+      <c r="BK35" s="90"/>
+      <c r="BL35" s="92"/>
+      <c r="BM35" s="111"/>
+      <c r="BN35" s="110"/>
+      <c r="BO35" s="110"/>
+    </row>
+    <row r="36" spans="22:78" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V36" s="40"/>
       <c r="W36" s="49"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="90"/>
-      <c r="Z36" s="97"/>
-      <c r="AA36" s="91"/>
-      <c r="AB36" s="68"/>
-      <c r="AC36" s="52"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="58"/>
-      <c r="AG36" s="58"/>
-      <c r="AH36" s="52"/>
-      <c r="AI36" s="52"/>
-      <c r="AJ36" s="52"/>
-      <c r="AK36" s="49"/>
-      <c r="AL36" s="56"/>
-      <c r="AM36" s="56"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="56"/>
-      <c r="AQ36" s="53"/>
-      <c r="AR36" s="57"/>
-      <c r="AS36" s="90"/>
-      <c r="AT36" s="92"/>
-      <c r="AU36" s="109"/>
-      <c r="AV36" s="110"/>
-      <c r="AW36" s="110"/>
-    </row>
-    <row r="37" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D37" s="40"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="75"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="68"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="75"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="75"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="42"/>
+      <c r="AI36" s="42"/>
+      <c r="AJ36" s="42"/>
+      <c r="AK36" s="42"/>
+      <c r="AL36" s="75"/>
+      <c r="AM36" s="42"/>
+      <c r="AN36" s="68"/>
+      <c r="AO36" s="49"/>
+      <c r="AP36" s="40"/>
+      <c r="AQ36" s="90"/>
+      <c r="AR36" s="97"/>
+      <c r="AS36" s="91"/>
+      <c r="AT36" s="68"/>
+      <c r="AU36" s="52"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="58"/>
+      <c r="AY36" s="58"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
+      <c r="BB36" s="52"/>
+      <c r="BC36" s="49"/>
+      <c r="BD36" s="56"/>
+      <c r="BE36" s="56"/>
+      <c r="BF36" s="56"/>
+      <c r="BG36" s="56"/>
+      <c r="BH36" s="56"/>
+      <c r="BI36" s="53"/>
+      <c r="BJ36" s="57"/>
+      <c r="BK36" s="90"/>
+      <c r="BL36" s="92"/>
+      <c r="BM36" s="109"/>
+      <c r="BN36" s="110"/>
+      <c r="BO36" s="110"/>
+    </row>
+    <row r="37" spans="22:78" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V37" s="40"/>
       <c r="W37" s="49"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="97"/>
-      <c r="AA37" s="91"/>
-      <c r="AB37" s="71"/>
-      <c r="AC37" s="67"/>
-      <c r="AD37" s="67"/>
-      <c r="AE37" s="67"/>
-      <c r="AF37" s="67"/>
-      <c r="AG37" s="52"/>
-      <c r="AH37" s="52"/>
-      <c r="AI37" s="67"/>
-      <c r="AJ37" s="67"/>
-      <c r="AK37" s="72"/>
-      <c r="AL37" s="102"/>
-      <c r="AM37" s="59"/>
-      <c r="AN37" s="53"/>
-      <c r="AO37" s="53"/>
-      <c r="AP37" s="53"/>
-      <c r="AQ37" s="53"/>
-      <c r="AR37" s="54"/>
-      <c r="AS37" s="90"/>
-      <c r="AT37" s="92"/>
-      <c r="AU37" s="110"/>
-      <c r="AV37" s="110"/>
-      <c r="AW37" s="110"/>
-    </row>
-    <row r="38" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D38" s="40"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="75"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="68"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="75"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="75"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="42"/>
+      <c r="AE37" s="42"/>
+      <c r="AF37" s="42"/>
+      <c r="AG37" s="42"/>
+      <c r="AH37" s="42"/>
+      <c r="AI37" s="42"/>
+      <c r="AJ37" s="42"/>
+      <c r="AK37" s="42"/>
+      <c r="AL37" s="75"/>
+      <c r="AM37" s="42"/>
+      <c r="AN37" s="68"/>
+      <c r="AO37" s="49"/>
+      <c r="AQ37" s="42"/>
+      <c r="AR37" s="97"/>
+      <c r="AS37" s="91"/>
+      <c r="AT37" s="71"/>
+      <c r="AU37" s="67"/>
+      <c r="AV37" s="67"/>
+      <c r="AW37" s="67"/>
+      <c r="AX37" s="67"/>
+      <c r="AY37" s="52"/>
+      <c r="AZ37" s="52"/>
+      <c r="BA37" s="67"/>
+      <c r="BB37" s="67"/>
+      <c r="BC37" s="72"/>
+      <c r="BD37" s="102"/>
+      <c r="BE37" s="59"/>
+      <c r="BF37" s="53"/>
+      <c r="BG37" s="53"/>
+      <c r="BH37" s="53"/>
+      <c r="BI37" s="53"/>
+      <c r="BJ37" s="54"/>
+      <c r="BK37" s="90"/>
+      <c r="BL37" s="92"/>
+      <c r="BM37" s="110"/>
+      <c r="BN37" s="110"/>
+      <c r="BO37" s="110"/>
+    </row>
+    <row r="38" spans="22:78" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V38" s="40"/>
       <c r="W38" s="49"/>
-      <c r="Z38" s="97"/>
-      <c r="AA38" s="90"/>
-      <c r="AB38" s="90"/>
-      <c r="AC38" s="90"/>
-      <c r="AD38" s="90"/>
-      <c r="AE38" s="90"/>
-      <c r="AF38" s="59"/>
-      <c r="AG38" s="53"/>
-      <c r="AH38" s="53"/>
-      <c r="AI38" s="53"/>
-      <c r="AJ38" s="53"/>
-      <c r="AK38" s="54"/>
-      <c r="AL38" s="103"/>
-      <c r="AM38" s="91"/>
-      <c r="AN38" s="53"/>
-      <c r="AO38" s="53"/>
-      <c r="AP38" s="53"/>
-      <c r="AQ38" s="53"/>
-      <c r="AR38" s="54"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="75"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="75"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="42"/>
+      <c r="AE38" s="42"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="42"/>
+      <c r="AH38" s="42"/>
+      <c r="AI38" s="42"/>
+      <c r="AJ38" s="42"/>
+      <c r="AK38" s="42"/>
+      <c r="AL38" s="75"/>
+      <c r="AM38" s="42"/>
+      <c r="AN38" s="68"/>
+      <c r="AO38" s="49"/>
+      <c r="AR38" s="97"/>
       <c r="AS38" s="90"/>
-      <c r="AT38" s="92"/>
-      <c r="AU38" s="110"/>
-      <c r="AV38" s="110"/>
-      <c r="AW38" s="110"/>
-    </row>
-    <row r="39" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D39" s="40"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="70"/>
-      <c r="P39" s="70"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="71"/>
-      <c r="W39" s="72"/>
-      <c r="Z39" s="97"/>
-      <c r="AA39" s="90"/>
-      <c r="AB39" s="90"/>
-      <c r="AC39" s="90"/>
-      <c r="AD39" s="90"/>
-      <c r="AE39" s="90"/>
-      <c r="AF39" s="91"/>
-      <c r="AG39" s="53"/>
-      <c r="AH39" s="53"/>
-      <c r="AI39" s="53"/>
-      <c r="AJ39" s="53"/>
-      <c r="AK39" s="54"/>
-      <c r="AL39" s="103"/>
-      <c r="AM39" s="91"/>
-      <c r="AN39" s="53"/>
-      <c r="AO39" s="53"/>
-      <c r="AP39" s="53"/>
-      <c r="AQ39" s="53"/>
-      <c r="AR39" s="54"/>
+      <c r="AT38" s="90"/>
+      <c r="AU38" s="90"/>
+      <c r="AV38" s="90"/>
+      <c r="AW38" s="90"/>
+      <c r="AX38" s="59"/>
+      <c r="AY38" s="53"/>
+      <c r="AZ38" s="53"/>
+      <c r="BA38" s="53"/>
+      <c r="BB38" s="53"/>
+      <c r="BC38" s="54"/>
+      <c r="BD38" s="103"/>
+      <c r="BE38" s="91"/>
+      <c r="BF38" s="53"/>
+      <c r="BG38" s="53"/>
+      <c r="BH38" s="53"/>
+      <c r="BI38" s="53"/>
+      <c r="BJ38" s="54"/>
+      <c r="BK38" s="90"/>
+      <c r="BL38" s="92"/>
+      <c r="BM38" s="110"/>
+      <c r="BN38" s="110"/>
+      <c r="BO38" s="110"/>
+    </row>
+    <row r="39" spans="22:78" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V39" s="40"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="79"/>
+      <c r="Z39" s="80"/>
+      <c r="AA39" s="79"/>
+      <c r="AB39" s="42"/>
+      <c r="AC39" s="77"/>
+      <c r="AD39" s="70"/>
+      <c r="AE39" s="70"/>
+      <c r="AF39" s="70"/>
+      <c r="AG39" s="70"/>
+      <c r="AH39" s="70"/>
+      <c r="AI39" s="76"/>
+      <c r="AJ39" s="42"/>
+      <c r="AK39" s="79"/>
+      <c r="AL39" s="79"/>
+      <c r="AM39" s="42"/>
+      <c r="AN39" s="71"/>
+      <c r="AO39" s="72"/>
+      <c r="AR39" s="97"/>
       <c r="AS39" s="90"/>
-      <c r="AT39" s="92"/>
-      <c r="AU39" s="110"/>
-      <c r="AV39" s="110"/>
-      <c r="AW39" s="110"/>
-    </row>
-    <row r="40" spans="4:60" ht="25.05" customHeight="1">
-      <c r="D40" s="40"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="43"/>
-      <c r="Z40" s="97"/>
-      <c r="AA40" s="90"/>
-      <c r="AB40" s="90"/>
-      <c r="AC40" s="90"/>
-      <c r="AD40" s="90"/>
-      <c r="AE40" s="90"/>
-      <c r="AF40" s="91"/>
-      <c r="AG40" s="53"/>
-      <c r="AH40" s="53"/>
-      <c r="AI40" s="53"/>
-      <c r="AJ40" s="53"/>
-      <c r="AK40" s="54"/>
-      <c r="AL40" s="103"/>
-      <c r="AM40" s="91"/>
-      <c r="AN40" s="53"/>
-      <c r="AO40" s="53"/>
-      <c r="AP40" s="53"/>
-      <c r="AQ40" s="53"/>
-      <c r="AR40" s="54"/>
+      <c r="AT39" s="90"/>
+      <c r="AU39" s="90"/>
+      <c r="AV39" s="90"/>
+      <c r="AW39" s="90"/>
+      <c r="AX39" s="91"/>
+      <c r="AY39" s="53"/>
+      <c r="AZ39" s="53"/>
+      <c r="BA39" s="53"/>
+      <c r="BB39" s="53"/>
+      <c r="BC39" s="54"/>
+      <c r="BD39" s="103"/>
+      <c r="BE39" s="91"/>
+      <c r="BF39" s="53"/>
+      <c r="BG39" s="53"/>
+      <c r="BH39" s="53"/>
+      <c r="BI39" s="53"/>
+      <c r="BJ39" s="54"/>
+      <c r="BK39" s="90"/>
+      <c r="BL39" s="92"/>
+      <c r="BM39" s="110"/>
+      <c r="BN39" s="110"/>
+      <c r="BO39" s="110"/>
+    </row>
+    <row r="40" spans="22:78" ht="25.05" customHeight="1">
+      <c r="V40" s="40"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="42"/>
+      <c r="AB40" s="42"/>
+      <c r="AC40" s="42"/>
+      <c r="AD40" s="42"/>
+      <c r="AE40" s="42"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="42"/>
+      <c r="AH40" s="42"/>
+      <c r="AI40" s="42"/>
+      <c r="AJ40" s="42"/>
+      <c r="AK40" s="42"/>
+      <c r="AL40" s="42"/>
+      <c r="AM40" s="42"/>
+      <c r="AN40" s="42"/>
+      <c r="AO40" s="43"/>
+      <c r="AR40" s="97"/>
       <c r="AS40" s="90"/>
-      <c r="AT40" s="92"/>
-      <c r="AU40" s="110"/>
-      <c r="AV40" s="110"/>
-      <c r="AW40" s="110"/>
-    </row>
-    <row r="41" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D41" s="40"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="43"/>
-      <c r="Z41" s="97"/>
-      <c r="AA41" s="90"/>
-      <c r="AB41" s="90"/>
-      <c r="AC41" s="90"/>
-      <c r="AD41" s="90"/>
-      <c r="AE41" s="90"/>
-      <c r="AF41" s="91"/>
-      <c r="AG41" s="53"/>
-      <c r="AH41" s="53"/>
-      <c r="AI41" s="53"/>
-      <c r="AJ41" s="53"/>
-      <c r="AK41" s="54"/>
-      <c r="AL41" s="103"/>
-      <c r="AM41" s="91"/>
-      <c r="AN41" s="53"/>
-      <c r="AO41" s="53"/>
-      <c r="AP41" s="53"/>
-      <c r="AQ41" s="53"/>
-      <c r="AR41" s="54"/>
+      <c r="AT40" s="90"/>
+      <c r="AU40" s="90"/>
+      <c r="AV40" s="90"/>
+      <c r="AW40" s="90"/>
+      <c r="AX40" s="91"/>
+      <c r="AY40" s="53"/>
+      <c r="AZ40" s="53"/>
+      <c r="BA40" s="53"/>
+      <c r="BB40" s="53"/>
+      <c r="BC40" s="54"/>
+      <c r="BD40" s="103"/>
+      <c r="BE40" s="91"/>
+      <c r="BF40" s="53"/>
+      <c r="BG40" s="53"/>
+      <c r="BH40" s="53"/>
+      <c r="BI40" s="53"/>
+      <c r="BJ40" s="54"/>
+      <c r="BK40" s="90"/>
+      <c r="BL40" s="92"/>
+      <c r="BM40" s="110"/>
+      <c r="BN40" s="110"/>
+      <c r="BO40" s="110"/>
+    </row>
+    <row r="41" spans="22:78" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V41" s="40"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="42"/>
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="42"/>
+      <c r="AD41" s="42"/>
+      <c r="AE41" s="42"/>
+      <c r="AF41" s="42"/>
+      <c r="AG41" s="42"/>
+      <c r="AH41" s="42"/>
+      <c r="AI41" s="42"/>
+      <c r="AJ41" s="42"/>
+      <c r="AK41" s="42"/>
+      <c r="AL41" s="42"/>
+      <c r="AM41" s="42"/>
+      <c r="AN41" s="42"/>
+      <c r="AO41" s="43"/>
+      <c r="AR41" s="97"/>
       <c r="AS41" s="90"/>
-      <c r="AT41" s="92"/>
-      <c r="AU41" s="110"/>
-      <c r="AV41" s="110"/>
-      <c r="AW41" s="110"/>
-    </row>
-    <row r="42" spans="4:60" ht="25.05" customHeight="1" thickBot="1">
-      <c r="D42" s="44"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="70"/>
-      <c r="Q42" s="70"/>
-      <c r="R42" s="70"/>
-      <c r="S42" s="70"/>
-      <c r="T42" s="70"/>
-      <c r="U42" s="76"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="46"/>
-      <c r="Z42" s="97"/>
-      <c r="AA42" s="90"/>
-      <c r="AB42" s="90"/>
-      <c r="AC42" s="90"/>
-      <c r="AD42" s="90"/>
-      <c r="AE42" s="90"/>
-      <c r="AF42" s="91"/>
-      <c r="AG42" s="53"/>
-      <c r="AH42" s="53"/>
-      <c r="AI42" s="53"/>
-      <c r="AJ42" s="53"/>
-      <c r="AK42" s="54"/>
-      <c r="AL42" s="103"/>
-      <c r="AM42" s="91"/>
-      <c r="AN42" s="53"/>
-      <c r="AO42" s="53"/>
-      <c r="AP42" s="53"/>
-      <c r="AQ42" s="53"/>
-      <c r="AR42" s="54"/>
+      <c r="AT41" s="90"/>
+      <c r="AU41" s="90"/>
+      <c r="AV41" s="90"/>
+      <c r="AW41" s="90"/>
+      <c r="AX41" s="91"/>
+      <c r="AY41" s="53"/>
+      <c r="AZ41" s="53"/>
+      <c r="BA41" s="53"/>
+      <c r="BB41" s="53"/>
+      <c r="BC41" s="54"/>
+      <c r="BD41" s="103"/>
+      <c r="BE41" s="91"/>
+      <c r="BF41" s="53"/>
+      <c r="BG41" s="53"/>
+      <c r="BH41" s="53"/>
+      <c r="BI41" s="53"/>
+      <c r="BJ41" s="54"/>
+      <c r="BK41" s="90"/>
+      <c r="BL41" s="92"/>
+      <c r="BM41" s="110"/>
+      <c r="BN41" s="110"/>
+      <c r="BO41" s="110"/>
+    </row>
+    <row r="42" spans="22:78" ht="25.05" customHeight="1" thickBot="1">
+      <c r="V42" s="44"/>
+      <c r="W42" s="70"/>
+      <c r="X42" s="70"/>
+      <c r="Y42" s="70"/>
+      <c r="Z42" s="70"/>
+      <c r="AA42" s="70"/>
+      <c r="AB42" s="70"/>
+      <c r="AC42" s="70"/>
+      <c r="AD42" s="70"/>
+      <c r="AE42" s="70"/>
+      <c r="AF42" s="70"/>
+      <c r="AG42" s="70"/>
+      <c r="AH42" s="70"/>
+      <c r="AI42" s="70"/>
+      <c r="AJ42" s="70"/>
+      <c r="AK42" s="70"/>
+      <c r="AL42" s="70"/>
+      <c r="AM42" s="76"/>
+      <c r="AN42" s="45"/>
+      <c r="AO42" s="46"/>
+      <c r="AR42" s="97"/>
       <c r="AS42" s="90"/>
-      <c r="AT42" s="92"/>
-      <c r="AU42" s="110"/>
-      <c r="AV42" s="110"/>
-      <c r="AW42" s="110"/>
-    </row>
-    <row r="43" spans="4:60" ht="19.95" customHeight="1">
-      <c r="Z43" s="97"/>
-      <c r="AA43" s="90"/>
-      <c r="AB43" s="90"/>
-      <c r="AC43" s="90"/>
-      <c r="AD43" s="90"/>
-      <c r="AE43" s="90"/>
-      <c r="AF43" s="91"/>
-      <c r="AG43" s="53"/>
-      <c r="AH43" s="53"/>
-      <c r="AI43" s="53"/>
-      <c r="AJ43" s="53"/>
-      <c r="AK43" s="54"/>
-      <c r="AL43" s="103"/>
-      <c r="AM43" s="91"/>
-      <c r="AN43" s="53"/>
-      <c r="AO43" s="53"/>
-      <c r="AP43" s="53"/>
-      <c r="AQ43" s="53"/>
-      <c r="AR43" s="54"/>
+      <c r="AT42" s="90"/>
+      <c r="AU42" s="90"/>
+      <c r="AV42" s="90"/>
+      <c r="AW42" s="90"/>
+      <c r="AX42" s="91"/>
+      <c r="AY42" s="53"/>
+      <c r="AZ42" s="53"/>
+      <c r="BA42" s="53"/>
+      <c r="BB42" s="53"/>
+      <c r="BC42" s="54"/>
+      <c r="BD42" s="103"/>
+      <c r="BE42" s="91"/>
+      <c r="BF42" s="53"/>
+      <c r="BG42" s="53"/>
+      <c r="BH42" s="53"/>
+      <c r="BI42" s="53"/>
+      <c r="BJ42" s="54"/>
+      <c r="BK42" s="90"/>
+      <c r="BL42" s="92"/>
+      <c r="BM42" s="110"/>
+      <c r="BN42" s="110"/>
+      <c r="BO42" s="110"/>
+    </row>
+    <row r="43" spans="22:78" ht="19.95" customHeight="1">
+      <c r="AR43" s="97"/>
       <c r="AS43" s="90"/>
-      <c r="AT43" s="92"/>
-      <c r="AU43" s="110"/>
-      <c r="AV43" s="110"/>
-      <c r="AW43" s="110"/>
-    </row>
-    <row r="44" spans="4:60" ht="19.95" customHeight="1" thickBot="1">
-      <c r="Z44" s="97"/>
-      <c r="AA44" s="90"/>
-      <c r="AB44" s="90"/>
-      <c r="AC44" s="90"/>
-      <c r="AD44" s="90"/>
-      <c r="AE44" s="90"/>
-      <c r="AF44" s="91"/>
-      <c r="AG44" s="53"/>
-      <c r="AH44" s="53"/>
-      <c r="AI44" s="53"/>
-      <c r="AJ44" s="53"/>
-      <c r="AK44" s="54"/>
-      <c r="AL44" s="95"/>
-      <c r="AM44" s="89"/>
-      <c r="AN44" s="53"/>
-      <c r="AO44" s="53"/>
-      <c r="AP44" s="53"/>
-      <c r="AQ44" s="53"/>
-      <c r="AR44" s="54"/>
+      <c r="AT43" s="90"/>
+      <c r="AU43" s="90"/>
+      <c r="AV43" s="90"/>
+      <c r="AW43" s="90"/>
+      <c r="AX43" s="91"/>
+      <c r="AY43" s="53"/>
+      <c r="AZ43" s="53"/>
+      <c r="BA43" s="53"/>
+      <c r="BB43" s="53"/>
+      <c r="BC43" s="54"/>
+      <c r="BD43" s="103"/>
+      <c r="BE43" s="91"/>
+      <c r="BF43" s="53"/>
+      <c r="BG43" s="53"/>
+      <c r="BH43" s="53"/>
+      <c r="BI43" s="53"/>
+      <c r="BJ43" s="54"/>
+      <c r="BK43" s="90"/>
+      <c r="BL43" s="92"/>
+      <c r="BM43" s="110"/>
+      <c r="BN43" s="110"/>
+      <c r="BO43" s="110"/>
+    </row>
+    <row r="44" spans="22:78" ht="19.95" customHeight="1" thickBot="1">
+      <c r="AR44" s="97"/>
       <c r="AS44" s="90"/>
-      <c r="AT44" s="92"/>
-      <c r="AU44" s="110"/>
-      <c r="AV44" s="110"/>
-      <c r="AW44" s="110"/>
-      <c r="BH44" t="s">
+      <c r="AT44" s="90"/>
+      <c r="AU44" s="90"/>
+      <c r="AV44" s="90"/>
+      <c r="AW44" s="90"/>
+      <c r="AX44" s="91"/>
+      <c r="AY44" s="53"/>
+      <c r="AZ44" s="53"/>
+      <c r="BA44" s="53"/>
+      <c r="BB44" s="53"/>
+      <c r="BC44" s="54"/>
+      <c r="BD44" s="95"/>
+      <c r="BE44" s="89"/>
+      <c r="BF44" s="53"/>
+      <c r="BG44" s="53"/>
+      <c r="BH44" s="53"/>
+      <c r="BI44" s="53"/>
+      <c r="BJ44" s="54"/>
+      <c r="BK44" s="90"/>
+      <c r="BL44" s="92"/>
+      <c r="BM44" s="110"/>
+      <c r="BN44" s="110"/>
+      <c r="BO44" s="110"/>
+      <c r="BZ44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="4:60" ht="19.95" customHeight="1">
-      <c r="Z45" s="97"/>
-      <c r="AA45" s="90"/>
-      <c r="AB45" s="90"/>
-      <c r="AC45" s="90"/>
-      <c r="AD45" s="90"/>
-      <c r="AE45" s="90"/>
-      <c r="AF45" s="91"/>
-      <c r="AG45" s="53"/>
-      <c r="AH45" s="53"/>
-      <c r="AI45" s="53"/>
-      <c r="AJ45" s="53"/>
-      <c r="AK45" s="53"/>
-      <c r="AL45" s="52"/>
-      <c r="AM45" s="52"/>
-      <c r="AN45" s="53"/>
-      <c r="AO45" s="53"/>
-      <c r="AP45" s="53"/>
-      <c r="AQ45" s="53"/>
-      <c r="AR45" s="54"/>
+    <row r="45" spans="22:78" ht="19.95" customHeight="1">
+      <c r="AR45" s="97"/>
       <c r="AS45" s="90"/>
-      <c r="AT45" s="92"/>
-      <c r="AU45" s="111"/>
-      <c r="AV45" s="110"/>
-      <c r="AW45" s="110"/>
-    </row>
-    <row r="46" spans="4:60" ht="19.95" customHeight="1" thickBot="1">
-      <c r="Y46" s="42"/>
-      <c r="Z46" s="104"/>
-      <c r="AA46" s="105"/>
-      <c r="AB46" s="105"/>
-      <c r="AC46" s="105"/>
-      <c r="AD46" s="105"/>
-      <c r="AE46" s="105"/>
-      <c r="AF46" s="106"/>
-      <c r="AG46" s="55"/>
-      <c r="AH46" s="56"/>
-      <c r="AI46" s="56"/>
-      <c r="AJ46" s="56"/>
-      <c r="AK46" s="56"/>
-      <c r="AL46" s="67"/>
-      <c r="AM46" s="67"/>
-      <c r="AN46" s="56"/>
-      <c r="AO46" s="56"/>
-      <c r="AP46" s="56"/>
-      <c r="AQ46" s="56"/>
-      <c r="AR46" s="57"/>
-      <c r="AS46" s="107"/>
-      <c r="AT46" s="108"/>
-    </row>
-    <row r="47" spans="4:60" ht="19.95" customHeight="1">
-      <c r="Z47" s="42"/>
-      <c r="AA47" s="42"/>
-      <c r="AB47" s="42"/>
-      <c r="AC47" s="42"/>
-      <c r="AD47" s="42"/>
-      <c r="AE47" s="42"/>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42"/>
-      <c r="AI47" s="42"/>
-      <c r="AJ47" s="42"/>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="42"/>
-      <c r="AM47" s="42"/>
-      <c r="AN47" s="42"/>
-      <c r="AO47" s="42"/>
-      <c r="AP47" s="42"/>
-      <c r="AQ47" s="42"/>
+      <c r="AT45" s="90"/>
+      <c r="AU45" s="90"/>
+      <c r="AV45" s="90"/>
+      <c r="AW45" s="90"/>
+      <c r="AX45" s="91"/>
+      <c r="AY45" s="53"/>
+      <c r="AZ45" s="53"/>
+      <c r="BA45" s="53"/>
+      <c r="BB45" s="53"/>
+      <c r="BC45" s="53"/>
+      <c r="BD45" s="52"/>
+      <c r="BE45" s="52"/>
+      <c r="BF45" s="53"/>
+      <c r="BG45" s="53"/>
+      <c r="BH45" s="53"/>
+      <c r="BI45" s="53"/>
+      <c r="BJ45" s="54"/>
+      <c r="BK45" s="90"/>
+      <c r="BL45" s="92"/>
+      <c r="BM45" s="111"/>
+      <c r="BN45" s="110"/>
+      <c r="BO45" s="110"/>
+    </row>
+    <row r="46" spans="22:78" ht="19.95" customHeight="1" thickBot="1">
+      <c r="AQ46" s="42"/>
+      <c r="AR46" s="104"/>
+      <c r="AS46" s="105"/>
+      <c r="AT46" s="105"/>
+      <c r="AU46" s="105"/>
+      <c r="AV46" s="105"/>
+      <c r="AW46" s="105"/>
+      <c r="AX46" s="106"/>
+      <c r="AY46" s="55"/>
+      <c r="AZ46" s="56"/>
+      <c r="BA46" s="56"/>
+      <c r="BB46" s="56"/>
+      <c r="BC46" s="56"/>
+      <c r="BD46" s="67"/>
+      <c r="BE46" s="67"/>
+      <c r="BF46" s="56"/>
+      <c r="BG46" s="56"/>
+      <c r="BH46" s="56"/>
+      <c r="BI46" s="56"/>
+      <c r="BJ46" s="57"/>
+      <c r="BK46" s="107"/>
+      <c r="BL46" s="108"/>
+    </row>
+    <row r="47" spans="22:78" ht="19.95" customHeight="1">
       <c r="AR47" s="42"/>
       <c r="AS47" s="42"/>
       <c r="AT47" s="42"/>
@@ -6752,26 +6967,26 @@
       <c r="AV47" s="42"/>
       <c r="AW47" s="42"/>
       <c r="AX47" s="42"/>
-    </row>
-    <row r="48" spans="4:60" ht="19.95" customHeight="1">
-      <c r="Z48" s="42"/>
-      <c r="AA48" s="42"/>
-      <c r="AB48" s="42"/>
-      <c r="AC48" s="42"/>
-      <c r="AD48" s="42"/>
-      <c r="AE48" s="42"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="42"/>
-      <c r="AH48" s="42"/>
-      <c r="AI48" s="42"/>
-      <c r="AJ48" s="42"/>
-      <c r="AK48" s="42"/>
-      <c r="AL48" s="42"/>
-      <c r="AM48" s="42"/>
-      <c r="AN48" s="42"/>
-      <c r="AO48" s="42"/>
-      <c r="AP48" s="42"/>
-      <c r="AQ48" s="42"/>
+      <c r="AY47" s="42"/>
+      <c r="AZ47" s="42"/>
+      <c r="BA47" s="42"/>
+      <c r="BB47" s="42"/>
+      <c r="BC47" s="42"/>
+      <c r="BD47" s="42"/>
+      <c r="BE47" s="42"/>
+      <c r="BF47" s="42"/>
+      <c r="BG47" s="42"/>
+      <c r="BH47" s="42"/>
+      <c r="BI47" s="42"/>
+      <c r="BJ47" s="42"/>
+      <c r="BK47" s="42"/>
+      <c r="BL47" s="42"/>
+      <c r="BM47" s="42"/>
+      <c r="BN47" s="42"/>
+      <c r="BO47" s="42"/>
+      <c r="BP47" s="42"/>
+    </row>
+    <row r="48" spans="22:78" ht="19.95" customHeight="1">
       <c r="AR48" s="42"/>
       <c r="AS48" s="42"/>
       <c r="AT48" s="42"/>
@@ -6779,6 +6994,24 @@
       <c r="AV48" s="42"/>
       <c r="AW48" s="42"/>
       <c r="AX48" s="42"/>
+      <c r="AY48" s="42"/>
+      <c r="AZ48" s="42"/>
+      <c r="BA48" s="42"/>
+      <c r="BB48" s="42"/>
+      <c r="BC48" s="42"/>
+      <c r="BD48" s="42"/>
+      <c r="BE48" s="42"/>
+      <c r="BF48" s="42"/>
+      <c r="BG48" s="42"/>
+      <c r="BH48" s="42"/>
+      <c r="BI48" s="42"/>
+      <c r="BJ48" s="42"/>
+      <c r="BK48" s="42"/>
+      <c r="BL48" s="42"/>
+      <c r="BM48" s="42"/>
+      <c r="BN48" s="42"/>
+      <c r="BO48" s="42"/>
+      <c r="BP48" s="42"/>
     </row>
     <row r="49" ht="19.95" customHeight="1"/>
     <row r="50" ht="19.95" customHeight="1"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github5\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA022A8-9F13-4F2B-80C9-E3A9ECF819FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000AB0AF-82D6-4A34-A8D9-86193944E91E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="195">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -1290,6 +1290,10 @@
   </si>
   <si>
     <t>door.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3103,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3218,7 +3222,10 @@
         <v>133</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -3383,6 +3390,9 @@
       <c r="D24" s="63" t="s">
         <v>153</v>
       </c>
+      <c r="E24" s="62" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="116" t="s">
@@ -3393,6 +3403,9 @@
       </c>
       <c r="D25" s="63" t="s">
         <v>153</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:5">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github5\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作2\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000AB0AF-82D6-4A34-A8D9-86193944E91E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98EA775-9688-4EC1-B96E-53BD5E088217}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" activeTab="3" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="やることリスト　プログラミング" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="195">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -3107,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3156,7 +3156,9 @@
       <c r="D4" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="66" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="116" t="s">
@@ -3168,6 +3170,9 @@
       <c r="D5" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E5" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="116" t="s">
@@ -3179,6 +3184,9 @@
       <c r="D6" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E6" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="116" t="s">
@@ -3190,6 +3198,9 @@
       <c r="D7" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E7" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="116" t="s">
@@ -3508,6 +3519,9 @@
       <c r="D35" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E35" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="116" t="s">
@@ -3519,6 +3533,9 @@
       <c r="D36" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E36" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="116" t="s">
@@ -3527,7 +3544,12 @@
       <c r="C37" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="63"/>
+      <c r="D37" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="116" t="s">
@@ -7189,7 +7211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF58BBBC-D08F-44AA-BEF2-75C4694003F0}">
   <dimension ref="A1:K222"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github5\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000AB0AF-82D6-4A34-A8D9-86193944E91E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D33945-C92C-4C5A-A2D1-7ADD71BE1F61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="195">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -3107,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3281,6 +3281,9 @@
       <c r="D15" s="63" t="s">
         <v>153</v>
       </c>
+      <c r="E15" s="62" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="116" t="s">
@@ -3306,6 +3309,9 @@
       <c r="D17" s="63" t="s">
         <v>153</v>
       </c>
+      <c r="E17" s="62" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="116" t="s">
@@ -3316,6 +3322,9 @@
       </c>
       <c r="D18" s="63" t="s">
         <v>153</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:5">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Sh2ot\GIt用フォルダ\新しいフォルダー (4)\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC33971-A258-47C9-8163-4C51543C078E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FF09D1-2EBB-4275-992B-3F79D42ACF83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" firstSheet="1" activeTab="3" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="やることリスト　プログラミング" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="198">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -1298,6 +1298,17 @@
   </si>
   <si>
     <t>未着手</t>
+  </si>
+  <si>
+    <t>タイトルの屋敷</t>
+    <rPh sb="5" eb="7">
+      <t>ヤシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3110,7 +3121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -4544,7 +4555,7 @@
   <dimension ref="B1:J50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" customHeight="1"/>
@@ -4600,11 +4611,11 @@
       </c>
       <c r="H3" s="32">
         <f>COUNTA(B2:B50,E2:E50)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3" s="36">
         <f>COUNTIF(C2:C50,"未完成")+COUNTIF(F2:F50,"未完成")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" s="35">
         <f>COUNTIF(C2:C50,"完了")+COUNTIF(F2:F50,"完了")</f>
@@ -4937,8 +4948,12 @@
       <c r="C24" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>197</v>
+      </c>
       <c r="H24" s="29"/>
     </row>
     <row r="25" spans="2:9" ht="18">
@@ -7213,8 +7228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF58BBBC-D08F-44AA-BEF2-75C4694003F0}">
   <dimension ref="A1:K222"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M68" sqref="M68"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" customHeight="1"/>
@@ -7825,11 +7840,21 @@
         <v>7</v>
       </c>
       <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="D26" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="I26" s="18"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -7857,9 +7882,15 @@
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="F28" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="I28" s="18"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Sh2ot\GIt用フォルダ\新しいフォルダー (4)\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作5\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FF09D1-2EBB-4275-992B-3F79D42ACF83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A587B3B-EC68-4729-B7AD-17425191F220}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" firstSheet="1" activeTab="3" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="やることリスト　プログラミング" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="198">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -3121,8 +3121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3170,7 +3170,9 @@
       <c r="D4" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="66" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="116" t="s">
@@ -3182,6 +3184,9 @@
       <c r="D5" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E5" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="116" t="s">
@@ -3193,6 +3198,9 @@
       <c r="D6" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E6" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="116" t="s">
@@ -3204,6 +3212,9 @@
       <c r="D7" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E7" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="116" t="s">
@@ -3537,6 +3548,9 @@
       <c r="D35" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E35" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="116" t="s">
@@ -3548,6 +3562,9 @@
       <c r="D36" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E36" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="116" t="s">
@@ -3556,7 +3573,12 @@
       <c r="C37" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="63"/>
+      <c r="D37" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="116" t="s">
@@ -7228,7 +7250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF58BBBC-D08F-44AA-BEF2-75C4694003F0}">
   <dimension ref="A1:K222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Sh2ot\GIt用フォルダ\新しいフォルダー (4)\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FF09D1-2EBB-4275-992B-3F79D42ACF83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAC4AD0-24F7-41EC-9E3D-4582D1508C35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" firstSheet="1" activeTab="3" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="やることリスト　プログラミング" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="210">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -1308,6 +1308,153 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４エリアぶんの床のテクスチャを決定する</t>
+    <rPh sb="7" eb="8">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４エリアぶんの床のサイズを調整する</t>
+    <rPh sb="7" eb="8">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４エリアぶんの天井のテクスチャを部屋用と廊下用で決定する</t>
+    <rPh sb="7" eb="9">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ロウカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鍵やスコアアイテムなどの拾えるアイテム系統にわかりやすくパーティクルを付ける</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイトウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアアイテムを拾いやすく当たり判定を調整する</t>
+    <rPh sb="8" eb="9">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵が一定距離内にプレイヤーを入れたときプレイヤーをダメージ状態にする処理</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>イッテイキョリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>透走モード時プレイヤーのライフが０になったときゲームオーバーの遷移をする処理</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>score_Item.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enemy.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーがダメージを受けたときライフを減らす処理(ヒット処理)</t>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player.cpp&amp;&amp;game.cpp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3121,14 +3268,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="1.796875" customWidth="1"/>
-    <col min="2" max="2" width="70.8984375" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.796875" style="62" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.09765625" style="64" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="62" customWidth="1"/>
     <col min="5" max="5" width="16.296875" style="62" bestFit="1" customWidth="1"/>
@@ -3814,52 +3961,100 @@
       </c>
       <c r="D64" s="63"/>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="2:4">
+      <c r="B65" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="64" t="s">
+        <v>142</v>
+      </c>
       <c r="D65" s="63"/>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="2:4">
+      <c r="B66" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" s="64" t="s">
+        <v>142</v>
+      </c>
       <c r="D66" s="63"/>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="2:4">
+      <c r="B67" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="64" t="s">
+        <v>145</v>
+      </c>
       <c r="D67" s="63"/>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="2:4">
+      <c r="B68" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="64" t="s">
+        <v>160</v>
+      </c>
       <c r="D68" s="63"/>
     </row>
-    <row r="69" spans="4:4">
+    <row r="69" spans="2:4">
+      <c r="B69" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="64" t="s">
+        <v>205</v>
+      </c>
       <c r="D69" s="63"/>
     </row>
-    <row r="70" spans="4:4">
+    <row r="70" spans="2:4">
+      <c r="B70" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="64" t="s">
+        <v>206</v>
+      </c>
       <c r="D70" s="63"/>
     </row>
-    <row r="71" spans="4:4">
+    <row r="71" spans="2:4">
+      <c r="B71" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="64" t="s">
+        <v>207</v>
+      </c>
       <c r="D71" s="63"/>
     </row>
-    <row r="72" spans="4:4">
+    <row r="72" spans="2:4">
+      <c r="B72" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="64" t="s">
+        <v>209</v>
+      </c>
       <c r="D72" s="63"/>
     </row>
-    <row r="73" spans="4:4">
+    <row r="73" spans="2:4">
       <c r="D73" s="63"/>
     </row>
-    <row r="74" spans="4:4">
+    <row r="74" spans="2:4">
       <c r="D74" s="63"/>
     </row>
-    <row r="75" spans="4:4">
+    <row r="75" spans="2:4">
       <c r="D75" s="63"/>
     </row>
-    <row r="76" spans="4:4">
+    <row r="76" spans="2:4">
       <c r="D76" s="63"/>
     </row>
-    <row r="77" spans="4:4">
+    <row r="77" spans="2:4">
       <c r="D77" s="63"/>
     </row>
-    <row r="78" spans="4:4">
+    <row r="78" spans="2:4">
       <c r="D78" s="63"/>
     </row>
-    <row r="79" spans="4:4">
+    <row r="79" spans="2:4">
       <c r="D79" s="63"/>
     </row>
-    <row r="80" spans="4:4">
+    <row r="80" spans="2:4">
       <c r="D80" s="63"/>
     </row>
     <row r="81" spans="4:4">
@@ -4554,7 +4749,7 @@
   </sheetPr>
   <dimension ref="B1:J50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -7228,7 +7423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF58BBBC-D08F-44AA-BEF2-75C4694003F0}">
   <dimension ref="A1:K222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github5\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7810C6F-4458-4A2B-9485-0F4517223CE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D698023B-138A-4F72-915B-15104BB7322A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="215">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -3342,8 +3342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4051,7 +4051,9 @@
       <c r="C66" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="63"/>
+      <c r="D66" s="63" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="62" t="s">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作5\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A587B3B-EC68-4729-B7AD-17425191F220}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475EC873-6E88-409E-9FA6-20113090822A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -3121,8 +3121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7810C6F-4458-4A2B-9485-0F4517223CE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF5FA27-1C2C-419F-AA5B-A01B7816E9CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="217">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -1528,6 +1528,29 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みんなcppとhの一番上に自分が作ったってコメントかけ</t>
+    <rPh sb="9" eb="11">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3342,8 +3365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4154,6 +4177,12 @@
       </c>
     </row>
     <row r="77" spans="2:5">
+      <c r="B77" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" s="64" t="s">
+        <v>216</v>
+      </c>
       <c r="D77" s="63"/>
     </row>
     <row r="78" spans="2:5">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github5\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D698023B-138A-4F72-915B-15104BB7322A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D2416B-2545-497E-B744-EC28DBD0D7B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" activeTab="2" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="やることリスト　プログラミング" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="215">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -3342,8 +3342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4042,7 +4042,9 @@
       <c r="C65" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="D65" s="63"/>
+      <c r="D65" s="63" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="62" t="s">
@@ -5481,7 +5483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2938C-A6E3-41DD-BC66-7CDBE357270C}">
   <dimension ref="V1:BZ199"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="AP49" sqref="AP49"/>
     </sheetView>
   </sheetViews>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github5\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D2416B-2545-497E-B744-EC28DBD0D7B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFD2D67-C7DE-4729-85F8-370E5BA52772}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" activeTab="2" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="やることリスト　プログラミング" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="215">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -3342,8 +3342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4055,6 +4055,9 @@
       </c>
       <c r="D66" s="63" t="s">
         <v>153</v>
+      </c>
+      <c r="E66" s="62" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="2:5">
@@ -5483,7 +5486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2938C-A6E3-41DD-BC66-7CDBE357270C}">
   <dimension ref="V1:BZ199"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="AP49" sqref="AP49"/>
     </sheetView>
   </sheetViews>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github5\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Sh2ot\GIt用フォルダ\新しいフォルダー\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFD2D67-C7DE-4729-85F8-370E5BA52772}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB55EE8-1FD7-4EE2-8452-C6388A94843C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="215">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -3342,8 +3342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="D48" s="63"/>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:5">
       <c r="B49" s="62" t="s">
         <v>165</v>
       </c>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="D49" s="63"/>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:5">
       <c r="B50" s="62" t="s">
         <v>167</v>
       </c>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="D50" s="63"/>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:5">
       <c r="B51" s="62" t="s">
         <v>168</v>
       </c>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="D51" s="63"/>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:5">
       <c r="B52" s="62" t="s">
         <v>171</v>
       </c>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D52" s="63"/>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:5">
       <c r="B53" s="62" t="s">
         <v>172</v>
       </c>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="D53" s="63"/>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:5">
       <c r="B54" s="62" t="s">
         <v>170</v>
       </c>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="D54" s="63"/>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:5">
       <c r="B55" s="62" t="s">
         <v>173</v>
       </c>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="D55" s="63"/>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:5">
       <c r="B56" s="62" t="s">
         <v>174</v>
       </c>
@@ -3963,25 +3963,35 @@
       </c>
       <c r="D56" s="63"/>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:5">
       <c r="B57" s="62" t="s">
         <v>181</v>
       </c>
       <c r="C57" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="63"/>
-    </row>
-    <row r="58" spans="2:4">
+      <c r="D57" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
       <c r="B58" s="62" t="s">
         <v>180</v>
       </c>
       <c r="C58" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="D58" s="63"/>
-    </row>
-    <row r="59" spans="2:4">
+      <c r="D58" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
       <c r="B59" s="62" t="s">
         <v>182</v>
       </c>
@@ -3990,7 +4000,7 @@
       </c>
       <c r="D59" s="63"/>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="2:5">
       <c r="B60" s="62" t="s">
         <v>183</v>
       </c>
@@ -3999,7 +4009,7 @@
       </c>
       <c r="D60" s="63"/>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="2:5">
       <c r="B61" s="62" t="s">
         <v>184</v>
       </c>
@@ -4008,25 +4018,35 @@
       </c>
       <c r="D61" s="63"/>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="2:5">
       <c r="B62" s="62" t="s">
         <v>188</v>
       </c>
       <c r="C62" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="D62" s="63"/>
-    </row>
-    <row r="63" spans="2:4">
+      <c r="D62" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
       <c r="B63" s="62" t="s">
         <v>190</v>
       </c>
       <c r="C63" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="D63" s="63"/>
-    </row>
-    <row r="64" spans="2:4">
+      <c r="D63" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
       <c r="B64" s="62" t="s">
         <v>192</v>
       </c>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E481AC4F-BC81-409B-9D34-DB3B686C93FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58E92F8-C91D-4DD6-86A7-B5AEAC14D01A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="218">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -1555,6 +1555,22 @@
   </si>
   <si>
     <t>実行画面のエディットにて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>透明なオブジェクトの描画順問題</t>
+    <rPh sb="0" eb="2">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モンダイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3368,8 +3384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4206,6 +4222,12 @@
       <c r="D77" s="63"/>
     </row>
     <row r="78" spans="2:5">
+      <c r="B78" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" s="64" t="s">
+        <v>139</v>
+      </c>
       <c r="D78" s="63"/>
     </row>
     <row r="79" spans="2:5">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58E92F8-C91D-4DD6-86A7-B5AEAC14D01A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0439FF6-5400-406E-A592-E612BF784AEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="222">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -1570,6 +1570,70 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁にくっつきながら歩いたときに引っかかる処理</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出口に使用するぶんの鍵穴のモデルを表示する処理</t>
+    <rPh sb="0" eb="2">
+      <t>デグチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カギアナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExitKey.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出口に鍵を使用したときに鍵穴のモデルを落下させ、消す処理</t>
+    <rPh sb="0" eb="2">
+      <t>デグチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カギアナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3384,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4231,57 +4295,75 @@
       <c r="D78" s="63"/>
     </row>
     <row r="79" spans="2:5">
+      <c r="B79" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="64" t="s">
+        <v>139</v>
+      </c>
       <c r="D79" s="63"/>
     </row>
     <row r="80" spans="2:5">
+      <c r="B80" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="C80" s="64" t="s">
+        <v>220</v>
+      </c>
       <c r="D80" s="63"/>
     </row>
-    <row r="81" spans="4:4">
+    <row r="81" spans="2:4">
+      <c r="B81" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" s="64" t="s">
+        <v>220</v>
+      </c>
       <c r="D81" s="63"/>
     </row>
-    <row r="82" spans="4:4">
+    <row r="82" spans="2:4">
       <c r="D82" s="63"/>
     </row>
-    <row r="83" spans="4:4">
+    <row r="83" spans="2:4">
       <c r="D83" s="63"/>
     </row>
-    <row r="84" spans="4:4">
+    <row r="84" spans="2:4">
       <c r="D84" s="63"/>
     </row>
-    <row r="85" spans="4:4">
+    <row r="85" spans="2:4">
       <c r="D85" s="63"/>
     </row>
-    <row r="86" spans="4:4">
+    <row r="86" spans="2:4">
       <c r="D86" s="63"/>
     </row>
-    <row r="87" spans="4:4">
+    <row r="87" spans="2:4">
       <c r="D87" s="63"/>
     </row>
-    <row r="88" spans="4:4">
+    <row r="88" spans="2:4">
       <c r="D88" s="63"/>
     </row>
-    <row r="89" spans="4:4">
+    <row r="89" spans="2:4">
       <c r="D89" s="63"/>
     </row>
-    <row r="90" spans="4:4">
+    <row r="90" spans="2:4">
       <c r="D90" s="63"/>
     </row>
-    <row r="91" spans="4:4">
+    <row r="91" spans="2:4">
       <c r="D91" s="63"/>
     </row>
-    <row r="92" spans="4:4">
+    <row r="92" spans="2:4">
       <c r="D92" s="63"/>
     </row>
-    <row r="93" spans="4:4">
+    <row r="93" spans="2:4">
       <c r="D93" s="63"/>
     </row>
-    <row r="94" spans="4:4">
+    <row r="94" spans="2:4">
       <c r="D94" s="63"/>
     </row>
-    <row r="95" spans="4:4">
+    <row r="95" spans="2:4">
       <c r="D95" s="63"/>
     </row>
-    <row r="96" spans="4:4">
+    <row r="96" spans="2:4">
       <c r="D96" s="63"/>
     </row>
     <row r="97" spans="4:4">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58E92F8-C91D-4DD6-86A7-B5AEAC14D01A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54158138-EA92-4361-9BDD-8E0E25408ACB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="218">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -3384,8 +3384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3433,7 +3433,9 @@
       <c r="D4" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="66" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="116" t="s">
@@ -3445,6 +3447,9 @@
       <c r="D5" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E5" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="116" t="s">
@@ -3456,6 +3461,9 @@
       <c r="D6" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E6" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="116" t="s">
@@ -3467,6 +3475,9 @@
       <c r="D7" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E7" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="116" t="s">
@@ -3803,6 +3814,9 @@
       <c r="D35" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E35" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="116" t="s">
@@ -3814,6 +3828,9 @@
       <c r="D36" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E36" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="116" t="s">
@@ -4083,7 +4100,12 @@
       <c r="C64" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="D64" s="63"/>
+      <c r="D64" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="62" t="s">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0439FF6-5400-406E-A592-E612BF784AEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3269D7E2-0D3F-47E2-A1A8-F3743A64489A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="228">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -1635,6 +1635,78 @@
     <rPh sb="26" eb="28">
       <t>ショリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>透走用ランキングにタイムのランキングを追加する</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪透用ランキングにスコアのランキングを追加する</t>
+    <rPh sb="0" eb="2">
+      <t>ワルトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト用のUIを表示出来る用にする</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム→リザルト→ランキングと行った時に自分のスコアを表示する処理</t>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resultUI.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NumberUI.cpp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3448,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4322,15 +4394,39 @@
       <c r="D81" s="63"/>
     </row>
     <row r="82" spans="2:4">
+      <c r="B82" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" s="64" t="s">
+        <v>175</v>
+      </c>
       <c r="D82" s="63"/>
     </row>
     <row r="83" spans="2:4">
+      <c r="B83" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" s="64" t="s">
+        <v>177</v>
+      </c>
       <c r="D83" s="63"/>
     </row>
     <row r="84" spans="2:4">
+      <c r="B84" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" s="64" t="s">
+        <v>226</v>
+      </c>
       <c r="D84" s="63"/>
     </row>
     <row r="85" spans="2:4">
+      <c r="B85" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="C85" s="64" t="s">
+        <v>227</v>
+      </c>
       <c r="D85" s="63"/>
     </row>
     <row r="86" spans="2:4">
@@ -5010,7 +5106,7 @@
   </sheetPr>
   <dimension ref="B1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github5\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0439FF6-5400-406E-A592-E612BF784AEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC60984-8851-45B7-BE36-C0A3A366F5C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="222">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -3449,7 +3449,7 @@
   <dimension ref="B1:E300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4159,6 +4159,9 @@
       <c r="D65" s="63" t="s">
         <v>153</v>
       </c>
+      <c r="E65" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="62" t="s">
@@ -4169,6 +4172,9 @@
       </c>
       <c r="D66" s="63" t="s">
         <v>153</v>
+      </c>
+      <c r="E66" s="62" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="2:5">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github5\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC60984-8851-45B7-BE36-C0A3A366F5C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DB8ADB-65E5-4215-BD20-858780A982E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="224">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -1635,6 +1635,26 @@
     <rPh sb="26" eb="28">
       <t>ショリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出用にゲームcppに2Dポリゴンを4枚表示出来る用にする</t>
+    <rPh sb="0" eb="3">
+      <t>エンシュツヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ヒョウジデキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PolygonBG.cpp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3448,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4346,6 +4366,12 @@
       <c r="D87" s="63"/>
     </row>
     <row r="88" spans="2:4">
+      <c r="B88" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="64" t="s">
+        <v>223</v>
+      </c>
       <c r="D88" s="63"/>
     </row>
     <row r="89" spans="2:4">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github5\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github6\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC60984-8851-45B7-BE36-C0A3A366F5C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B70835E-4846-4E48-8E0A-C919BA33FA20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="222">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -3448,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3907,7 +3907,12 @@
       <c r="C39" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="116" t="s">
@@ -4093,7 +4098,12 @@
       <c r="C58" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="D58" s="63"/>
+      <c r="D58" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="62" t="s">
@@ -4102,7 +4112,12 @@
       <c r="C59" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="63"/>
+      <c r="D59" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="62" t="s">
@@ -4111,7 +4126,12 @@
       <c r="C60" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="63"/>
+      <c r="D60" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="62" t="s">
@@ -4129,7 +4149,12 @@
       <c r="C62" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="D62" s="63"/>
+      <c r="D62" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="62" t="s">
@@ -4138,7 +4163,12 @@
       <c r="C63" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="D63" s="63"/>
+      <c r="D63" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="62" t="s">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DB8ADB-65E5-4215-BD20-858780A982E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD08714-5746-4330-BFC7-2205D911CBDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -3468,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B72" activeCellId="1" sqref="C89 B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github6\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD08714-5746-4330-BFC7-2205D911CBDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8B7E77-774F-43F8-97AF-4A9B261B7A99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="224">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -3468,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B72" activeCellId="1" sqref="C89 B72"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4104,7 +4104,12 @@
       <c r="C57" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="63"/>
+      <c r="D57" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="62" t="s">
@@ -4113,7 +4118,12 @@
       <c r="C58" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="D58" s="63"/>
+      <c r="D58" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="62" t="s">
@@ -4122,7 +4132,12 @@
       <c r="C59" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="63"/>
+      <c r="D59" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="62" t="s">
@@ -4149,7 +4164,12 @@
       <c r="C62" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="D62" s="63"/>
+      <c r="D62" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="62" t="s">
@@ -4204,7 +4224,12 @@
       <c r="C67" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="63"/>
+      <c r="D67" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="62" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="62" t="s">
@@ -4222,7 +4247,12 @@
       <c r="C69" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="D69" s="63"/>
+      <c r="D69" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="62" t="s">
@@ -4258,7 +4288,12 @@
       <c r="C73" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="63"/>
+      <c r="D73" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="62" t="s">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github6\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8B7E77-774F-43F8-97AF-4A9B261B7A99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED443BD-6CF1-4162-9A6E-B9CC7CA8BB3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="224">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -3469,7 +3469,7 @@
   <dimension ref="B1:E300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3517,7 +3517,9 @@
       <c r="D4" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="66" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="116" t="s">
@@ -3529,6 +3531,9 @@
       <c r="D5" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E5" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="116" t="s">
@@ -3540,6 +3545,9 @@
       <c r="D6" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E6" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="116" t="s">
@@ -3551,6 +3559,9 @@
       <c r="D7" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E7" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="116" t="s">
@@ -3809,7 +3820,12 @@
       <c r="C28" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="63"/>
+      <c r="D28" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="116" t="s">
@@ -3818,7 +3834,12 @@
       <c r="C29" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="63"/>
+      <c r="D29" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="116" t="s">
@@ -3887,6 +3908,9 @@
       <c r="D35" s="63" t="s">
         <v>151</v>
       </c>
+      <c r="E35" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="116" t="s">
@@ -3897,6 +3921,9 @@
       </c>
       <c r="D36" s="63" t="s">
         <v>151</v>
+      </c>
+      <c r="E36" s="62" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="2:5">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED443BD-6CF1-4162-9A6E-B9CC7CA8BB3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDADCC1-B27D-4C7E-AC12-98560D5C5714}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="224">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -1574,22 +1574,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>壁にくっつきながら歩いたときに引っかかる処理</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アル</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出口に使用するぶんの鍵穴のモデルを表示する処理</t>
     <rPh sb="0" eb="2">
       <t>デグチ</t>
@@ -1655,6 +1639,22 @@
   </si>
   <si>
     <t>PolygonBG.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁にくっつきながら歩いたときに引っかかるので修正</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3468,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3607,7 +3607,12 @@
       <c r="C11" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="116" t="s">
@@ -3709,7 +3714,12 @@
       <c r="C19" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="63"/>
+      <c r="D19" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="116" t="s">
@@ -3802,7 +3812,12 @@
       <c r="C26" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="63"/>
+      <c r="D26" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="116" t="s">
@@ -3933,7 +3948,12 @@
       <c r="C37" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="63"/>
+      <c r="D37" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="116" t="s">
@@ -3955,6 +3975,9 @@
         <v>149</v>
       </c>
       <c r="D39" s="63"/>
+      <c r="E39" s="62" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="116" t="s">
@@ -3964,6 +3987,9 @@
         <v>149</v>
       </c>
       <c r="D40" s="63"/>
+      <c r="E40" s="62" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="116" t="s">
@@ -3973,6 +3999,9 @@
         <v>150</v>
       </c>
       <c r="D41" s="63"/>
+      <c r="E41" s="62" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="116" t="s">
@@ -3982,6 +4011,9 @@
         <v>149</v>
       </c>
       <c r="D42" s="63"/>
+      <c r="E42" s="62" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="116" t="s">
@@ -4036,7 +4068,12 @@
       <c r="C47" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="63"/>
+      <c r="D47" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="62" t="s">
@@ -4045,7 +4082,12 @@
       <c r="C48" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="D48" s="63"/>
+      <c r="D48" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="62" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="62" t="s">
@@ -4054,7 +4096,12 @@
       <c r="C49" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="63"/>
+      <c r="D49" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="62" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="62" t="s">
@@ -4072,7 +4119,12 @@
       <c r="C51" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="63"/>
+      <c r="D51" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="62" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="62" t="s">
@@ -4095,7 +4147,12 @@
       <c r="C53" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="D53" s="63"/>
+      <c r="D53" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="62" t="s">
@@ -4104,7 +4161,12 @@
       <c r="C54" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="63"/>
+      <c r="D54" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="62" t="s">
@@ -4113,7 +4175,12 @@
       <c r="C55" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="D55" s="63"/>
+      <c r="D55" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="62" t="s">
@@ -4122,7 +4189,12 @@
       <c r="C56" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="D56" s="63"/>
+      <c r="D56" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="62" t="s">
@@ -4173,7 +4245,12 @@
       <c r="C60" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="63"/>
+      <c r="D60" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="62" t="s">
@@ -4182,7 +4259,12 @@
       <c r="C61" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="63"/>
+      <c r="D61" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="62" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="62" t="s">
@@ -4205,7 +4287,12 @@
       <c r="C63" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="D63" s="63"/>
+      <c r="D63" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="62" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="62" t="s">
@@ -4333,7 +4420,7 @@
         <v>152</v>
       </c>
       <c r="E74" s="62" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="2:5">
@@ -4371,7 +4458,12 @@
       <c r="C77" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="D77" s="63"/>
+      <c r="D77" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77" s="62" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="62" t="s">
@@ -4384,28 +4476,33 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="62" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C79" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="63"/>
+      <c r="D79" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" s="62" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="64" t="s">
         <v>219</v>
-      </c>
-      <c r="C80" s="64" t="s">
-        <v>220</v>
       </c>
       <c r="D80" s="63"/>
     </row>
     <row r="81" spans="2:4">
       <c r="B81" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C81" s="64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D81" s="63"/>
     </row>
@@ -4429,10 +4526,10 @@
     </row>
     <row r="88" spans="2:4">
       <c r="B88" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" s="64" t="s">
         <v>222</v>
-      </c>
-      <c r="C88" s="64" t="s">
-        <v>223</v>
       </c>
       <c r="D88" s="63"/>
     </row>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\チーム制作\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED443BD-6CF1-4162-9A6E-B9CC7CA8BB3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9747BC-889E-4F0A-AEC4-17FCFB902F55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="223">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -1295,9 +1295,6 @@
   <si>
     <t>完了</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未着手</t>
   </si>
   <si>
     <t>タイトルの屋敷</t>
@@ -3468,8 +3465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3722,7 +3719,7 @@
         <v>155</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>195</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -4218,7 +4215,7 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C65" s="64" t="s">
         <v>142</v>
@@ -4232,7 +4229,7 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C66" s="64" t="s">
         <v>142</v>
@@ -4246,7 +4243,7 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C67" s="64" t="s">
         <v>145</v>
@@ -4260,7 +4257,7 @@
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C68" s="64" t="s">
         <v>160</v>
@@ -4269,10 +4266,10 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" s="64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="63" t="s">
         <v>153</v>
@@ -4283,34 +4280,34 @@
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C70" s="64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="63"/>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C71" s="64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="63"/>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C72" s="64" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="63"/>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C73" s="64" t="s">
         <v>136</v>
@@ -4324,10 +4321,10 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" s="64" t="s">
         <v>211</v>
-      </c>
-      <c r="C74" s="64" t="s">
-        <v>212</v>
       </c>
       <c r="D74" s="63" t="s">
         <v>152</v>
@@ -4338,10 +4335,10 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C75" s="64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="63" t="s">
         <v>152</v>
@@ -4352,10 +4349,10 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C76" s="64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D76" s="63" t="s">
         <v>152</v>
@@ -4366,16 +4363,16 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="64" t="s">
         <v>215</v>
-      </c>
-      <c r="C77" s="64" t="s">
-        <v>216</v>
       </c>
       <c r="D77" s="63"/>
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C78" s="64" t="s">
         <v>139</v>
@@ -4384,7 +4381,7 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C79" s="64" t="s">
         <v>139</v>
@@ -4393,19 +4390,19 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="64" t="s">
         <v>219</v>
-      </c>
-      <c r="C80" s="64" t="s">
-        <v>220</v>
       </c>
       <c r="D80" s="63"/>
     </row>
     <row r="81" spans="2:4">
       <c r="B81" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C81" s="64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D81" s="63"/>
     </row>
@@ -4429,10 +4426,10 @@
     </row>
     <row r="88" spans="2:4">
       <c r="B88" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" s="64" t="s">
         <v>222</v>
-      </c>
-      <c r="C88" s="64" t="s">
-        <v>223</v>
       </c>
       <c r="D88" s="63"/>
     </row>
@@ -5499,10 +5496,10 @@
         <v>74</v>
       </c>
       <c r="E24" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" s="30" t="s">
         <v>196</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>197</v>
       </c>
       <c r="H24" s="29"/>
     </row>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github6\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDADCC1-B27D-4C7E-AC12-98560D5C5714}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A24FB1-EE62-4197-B262-E1FC92CF61A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="225">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -1654,6 +1654,19 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>崩壊エリア崩壊オブジェクトの追加</t>
+    <rPh sb="0" eb="2">
+      <t>ホウカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3468,8 +3481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4497,7 +4510,7 @@
       </c>
       <c r="D80" s="63"/>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:5">
       <c r="B81" s="62" t="s">
         <v>220</v>
       </c>
@@ -4506,25 +4519,36 @@
       </c>
       <c r="D81" s="63"/>
     </row>
-    <row r="82" spans="2:4">
-      <c r="D82" s="63"/>
-    </row>
-    <row r="83" spans="2:4">
+    <row r="82" spans="2:5">
+      <c r="B82" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E82" s="62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
       <c r="D83" s="63"/>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:5">
       <c r="D84" s="63"/>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:5">
       <c r="D85" s="63"/>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:5">
       <c r="D86" s="63"/>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:5">
       <c r="D87" s="63"/>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:5">
       <c r="B88" s="62" t="s">
         <v>221</v>
       </c>
@@ -4533,28 +4557,28 @@
       </c>
       <c r="D88" s="63"/>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" spans="2:5">
       <c r="D89" s="63"/>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:5">
       <c r="D90" s="63"/>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" spans="2:5">
       <c r="D91" s="63"/>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="2:5">
       <c r="D92" s="63"/>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:5">
       <c r="D93" s="63"/>
     </row>
-    <row r="94" spans="2:4">
+    <row r="94" spans="2:5">
       <c r="D94" s="63"/>
     </row>
-    <row r="95" spans="2:4">
+    <row r="95" spans="2:5">
       <c r="D95" s="63"/>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="2:5">
       <c r="D96" s="63"/>
     </row>
     <row r="97" spans="4:4">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\チーム制作\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0765D016-9580-42FA-A46C-266D618154D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE060099-0AC5-45A3-9AA3-0A9A176D99B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="243">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -1619,26 +1619,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>演出用にゲームcppに2Dポリゴンを4枚表示出来る用にする</t>
-    <rPh sb="0" eb="3">
-      <t>エンシュツヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>ヒョウジデキ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PolygonBG.cpp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>壁にくっつきながら歩いたときに引っかかるので修正</t>
     <rPh sb="0" eb="1">
       <t>カベ</t>
@@ -1664,6 +1644,264 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面の下半分4分の１を埋めるように紙の背景を表示する処理</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シタハンブン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paperBG.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙の背景を複数人対応する形にする</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フクスウニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙の背景をプレイヤー操作時に不透明度を下げる</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ソウサトキ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>フトウメイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙の背景をプレイヤー操作時に不透明度を上げる</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ソウサトキ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>フトウメイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出用にゲームcppに2Dポリゴンを4枚表示出来る用にする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PolygonBG.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーのヒット処理のリアクション用にSetPolygonBGでポリゴンを表示する。</t>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PolygonBG.cpp&amp;&amp;player.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル説明用のテクスチャを6枚準備し、それぞれにboolの情報を持たせる</t>
+    <rPh sb="7" eb="10">
+      <t>セツメイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tutorialUI.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI表示時にプレイヤーの更新を止め、チェックボックスの入力受付を開始する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックスをボックスとチェックの2つのテクスチャで作る</t>
+    <rPh sb="28" eb="29">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CheckboxUI.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックスを人数分準備し、表示する</t>
+    <rPh sb="9" eb="12">
+      <t>ニンズウブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックスがfalseの時ボックスのみ、trueの時チェックを表示</t>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CheckboxUI.cpp&amp;&amp;tutorialUI.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック表示時に透明なポリゴンを上から重ね、チェックが左から右に描画されるように表示する</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックスの受付中にボタン入力でチェック表示をする</t>
+    <rPh sb="9" eb="11">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CheckboxUI.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックスの受付中にボタン入力でプレイヤーの更新を進める</t>
+    <rPh sb="9" eb="11">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>スス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3478,14 +3716,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="1.796875" customWidth="1"/>
-    <col min="2" max="2" width="78.796875" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.8984375" style="62" customWidth="1"/>
     <col min="3" max="3" width="36.09765625" style="64" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="62" customWidth="1"/>
     <col min="5" max="5" width="16.296875" style="62" bestFit="1" customWidth="1"/>
@@ -4489,7 +4727,7 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="62" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C79" s="64" t="s">
         <v>139</v>
@@ -4521,7 +4759,7 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="62" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C82" s="64" t="s">
         <v>139</v>
@@ -4534,51 +4772,129 @@
       </c>
     </row>
     <row r="83" spans="2:5">
+      <c r="B83" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" s="64" t="s">
+        <v>223</v>
+      </c>
       <c r="D83" s="63"/>
     </row>
     <row r="84" spans="2:5">
+      <c r="B84" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" s="64" t="s">
+        <v>223</v>
+      </c>
       <c r="D84" s="63"/>
     </row>
     <row r="85" spans="2:5">
+      <c r="B85" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="C85" s="64" t="s">
+        <v>223</v>
+      </c>
       <c r="D85" s="63"/>
     </row>
     <row r="86" spans="2:5">
+      <c r="B86" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="C86" s="64" t="s">
+        <v>223</v>
+      </c>
       <c r="D86" s="63"/>
     </row>
     <row r="87" spans="2:5">
+      <c r="B87" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="C87" s="64" t="s">
+        <v>228</v>
+      </c>
       <c r="D87" s="63"/>
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="62" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C88" s="64" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D88" s="63"/>
     </row>
     <row r="89" spans="2:5">
+      <c r="B89" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" s="64" t="s">
+        <v>232</v>
+      </c>
       <c r="D89" s="63"/>
     </row>
     <row r="90" spans="2:5">
+      <c r="B90" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" s="64" t="s">
+        <v>235</v>
+      </c>
       <c r="D90" s="63"/>
     </row>
     <row r="91" spans="2:5">
+      <c r="B91" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" s="64" t="s">
+        <v>235</v>
+      </c>
       <c r="D91" s="63"/>
     </row>
     <row r="92" spans="2:5">
+      <c r="B92" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="C92" s="64" t="s">
+        <v>235</v>
+      </c>
       <c r="D92" s="63"/>
     </row>
     <row r="93" spans="2:5">
+      <c r="B93" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C93" s="64" t="s">
+        <v>238</v>
+      </c>
       <c r="D93" s="63"/>
     </row>
     <row r="94" spans="2:5">
+      <c r="B94" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" s="64" t="s">
+        <v>238</v>
+      </c>
       <c r="D94" s="63"/>
     </row>
     <row r="95" spans="2:5">
+      <c r="B95" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="C95" s="64" t="s">
+        <v>241</v>
+      </c>
       <c r="D95" s="63"/>
     </row>
     <row r="96" spans="2:5">
+      <c r="B96" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="C96" s="64" t="s">
+        <v>241</v>
+      </c>
       <c r="D96" s="63"/>
     </row>
     <row r="97" spans="4:4">
@@ -5225,7 +5541,7 @@
   </sheetPr>
   <dimension ref="B1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -7899,7 +8215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF58BBBC-D08F-44AA-BEF2-75C4694003F0}">
   <dimension ref="A1:K222"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE060099-0AC5-45A3-9AA3-0A9A176D99B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0257FE9-E517-49BF-9B60-C0D2750FBD10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="245">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -1903,6 +1903,26 @@
     <rPh sb="28" eb="29">
       <t>スス</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックスの不透明度を紙の背景とリンクするようにする</t>
+    <rPh sb="9" eb="12">
+      <t>フトウメイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CheckboxUI.cpp&amp;&amp;paper.cpp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3716,8 +3736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="B78" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4897,52 +4917,58 @@
       </c>
       <c r="D96" s="63"/>
     </row>
-    <row r="97" spans="4:4">
+    <row r="97" spans="2:4">
+      <c r="B97" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="C97" s="64" t="s">
+        <v>244</v>
+      </c>
       <c r="D97" s="63"/>
     </row>
-    <row r="98" spans="4:4">
+    <row r="98" spans="2:4">
       <c r="D98" s="63"/>
     </row>
-    <row r="99" spans="4:4">
+    <row r="99" spans="2:4">
       <c r="D99" s="63"/>
     </row>
-    <row r="100" spans="4:4">
+    <row r="100" spans="2:4">
       <c r="D100" s="63"/>
     </row>
-    <row r="101" spans="4:4">
+    <row r="101" spans="2:4">
       <c r="D101" s="63"/>
     </row>
-    <row r="102" spans="4:4">
+    <row r="102" spans="2:4">
       <c r="D102" s="63"/>
     </row>
-    <row r="103" spans="4:4">
+    <row r="103" spans="2:4">
       <c r="D103" s="63"/>
     </row>
-    <row r="104" spans="4:4">
+    <row r="104" spans="2:4">
       <c r="D104" s="63"/>
     </row>
-    <row r="105" spans="4:4">
+    <row r="105" spans="2:4">
       <c r="D105" s="63"/>
     </row>
-    <row r="106" spans="4:4">
+    <row r="106" spans="2:4">
       <c r="D106" s="63"/>
     </row>
-    <row r="107" spans="4:4">
+    <row r="107" spans="2:4">
       <c r="D107" s="63"/>
     </row>
-    <row r="108" spans="4:4">
+    <row r="108" spans="2:4">
       <c r="D108" s="63"/>
     </row>
-    <row r="109" spans="4:4">
+    <row r="109" spans="2:4">
       <c r="D109" s="63"/>
     </row>
-    <row r="110" spans="4:4">
+    <row r="110" spans="2:4">
       <c r="D110" s="63"/>
     </row>
-    <row r="111" spans="4:4">
+    <row r="111" spans="2:4">
       <c r="D111" s="63"/>
     </row>
-    <row r="112" spans="4:4">
+    <row r="112" spans="2:4">
       <c r="D112" s="63"/>
     </row>
     <row r="113" spans="4:4">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0257FE9-E517-49BF-9B60-C0D2750FBD10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C902B497-1576-4E28-AEC2-047CC7E9A6C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="247">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -1676,10 +1676,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>paperBG.cpp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>紙の背景を複数人対応する形にする</t>
     <rPh sb="0" eb="1">
       <t>カミ</t>
@@ -1923,6 +1919,35 @@
   </si>
   <si>
     <t>CheckboxUI.cpp&amp;&amp;paper.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paperBG00.cpp</t>
+  </si>
+  <si>
+    <t>paperBG01.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初とプレイヤーの項目クリア時に全体に表示する紙</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3736,8 +3761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4793,140 +4818,146 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="62" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C83" s="64" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="D83" s="63"/>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="62" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C84" s="64" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D84" s="63"/>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="62" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C85" s="64" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D85" s="63"/>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="62" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C86" s="64" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D86" s="63"/>
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C87" s="64" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D87" s="63"/>
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="62" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C88" s="64" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D88" s="63"/>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="62" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C89" s="64" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D89" s="63"/>
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="62" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C90" s="64" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D90" s="63"/>
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="62" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C91" s="64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D91" s="63"/>
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="62" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C92" s="64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D92" s="63"/>
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="62" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C93" s="64" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D93" s="63"/>
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="62" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C94" s="64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D94" s="63"/>
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="62" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C95" s="64" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D95" s="63"/>
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="62" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C96" s="64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D96" s="63"/>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="C97" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="D97" s="63"/>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="C98" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="C97" s="64" t="s">
-        <v>244</v>
-      </c>
-      <c r="D97" s="63"/>
-    </row>
-    <row r="98" spans="2:4">
       <c r="D98" s="63"/>
     </row>
     <row r="99" spans="2:4">
@@ -5537,7 +5568,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B4:E300">
+  <conditionalFormatting sqref="B4:E82 B99:E300 D83:E98 B84:C98 C83">
     <cfRule type="containsBlanks" dxfId="20" priority="3">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C902B497-1576-4E28-AEC2-047CC7E9A6C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E2BC94-FB4A-4323-B577-96D69E468BA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="8820" activeTab="1" xr2:uid="{15C41303-D297-4FCA-A121-998D9B18FEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="やることリスト　プログラミング" sheetId="2" r:id="rId1"/>
-    <sheet name="やることリスト モデル" sheetId="5" r:id="rId2"/>
-    <sheet name="マップ制作案" sheetId="6" r:id="rId3"/>
-    <sheet name="日程" sheetId="4" r:id="rId4"/>
+    <sheet name="モデルの名前" sheetId="7" r:id="rId2"/>
+    <sheet name="やることリスト モデル" sheetId="5" r:id="rId3"/>
+    <sheet name="マップ制作案" sheetId="6" r:id="rId4"/>
+    <sheet name="日程" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="358">
   <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
@@ -1948,6 +1949,598 @@
     <rPh sb="23" eb="24">
       <t>カミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.mqo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HighPolyWall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>desk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>locker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whiteboard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>officechar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>corkboard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>camera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>art</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>document</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>door_side1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>door_side2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doorup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>illumination</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jwewlry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lightbutton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longdesk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>machine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moniter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>projecter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shelf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>desk_pc</t>
+  </si>
+  <si>
+    <t>projecter2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>plant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dustbox</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>book_shelf</t>
+  </si>
+  <si>
+    <t>papercut_desk</t>
+  </si>
+  <si>
+    <t>coat_rack</t>
+  </si>
+  <si>
+    <t>endai</t>
+  </si>
+  <si>
+    <t>papwatcher_cut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>copy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BuleBox</t>
+  </si>
+  <si>
+    <t>Cabinet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chemicalshelf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Height_Cabinet</t>
+  </si>
+  <si>
+    <t>rubble</t>
+  </si>
+  <si>
+    <t>stretcher</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>catcar</t>
+  </si>
+  <si>
+    <t>fence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rock2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlackDesk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>door_1</t>
+  </si>
+  <si>
+    <t>door_2</t>
+  </si>
+  <si>
+    <t>door_huti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gareki</t>
+  </si>
+  <si>
+    <t>lounge</t>
+  </si>
+  <si>
+    <t>壁</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パソコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>机</t>
+    <rPh sb="0" eb="1">
+      <t>ツクエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>換気扇</t>
+    <rPh sb="0" eb="3">
+      <t>カンキセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロッカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オフィスチェア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コルクボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監視カメラ</t>
+    <rPh sb="0" eb="2">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絵３つ</t>
+    <rPh sb="0" eb="1">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重なった資料</t>
+    <rPh sb="0" eb="1">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉の左</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉の右</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉の上</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蛍光灯</t>
+    <rPh sb="0" eb="3">
+      <t>ケイコウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア用アイテム</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鍵</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電気をつけるスイッチ</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会議用テーブル</t>
+    <rPh sb="0" eb="3">
+      <t>カイギヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研究所のでかい機械</t>
+    <rPh sb="0" eb="3">
+      <t>ケンキュウジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モニター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>培養液</t>
+    <rPh sb="0" eb="3">
+      <t>バイヨウエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棚</t>
+    <rPh sb="0" eb="1">
+      <t>タナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通気口</t>
+    <rPh sb="0" eb="3">
+      <t>ツウキコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>窓</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パソコンつき机</t>
+    <rPh sb="6" eb="7">
+      <t>ツクエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>観葉植物</t>
+    <rPh sb="0" eb="4">
+      <t>カンヨウショクブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴミ箱</t>
+    <rPh sb="2" eb="3">
+      <t>バコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーテーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本棚</t>
+    <rPh sb="0" eb="2">
+      <t>ホンダナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイク付き机</t>
+    <rPh sb="3" eb="4">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツクエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コート掛け</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演台</t>
+    <rPh sb="0" eb="2">
+      <t>エンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わからん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>watch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁掛け時計</t>
+    <rPh sb="0" eb="2">
+      <t>カベカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コピー機</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブルーシートのかかった箱</t>
+    <rPh sb="11" eb="12">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段ボールの乗った棚</t>
+    <rPh sb="0" eb="1">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薬品の入った棚</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクヒン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横長な棚</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコナガ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がれき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>救急ベッド</t>
+    <rPh sb="0" eb="2">
+      <t>キュウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猫車</t>
+    <rPh sb="0" eb="2">
+      <t>ネコグルマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平たい岩のがれき</t>
+    <rPh sb="0" eb="1">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理科室の机</t>
+    <rPh sb="0" eb="3">
+      <t>リカシツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツクエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牢屋</t>
+    <rPh sb="0" eb="2">
+      <t>ロウヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左ドア</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右ドア</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドアの枠組み</t>
+    <rPh sb="3" eb="5">
+      <t>ワクグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラウンジ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2569,7 +3162,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2932,6 +3525,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3761,7 +4357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C52AB4-9D9B-46B5-9CE2-3045F295C0DC}">
   <dimension ref="B1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
@@ -5592,6 +6188,477 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C258F358-E62B-4E51-ADB4-EB831189E37D}">
+  <dimension ref="C3:E58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" style="121" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5">
+      <c r="C3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="121" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="121" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="121" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="121" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="121" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="121" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="121" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D12" s="121" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" s="121" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="121" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="121" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" s="121" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="121" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="121" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19" s="121" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D20" s="121" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" s="121" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>322</v>
+      </c>
+      <c r="D22" s="121" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="121" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="121" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
+        <v>325</v>
+      </c>
+      <c r="D25" s="121" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>326</v>
+      </c>
+      <c r="D26" s="121" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
+        <v>327</v>
+      </c>
+      <c r="D27" s="121" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
+        <v>328</v>
+      </c>
+      <c r="D28" s="121" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" s="121" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
+        <v>330</v>
+      </c>
+      <c r="D30" s="121" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" s="121" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" s="121" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D33" s="121" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
+        <v>333</v>
+      </c>
+      <c r="D34" s="121" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" t="s">
+        <v>334</v>
+      </c>
+      <c r="D35" s="121" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
+        <v>335</v>
+      </c>
+      <c r="D36" s="121" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D37" s="121" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D38" s="121" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" t="s">
+        <v>338</v>
+      </c>
+      <c r="D39" s="121" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D40" s="121" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" t="s">
+        <v>341</v>
+      </c>
+      <c r="D41" s="121" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" t="s">
+        <v>342</v>
+      </c>
+      <c r="D42" s="121" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" t="s">
+        <v>343</v>
+      </c>
+      <c r="D43" s="121" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" t="s">
+        <v>344</v>
+      </c>
+      <c r="D44" s="121" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" t="s">
+        <v>345</v>
+      </c>
+      <c r="D45" s="121" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" t="s">
+        <v>346</v>
+      </c>
+      <c r="D46" s="121" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" t="s">
+        <v>347</v>
+      </c>
+      <c r="D47" s="121" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" t="s">
+        <v>348</v>
+      </c>
+      <c r="D48" s="121" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" t="s">
+        <v>349</v>
+      </c>
+      <c r="D49" s="121" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" t="s">
+        <v>350</v>
+      </c>
+      <c r="D50" s="121" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" t="s">
+        <v>351</v>
+      </c>
+      <c r="D51" s="121" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" t="s">
+        <v>352</v>
+      </c>
+      <c r="D52" s="121" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" t="s">
+        <v>353</v>
+      </c>
+      <c r="D53" s="121" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" t="s">
+        <v>354</v>
+      </c>
+      <c r="D54" s="121" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55" t="s">
+        <v>355</v>
+      </c>
+      <c r="D55" s="121" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56" t="s">
+        <v>356</v>
+      </c>
+      <c r="D56" s="121" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57" t="s">
+        <v>347</v>
+      </c>
+      <c r="D57" s="121" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" t="s">
+        <v>357</v>
+      </c>
+      <c r="D58" s="121" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9C8FED-35A2-4263-931F-CEC215950294}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6216,7 +7283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2938C-A6E3-41DD-BC66-7CDBE357270C}">
   <dimension ref="V1:BZ199"/>
   <sheetViews>
@@ -8268,7 +9335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF58BBBC-D08F-44AA-BEF2-75C4694003F0}">
   <dimension ref="A1:K222"/>
   <sheetViews>
